--- a/WIP__uds3_ift_matches.xlsx
+++ b/WIP__uds3_ift_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_DataTransDict/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1042863A-C98A-524D-84FA-A594D195C5DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8021BE85-502F-524F-8C5F-8AA7C2611A75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57600" yWindow="460" windowWidth="19200" windowHeight="23540" xr2:uid="{076664BD-647D-FA4F-B94B-D41FA05C105D}"/>
+    <workbookView xWindow="3840" yWindow="460" windowWidth="24000" windowHeight="17540" xr2:uid="{076664BD-647D-FA4F-B94B-D41FA05C105D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1080">
   <si>
     <t>ivp_a1</t>
   </si>
@@ -423,6 +423,2853 @@
   </si>
   <si>
     <t>newinf</t>
+  </si>
+  <si>
+    <t>afffamm</t>
+  </si>
+  <si>
+    <t>fadmut</t>
+  </si>
+  <si>
+    <t>fadmutx</t>
+  </si>
+  <si>
+    <t>fadmuso</t>
+  </si>
+  <si>
+    <t>fadmusox</t>
+  </si>
+  <si>
+    <t>fftdmut</t>
+  </si>
+  <si>
+    <t>fftdmutx</t>
+  </si>
+  <si>
+    <t>fftdmuso</t>
+  </si>
+  <si>
+    <t>fftdmusx</t>
+  </si>
+  <si>
+    <t>fothmut</t>
+  </si>
+  <si>
+    <t>fothmutx</t>
+  </si>
+  <si>
+    <t>fothmuso</t>
+  </si>
+  <si>
+    <t>fothmusx</t>
+  </si>
+  <si>
+    <t>note_a3_1</t>
+  </si>
+  <si>
+    <t>mommob</t>
+  </si>
+  <si>
+    <t>momyob</t>
+  </si>
+  <si>
+    <t>momdage</t>
+  </si>
+  <si>
+    <t>momneur</t>
+  </si>
+  <si>
+    <t>momprdx</t>
+  </si>
+  <si>
+    <t>mommoe</t>
+  </si>
+  <si>
+    <t>momageo</t>
+  </si>
+  <si>
+    <t>dadmob</t>
+  </si>
+  <si>
+    <t>dadyob</t>
+  </si>
+  <si>
+    <t>daddage</t>
+  </si>
+  <si>
+    <t>dadneur</t>
+  </si>
+  <si>
+    <t>dadprdx</t>
+  </si>
+  <si>
+    <t>dadmoe</t>
+  </si>
+  <si>
+    <t>dadageo</t>
+  </si>
+  <si>
+    <t>note_a3_2</t>
+  </si>
+  <si>
+    <t>sibs</t>
+  </si>
+  <si>
+    <t>note_a3_3</t>
+  </si>
+  <si>
+    <t>note_a3_4</t>
+  </si>
+  <si>
+    <t>sib1mob</t>
+  </si>
+  <si>
+    <t>sib1yob</t>
+  </si>
+  <si>
+    <t>sib1agd</t>
+  </si>
+  <si>
+    <t>sib1neu</t>
+  </si>
+  <si>
+    <t>sib1pdx</t>
+  </si>
+  <si>
+    <t>sib1moe</t>
+  </si>
+  <si>
+    <t>sib1ago</t>
+  </si>
+  <si>
+    <t>note_a3_5</t>
+  </si>
+  <si>
+    <t>sib2mob</t>
+  </si>
+  <si>
+    <t>sib2yob</t>
+  </si>
+  <si>
+    <t>sib2agd</t>
+  </si>
+  <si>
+    <t>sib2neu</t>
+  </si>
+  <si>
+    <t>sib2pdx</t>
+  </si>
+  <si>
+    <t>sib2moe</t>
+  </si>
+  <si>
+    <t>sib2ago</t>
+  </si>
+  <si>
+    <t>note_a3_6</t>
+  </si>
+  <si>
+    <t>sib3mob</t>
+  </si>
+  <si>
+    <t>sib3yob</t>
+  </si>
+  <si>
+    <t>sib3agd</t>
+  </si>
+  <si>
+    <t>sib3neu</t>
+  </si>
+  <si>
+    <t>sib3pdx</t>
+  </si>
+  <si>
+    <t>sib3moe</t>
+  </si>
+  <si>
+    <t>sib3ago</t>
+  </si>
+  <si>
+    <t>note_a3_7</t>
+  </si>
+  <si>
+    <t>sib4mob</t>
+  </si>
+  <si>
+    <t>sib4yob</t>
+  </si>
+  <si>
+    <t>sib4agd</t>
+  </si>
+  <si>
+    <t>sib4neu</t>
+  </si>
+  <si>
+    <t>sib4pdx</t>
+  </si>
+  <si>
+    <t>sib4moe</t>
+  </si>
+  <si>
+    <t>sib4ago</t>
+  </si>
+  <si>
+    <t>note_a3_8</t>
+  </si>
+  <si>
+    <t>sib5mob</t>
+  </si>
+  <si>
+    <t>sib5yob</t>
+  </si>
+  <si>
+    <t>sib5agd</t>
+  </si>
+  <si>
+    <t>sib5neu</t>
+  </si>
+  <si>
+    <t>sib5pdx</t>
+  </si>
+  <si>
+    <t>sib5moe</t>
+  </si>
+  <si>
+    <t>sib5ago</t>
+  </si>
+  <si>
+    <t>note_a3_9</t>
+  </si>
+  <si>
+    <t>sib6mob</t>
+  </si>
+  <si>
+    <t>sib6yob</t>
+  </si>
+  <si>
+    <t>sib6agd</t>
+  </si>
+  <si>
+    <t>sib6neu</t>
+  </si>
+  <si>
+    <t>sib6pdx</t>
+  </si>
+  <si>
+    <t>sib6moe</t>
+  </si>
+  <si>
+    <t>sib6ago</t>
+  </si>
+  <si>
+    <t>note_a3_10</t>
+  </si>
+  <si>
+    <t>sib7mob</t>
+  </si>
+  <si>
+    <t>sib7yob</t>
+  </si>
+  <si>
+    <t>sib7agd</t>
+  </si>
+  <si>
+    <t>sib7neu</t>
+  </si>
+  <si>
+    <t>sib7pdx</t>
+  </si>
+  <si>
+    <t>sib7moe</t>
+  </si>
+  <si>
+    <t>sib7ago</t>
+  </si>
+  <si>
+    <t>note_a3_11</t>
+  </si>
+  <si>
+    <t>sib8mob</t>
+  </si>
+  <si>
+    <t>sib8yob</t>
+  </si>
+  <si>
+    <t>sib8agd</t>
+  </si>
+  <si>
+    <t>sib8neu</t>
+  </si>
+  <si>
+    <t>sib8pdx</t>
+  </si>
+  <si>
+    <t>sib8moe</t>
+  </si>
+  <si>
+    <t>sib8ago</t>
+  </si>
+  <si>
+    <t>note_a3_12</t>
+  </si>
+  <si>
+    <t>sib9mob</t>
+  </si>
+  <si>
+    <t>sib9yob</t>
+  </si>
+  <si>
+    <t>sib9agd</t>
+  </si>
+  <si>
+    <t>sib9neu</t>
+  </si>
+  <si>
+    <t>sib9pdx</t>
+  </si>
+  <si>
+    <t>sib9moe</t>
+  </si>
+  <si>
+    <t>sib9ago</t>
+  </si>
+  <si>
+    <t>note_a3_13</t>
+  </si>
+  <si>
+    <t>sib10mob</t>
+  </si>
+  <si>
+    <t>sib10yob</t>
+  </si>
+  <si>
+    <t>sib10agd</t>
+  </si>
+  <si>
+    <t>sib10neu</t>
+  </si>
+  <si>
+    <t>sib10pdx</t>
+  </si>
+  <si>
+    <t>sib10moe</t>
+  </si>
+  <si>
+    <t>sib10ago</t>
+  </si>
+  <si>
+    <t>note_a3_14</t>
+  </si>
+  <si>
+    <t>sib11mob</t>
+  </si>
+  <si>
+    <t>sib11yob</t>
+  </si>
+  <si>
+    <t>sib11agd</t>
+  </si>
+  <si>
+    <t>sib11neu</t>
+  </si>
+  <si>
+    <t>sib11pdx</t>
+  </si>
+  <si>
+    <t>sib11moe</t>
+  </si>
+  <si>
+    <t>sib11ago</t>
+  </si>
+  <si>
+    <t>note_a3_15</t>
+  </si>
+  <si>
+    <t>sib12mob</t>
+  </si>
+  <si>
+    <t>sib12yob</t>
+  </si>
+  <si>
+    <t>sib12agd</t>
+  </si>
+  <si>
+    <t>sib12neu</t>
+  </si>
+  <si>
+    <t>sib12pdx</t>
+  </si>
+  <si>
+    <t>sib12moe</t>
+  </si>
+  <si>
+    <t>sib12ago</t>
+  </si>
+  <si>
+    <t>note_a3_16</t>
+  </si>
+  <si>
+    <t>sib13mob</t>
+  </si>
+  <si>
+    <t>sib13yob</t>
+  </si>
+  <si>
+    <t>sib13agd</t>
+  </si>
+  <si>
+    <t>sib13neu</t>
+  </si>
+  <si>
+    <t>sib13pdx</t>
+  </si>
+  <si>
+    <t>sib13moe</t>
+  </si>
+  <si>
+    <t>sib13ago</t>
+  </si>
+  <si>
+    <t>note_a3_17</t>
+  </si>
+  <si>
+    <t>sib14mob</t>
+  </si>
+  <si>
+    <t>sib14yob</t>
+  </si>
+  <si>
+    <t>sib14agd</t>
+  </si>
+  <si>
+    <t>sib14neu</t>
+  </si>
+  <si>
+    <t>sib14pdx</t>
+  </si>
+  <si>
+    <t>sib14moe</t>
+  </si>
+  <si>
+    <t>sib14ago</t>
+  </si>
+  <si>
+    <t>note_a3_18</t>
+  </si>
+  <si>
+    <t>sib15mob</t>
+  </si>
+  <si>
+    <t>sib15yob</t>
+  </si>
+  <si>
+    <t>sib15agd</t>
+  </si>
+  <si>
+    <t>sib15neu</t>
+  </si>
+  <si>
+    <t>sib15pdx</t>
+  </si>
+  <si>
+    <t>sib15moe</t>
+  </si>
+  <si>
+    <t>sib15ago</t>
+  </si>
+  <si>
+    <t>note_a3_19</t>
+  </si>
+  <si>
+    <t>sib16mob</t>
+  </si>
+  <si>
+    <t>sib16yob</t>
+  </si>
+  <si>
+    <t>sib16agd</t>
+  </si>
+  <si>
+    <t>sib16neu</t>
+  </si>
+  <si>
+    <t>sib16pdx</t>
+  </si>
+  <si>
+    <t>sib16moe</t>
+  </si>
+  <si>
+    <t>sib16ago</t>
+  </si>
+  <si>
+    <t>note_a3_20</t>
+  </si>
+  <si>
+    <t>sib17mob</t>
+  </si>
+  <si>
+    <t>sib17yob</t>
+  </si>
+  <si>
+    <t>sib17agd</t>
+  </si>
+  <si>
+    <t>sib17neu</t>
+  </si>
+  <si>
+    <t>sib17pdx</t>
+  </si>
+  <si>
+    <t>sib17moe</t>
+  </si>
+  <si>
+    <t>sib17ago</t>
+  </si>
+  <si>
+    <t>note_a3_21</t>
+  </si>
+  <si>
+    <t>sib18mob</t>
+  </si>
+  <si>
+    <t>sib18yob</t>
+  </si>
+  <si>
+    <t>sib18agd</t>
+  </si>
+  <si>
+    <t>sib18neu</t>
+  </si>
+  <si>
+    <t>sib18pdx</t>
+  </si>
+  <si>
+    <t>sib18moe</t>
+  </si>
+  <si>
+    <t>sib18ago</t>
+  </si>
+  <si>
+    <t>note_a3_22</t>
+  </si>
+  <si>
+    <t>sib19mob</t>
+  </si>
+  <si>
+    <t>sib19yob</t>
+  </si>
+  <si>
+    <t>sib19agd</t>
+  </si>
+  <si>
+    <t>sib19neu</t>
+  </si>
+  <si>
+    <t>sib19pdx</t>
+  </si>
+  <si>
+    <t>sib19moe</t>
+  </si>
+  <si>
+    <t>sib19ago</t>
+  </si>
+  <si>
+    <t>note_a3_23</t>
+  </si>
+  <si>
+    <t>sib20mob</t>
+  </si>
+  <si>
+    <t>sib20yob</t>
+  </si>
+  <si>
+    <t>sib20agd</t>
+  </si>
+  <si>
+    <t>sib20neu</t>
+  </si>
+  <si>
+    <t>sib20pdx</t>
+  </si>
+  <si>
+    <t>sib20moe</t>
+  </si>
+  <si>
+    <t>sib20ago</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>note_a3_24</t>
+  </si>
+  <si>
+    <t>note_a3_25</t>
+  </si>
+  <si>
+    <t>kid1mob</t>
+  </si>
+  <si>
+    <t>kid1yob</t>
+  </si>
+  <si>
+    <t>kid1agd</t>
+  </si>
+  <si>
+    <t>kid1neu</t>
+  </si>
+  <si>
+    <t>kid1pdx</t>
+  </si>
+  <si>
+    <t>kid1moe</t>
+  </si>
+  <si>
+    <t>kid1ago</t>
+  </si>
+  <si>
+    <t>note_a3_26</t>
+  </si>
+  <si>
+    <t>kid2mob</t>
+  </si>
+  <si>
+    <t>kid2yob</t>
+  </si>
+  <si>
+    <t>kid2agd</t>
+  </si>
+  <si>
+    <t>kid2neu</t>
+  </si>
+  <si>
+    <t>kid2pdx</t>
+  </si>
+  <si>
+    <t>kid2moe</t>
+  </si>
+  <si>
+    <t>kid2ago</t>
+  </si>
+  <si>
+    <t>note_a3_27</t>
+  </si>
+  <si>
+    <t>kid3mob</t>
+  </si>
+  <si>
+    <t>kid3yob</t>
+  </si>
+  <si>
+    <t>kid3agd</t>
+  </si>
+  <si>
+    <t>kid3neu</t>
+  </si>
+  <si>
+    <t>kid3pdx</t>
+  </si>
+  <si>
+    <t>kid3moe</t>
+  </si>
+  <si>
+    <t>kid3ago</t>
+  </si>
+  <si>
+    <t>note_a3_28</t>
+  </si>
+  <si>
+    <t>kid4mob</t>
+  </si>
+  <si>
+    <t>kid4yob</t>
+  </si>
+  <si>
+    <t>kid4agd</t>
+  </si>
+  <si>
+    <t>kid4neu</t>
+  </si>
+  <si>
+    <t>kid4pdx</t>
+  </si>
+  <si>
+    <t>kid4moe</t>
+  </si>
+  <si>
+    <t>kid4ago</t>
+  </si>
+  <si>
+    <t>note_a3_29</t>
+  </si>
+  <si>
+    <t>kid5mob</t>
+  </si>
+  <si>
+    <t>kid5yob</t>
+  </si>
+  <si>
+    <t>kid5agd</t>
+  </si>
+  <si>
+    <t>kid5neu</t>
+  </si>
+  <si>
+    <t>kid5pdx</t>
+  </si>
+  <si>
+    <t>kid5moe</t>
+  </si>
+  <si>
+    <t>kid5ago</t>
+  </si>
+  <si>
+    <t>note_a3_30</t>
+  </si>
+  <si>
+    <t>kid6mob</t>
+  </si>
+  <si>
+    <t>kid6yob</t>
+  </si>
+  <si>
+    <t>kid6agd</t>
+  </si>
+  <si>
+    <t>kid6neu</t>
+  </si>
+  <si>
+    <t>kid6pdx</t>
+  </si>
+  <si>
+    <t>kid6moe</t>
+  </si>
+  <si>
+    <t>kid6ago</t>
+  </si>
+  <si>
+    <t>note_a3_31</t>
+  </si>
+  <si>
+    <t>kid7mob</t>
+  </si>
+  <si>
+    <t>kid7yob</t>
+  </si>
+  <si>
+    <t>kid7agd</t>
+  </si>
+  <si>
+    <t>kid7neu</t>
+  </si>
+  <si>
+    <t>kid7pdx</t>
+  </si>
+  <si>
+    <t>kid7moe</t>
+  </si>
+  <si>
+    <t>kid7ago</t>
+  </si>
+  <si>
+    <t>note_a3_32</t>
+  </si>
+  <si>
+    <t>kid8mob</t>
+  </si>
+  <si>
+    <t>kid8yob</t>
+  </si>
+  <si>
+    <t>kid8agd</t>
+  </si>
+  <si>
+    <t>kid8neu</t>
+  </si>
+  <si>
+    <t>kid8pdx</t>
+  </si>
+  <si>
+    <t>kid8moe</t>
+  </si>
+  <si>
+    <t>kid8ago</t>
+  </si>
+  <si>
+    <t>note_a3_33</t>
+  </si>
+  <si>
+    <t>kid9mob</t>
+  </si>
+  <si>
+    <t>kid9yob</t>
+  </si>
+  <si>
+    <t>kid9agd</t>
+  </si>
+  <si>
+    <t>kid9neu</t>
+  </si>
+  <si>
+    <t>kid9pdx</t>
+  </si>
+  <si>
+    <t>kid9moe</t>
+  </si>
+  <si>
+    <t>kid9ago</t>
+  </si>
+  <si>
+    <t>note_a3_34</t>
+  </si>
+  <si>
+    <t>kid10mob</t>
+  </si>
+  <si>
+    <t>kid10yob</t>
+  </si>
+  <si>
+    <t>kid10agd</t>
+  </si>
+  <si>
+    <t>kid10neu</t>
+  </si>
+  <si>
+    <t>kid10pdx</t>
+  </si>
+  <si>
+    <t>kid10moe</t>
+  </si>
+  <si>
+    <t>kid10ago</t>
+  </si>
+  <si>
+    <t>note_a3_35</t>
+  </si>
+  <si>
+    <t>kid11mob</t>
+  </si>
+  <si>
+    <t>kid11yob</t>
+  </si>
+  <si>
+    <t>kid11agd</t>
+  </si>
+  <si>
+    <t>kid11neu</t>
+  </si>
+  <si>
+    <t>kid11pdx</t>
+  </si>
+  <si>
+    <t>kid11moe</t>
+  </si>
+  <si>
+    <t>kid11ago</t>
+  </si>
+  <si>
+    <t>note_a3_36</t>
+  </si>
+  <si>
+    <t>kid12mob</t>
+  </si>
+  <si>
+    <t>kid12yob</t>
+  </si>
+  <si>
+    <t>kid12agd</t>
+  </si>
+  <si>
+    <t>kid12neu</t>
+  </si>
+  <si>
+    <t>kid12pdx</t>
+  </si>
+  <si>
+    <t>kid12moe</t>
+  </si>
+  <si>
+    <t>kid12ago</t>
+  </si>
+  <si>
+    <t>note_a3_37</t>
+  </si>
+  <si>
+    <t>kid13mob</t>
+  </si>
+  <si>
+    <t>kid13yob</t>
+  </si>
+  <si>
+    <t>kid13agd</t>
+  </si>
+  <si>
+    <t>kid13neu</t>
+  </si>
+  <si>
+    <t>kid13pdx</t>
+  </si>
+  <si>
+    <t>kid13moe</t>
+  </si>
+  <si>
+    <t>kid13ago</t>
+  </si>
+  <si>
+    <t>note_a3_38</t>
+  </si>
+  <si>
+    <t>kid14mob</t>
+  </si>
+  <si>
+    <t>kid14yob</t>
+  </si>
+  <si>
+    <t>kid14agd</t>
+  </si>
+  <si>
+    <t>kid14neu</t>
+  </si>
+  <si>
+    <t>kid14pdx</t>
+  </si>
+  <si>
+    <t>kid14moe</t>
+  </si>
+  <si>
+    <t>kid14ago</t>
+  </si>
+  <si>
+    <t>note_a3_39</t>
+  </si>
+  <si>
+    <t>kid15mob</t>
+  </si>
+  <si>
+    <t>kid15yob</t>
+  </si>
+  <si>
+    <t>kid15agd</t>
+  </si>
+  <si>
+    <t>kid15neu</t>
+  </si>
+  <si>
+    <t>kid15pdx</t>
+  </si>
+  <si>
+    <t>kid15moe</t>
+  </si>
+  <si>
+    <t>kid15ago</t>
+  </si>
+  <si>
+    <t>ivp_a3_complete</t>
+  </si>
+  <si>
+    <t>ivp_a3</t>
+  </si>
+  <si>
+    <t>fu_nwinfmut</t>
+  </si>
+  <si>
+    <t>fu_fadmut</t>
+  </si>
+  <si>
+    <t>fu_fadmutx</t>
+  </si>
+  <si>
+    <t>fu_fadmuso</t>
+  </si>
+  <si>
+    <t>fu_fadmusox</t>
+  </si>
+  <si>
+    <t>fu_fftdmut</t>
+  </si>
+  <si>
+    <t>fu_fftdmutx</t>
+  </si>
+  <si>
+    <t>fu_fftdmuso</t>
+  </si>
+  <si>
+    <t>fu_fftdmusx</t>
+  </si>
+  <si>
+    <t>fu_fothmut</t>
+  </si>
+  <si>
+    <t>fu_fothmutx</t>
+  </si>
+  <si>
+    <t>fu_fothmuso</t>
+  </si>
+  <si>
+    <t>fu_fothmusx</t>
+  </si>
+  <si>
+    <t>fu_nwinfpar</t>
+  </si>
+  <si>
+    <t>fu_notes_a3</t>
+  </si>
+  <si>
+    <t>fu_mommob</t>
+  </si>
+  <si>
+    <t>fu_momyob</t>
+  </si>
+  <si>
+    <t>fu_momdage</t>
+  </si>
+  <si>
+    <t>fu_momneur</t>
+  </si>
+  <si>
+    <t>fu_momprdx</t>
+  </si>
+  <si>
+    <t>fu_mommoe</t>
+  </si>
+  <si>
+    <t>fu_momageo</t>
+  </si>
+  <si>
+    <t>fu_dadmob</t>
+  </si>
+  <si>
+    <t>fu_dadyob</t>
+  </si>
+  <si>
+    <t>fu_daddage</t>
+  </si>
+  <si>
+    <t>fu_dadneur</t>
+  </si>
+  <si>
+    <t>fu_dadprdx</t>
+  </si>
+  <si>
+    <t>fu_dadmoe</t>
+  </si>
+  <si>
+    <t>fu_dadageo</t>
+  </si>
+  <si>
+    <t>fu_note_a3_2</t>
+  </si>
+  <si>
+    <t>fu_sibs</t>
+  </si>
+  <si>
+    <t>fu_nwinfsib</t>
+  </si>
+  <si>
+    <t>fu_note_a3_3</t>
+  </si>
+  <si>
+    <t>fu_note_a3_4</t>
+  </si>
+  <si>
+    <t>fu_sib1mob</t>
+  </si>
+  <si>
+    <t>fu_sib1yob</t>
+  </si>
+  <si>
+    <t>fu_sib1agd</t>
+  </si>
+  <si>
+    <t>fu_sib1neu</t>
+  </si>
+  <si>
+    <t>fu_sib1pdx</t>
+  </si>
+  <si>
+    <t>fu_sib1moe</t>
+  </si>
+  <si>
+    <t>fu_sib1ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_5</t>
+  </si>
+  <si>
+    <t>fu_sib2mob</t>
+  </si>
+  <si>
+    <t>fu_sib2yob</t>
+  </si>
+  <si>
+    <t>fu_sib2agd</t>
+  </si>
+  <si>
+    <t>fu_sib2neu</t>
+  </si>
+  <si>
+    <t>fu_sib2pdx</t>
+  </si>
+  <si>
+    <t>fu_sib2moe</t>
+  </si>
+  <si>
+    <t>fu_sib2ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_6</t>
+  </si>
+  <si>
+    <t>fu_sib3mob</t>
+  </si>
+  <si>
+    <t>fu_sib3yob</t>
+  </si>
+  <si>
+    <t>fu_sib3agd</t>
+  </si>
+  <si>
+    <t>fu_sib3neu</t>
+  </si>
+  <si>
+    <t>fu_sib3pdx</t>
+  </si>
+  <si>
+    <t>fu_sib3moe</t>
+  </si>
+  <si>
+    <t>fu_sib3ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_7</t>
+  </si>
+  <si>
+    <t>fu_sib4mob</t>
+  </si>
+  <si>
+    <t>fu_sib4yob</t>
+  </si>
+  <si>
+    <t>fu_sib4agd</t>
+  </si>
+  <si>
+    <t>fu_sib4neu</t>
+  </si>
+  <si>
+    <t>fu_sib4pdx</t>
+  </si>
+  <si>
+    <t>fu_sib4moe</t>
+  </si>
+  <si>
+    <t>fu_sib4ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_8</t>
+  </si>
+  <si>
+    <t>fu_sib5mob</t>
+  </si>
+  <si>
+    <t>fu_sib5yob</t>
+  </si>
+  <si>
+    <t>fu_sib5agd</t>
+  </si>
+  <si>
+    <t>fu_sib5neu</t>
+  </si>
+  <si>
+    <t>fu_sib5pdx</t>
+  </si>
+  <si>
+    <t>fu_sib5moe</t>
+  </si>
+  <si>
+    <t>fu_sib5ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_9</t>
+  </si>
+  <si>
+    <t>fu_sib6mob</t>
+  </si>
+  <si>
+    <t>fu_sib6yob</t>
+  </si>
+  <si>
+    <t>fu_sib6agd</t>
+  </si>
+  <si>
+    <t>fu_sib6neu</t>
+  </si>
+  <si>
+    <t>fu_sib6pdx</t>
+  </si>
+  <si>
+    <t>fu_sib6moe</t>
+  </si>
+  <si>
+    <t>fu_sib6ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_10</t>
+  </si>
+  <si>
+    <t>fu_sib7mob</t>
+  </si>
+  <si>
+    <t>fu_sib7yob</t>
+  </si>
+  <si>
+    <t>fu_sib7agd</t>
+  </si>
+  <si>
+    <t>fu_sib7neu</t>
+  </si>
+  <si>
+    <t>fu_sib7pdx</t>
+  </si>
+  <si>
+    <t>fu_sib7moe</t>
+  </si>
+  <si>
+    <t>fu_sib7ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_11</t>
+  </si>
+  <si>
+    <t>fu_sib8mob</t>
+  </si>
+  <si>
+    <t>fu_sib8yob</t>
+  </si>
+  <si>
+    <t>fu_sib8agd</t>
+  </si>
+  <si>
+    <t>fu_sib8neu</t>
+  </si>
+  <si>
+    <t>fu_sib8pdx</t>
+  </si>
+  <si>
+    <t>fu_sib8moe</t>
+  </si>
+  <si>
+    <t>fu_sib8ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_12</t>
+  </si>
+  <si>
+    <t>fu_sib9mob</t>
+  </si>
+  <si>
+    <t>fu_sib9yob</t>
+  </si>
+  <si>
+    <t>fu_sib9agd</t>
+  </si>
+  <si>
+    <t>fu_sib9neu</t>
+  </si>
+  <si>
+    <t>fu_sib9pdx</t>
+  </si>
+  <si>
+    <t>fu_sib9moe</t>
+  </si>
+  <si>
+    <t>fu_sib9ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_13</t>
+  </si>
+  <si>
+    <t>fu_sib10mob</t>
+  </si>
+  <si>
+    <t>fu_sib10yob</t>
+  </si>
+  <si>
+    <t>fu_sib10agd</t>
+  </si>
+  <si>
+    <t>fu_sib10neu</t>
+  </si>
+  <si>
+    <t>fu_sib10pdx</t>
+  </si>
+  <si>
+    <t>fu_sib10moe</t>
+  </si>
+  <si>
+    <t>fu_sib10ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_14</t>
+  </si>
+  <si>
+    <t>fu_sib11mob</t>
+  </si>
+  <si>
+    <t>fu_sib11yob</t>
+  </si>
+  <si>
+    <t>fu_sib11agd</t>
+  </si>
+  <si>
+    <t>fu_sib11neu</t>
+  </si>
+  <si>
+    <t>fu_sib11pdx</t>
+  </si>
+  <si>
+    <t>fu_sib11moe</t>
+  </si>
+  <si>
+    <t>fu_sib11ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_15</t>
+  </si>
+  <si>
+    <t>fu_sib12mob</t>
+  </si>
+  <si>
+    <t>fu_sib12yob</t>
+  </si>
+  <si>
+    <t>fu_sib12agd</t>
+  </si>
+  <si>
+    <t>fu_sib12neu</t>
+  </si>
+  <si>
+    <t>fu_sib12pdx</t>
+  </si>
+  <si>
+    <t>fu_sib12moe</t>
+  </si>
+  <si>
+    <t>fu_sib12ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_16</t>
+  </si>
+  <si>
+    <t>fu_sib13mob</t>
+  </si>
+  <si>
+    <t>fu_sib13yob</t>
+  </si>
+  <si>
+    <t>fu_sib13agd</t>
+  </si>
+  <si>
+    <t>fu_sib13neu</t>
+  </si>
+  <si>
+    <t>fu_sib13pdx</t>
+  </si>
+  <si>
+    <t>fu_sib13moe</t>
+  </si>
+  <si>
+    <t>fu_sib13ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_17</t>
+  </si>
+  <si>
+    <t>fu_sib14mob</t>
+  </si>
+  <si>
+    <t>fu_sib14yob</t>
+  </si>
+  <si>
+    <t>fu_sib14agd</t>
+  </si>
+  <si>
+    <t>fu_sib14neu</t>
+  </si>
+  <si>
+    <t>fu_sib14pdx</t>
+  </si>
+  <si>
+    <t>fu_sib14moe</t>
+  </si>
+  <si>
+    <t>fu_sib14ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_18</t>
+  </si>
+  <si>
+    <t>fu_sib15mob</t>
+  </si>
+  <si>
+    <t>fu_sib15yob</t>
+  </si>
+  <si>
+    <t>fu_sib15agd</t>
+  </si>
+  <si>
+    <t>fu_sib15neu</t>
+  </si>
+  <si>
+    <t>fu_sib15pdx</t>
+  </si>
+  <si>
+    <t>fu_sib15moe</t>
+  </si>
+  <si>
+    <t>fu_sib15ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_19</t>
+  </si>
+  <si>
+    <t>fu_sib16mob</t>
+  </si>
+  <si>
+    <t>fu_sib16yob</t>
+  </si>
+  <si>
+    <t>fu_sib16agd</t>
+  </si>
+  <si>
+    <t>fu_sib16neu</t>
+  </si>
+  <si>
+    <t>fu_sib16pdx</t>
+  </si>
+  <si>
+    <t>fu_sib16moe</t>
+  </si>
+  <si>
+    <t>fu_sib16ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_20</t>
+  </si>
+  <si>
+    <t>fu_sib17mob</t>
+  </si>
+  <si>
+    <t>fu_sib17yob</t>
+  </si>
+  <si>
+    <t>fu_sib17agd</t>
+  </si>
+  <si>
+    <t>fu_sib17neu</t>
+  </si>
+  <si>
+    <t>fusib17pdx</t>
+  </si>
+  <si>
+    <t>fu_sib17moe</t>
+  </si>
+  <si>
+    <t>fu_sib17ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_21</t>
+  </si>
+  <si>
+    <t>fu_sib18mob</t>
+  </si>
+  <si>
+    <t>fu_sib18yob</t>
+  </si>
+  <si>
+    <t>fu_sib18agd</t>
+  </si>
+  <si>
+    <t>fu_sib18neu</t>
+  </si>
+  <si>
+    <t>fu_sib18pdx</t>
+  </si>
+  <si>
+    <t>fu_sib18moe</t>
+  </si>
+  <si>
+    <t>fu_sib18ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_22</t>
+  </si>
+  <si>
+    <t>fu_sib19mob</t>
+  </si>
+  <si>
+    <t>fu_sib19yob</t>
+  </si>
+  <si>
+    <t>fu_sib19agd</t>
+  </si>
+  <si>
+    <t>fu_sib19neu</t>
+  </si>
+  <si>
+    <t>fu_sib19pdx</t>
+  </si>
+  <si>
+    <t>fu_sib19moe</t>
+  </si>
+  <si>
+    <t>fu_sib19ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_23</t>
+  </si>
+  <si>
+    <t>fu_sib20mob</t>
+  </si>
+  <si>
+    <t>fu_sib20yob</t>
+  </si>
+  <si>
+    <t>fu_sib20agd</t>
+  </si>
+  <si>
+    <t>fu_sib20neu</t>
+  </si>
+  <si>
+    <t>fu_sib20pdx</t>
+  </si>
+  <si>
+    <t>fu_sib20moe</t>
+  </si>
+  <si>
+    <t>fu_sib20ago</t>
+  </si>
+  <si>
+    <t>fu_kids</t>
+  </si>
+  <si>
+    <t>fu_nwinfkid</t>
+  </si>
+  <si>
+    <t>fu_note_a3_24</t>
+  </si>
+  <si>
+    <t>fu_note_a3_25</t>
+  </si>
+  <si>
+    <t>fu_kid1mob</t>
+  </si>
+  <si>
+    <t>fu_kid1yob</t>
+  </si>
+  <si>
+    <t>fu_kid1agd</t>
+  </si>
+  <si>
+    <t>fu_kid1neu</t>
+  </si>
+  <si>
+    <t>fu_kid1pdx</t>
+  </si>
+  <si>
+    <t>fu_kid1moe</t>
+  </si>
+  <si>
+    <t>fu_kid1ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_26</t>
+  </si>
+  <si>
+    <t>fu_kid2mob</t>
+  </si>
+  <si>
+    <t>fu_kid2yob</t>
+  </si>
+  <si>
+    <t>fu_kid2agd</t>
+  </si>
+  <si>
+    <t>fu_kid2neu</t>
+  </si>
+  <si>
+    <t>fu_kid2pdx</t>
+  </si>
+  <si>
+    <t>fu_kid2moe</t>
+  </si>
+  <si>
+    <t>fu_kid2ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_27</t>
+  </si>
+  <si>
+    <t>fu_kid3mob</t>
+  </si>
+  <si>
+    <t>fu_kid3yob</t>
+  </si>
+  <si>
+    <t>fu_kid3agd</t>
+  </si>
+  <si>
+    <t>fu_kid3neu</t>
+  </si>
+  <si>
+    <t>fu_kid3pdx</t>
+  </si>
+  <si>
+    <t>fu_kid3moe</t>
+  </si>
+  <si>
+    <t>fu_kid3ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_28</t>
+  </si>
+  <si>
+    <t>fu_kid4mob</t>
+  </si>
+  <si>
+    <t>fu_kid4yob</t>
+  </si>
+  <si>
+    <t>fu_kid4agd</t>
+  </si>
+  <si>
+    <t>fu_kid4neu</t>
+  </si>
+  <si>
+    <t>fu_kid4pdx</t>
+  </si>
+  <si>
+    <t>fu_kid4moe</t>
+  </si>
+  <si>
+    <t>fu_kid4ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_29</t>
+  </si>
+  <si>
+    <t>fu_kid5mob</t>
+  </si>
+  <si>
+    <t>fu_kid5yob</t>
+  </si>
+  <si>
+    <t>fu_kid5agd</t>
+  </si>
+  <si>
+    <t>fu_kid5neu</t>
+  </si>
+  <si>
+    <t>fu_kid5pdx</t>
+  </si>
+  <si>
+    <t>fu_kid5moe</t>
+  </si>
+  <si>
+    <t>fu_kid5ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_30</t>
+  </si>
+  <si>
+    <t>fu_kid6mob</t>
+  </si>
+  <si>
+    <t>fu_kid6yob</t>
+  </si>
+  <si>
+    <t>fu_kid6agd</t>
+  </si>
+  <si>
+    <t>fu_kid6neu</t>
+  </si>
+  <si>
+    <t>fu_kid6pdx</t>
+  </si>
+  <si>
+    <t>fu_kid6moe</t>
+  </si>
+  <si>
+    <t>fu_kid6ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_31</t>
+  </si>
+  <si>
+    <t>fu_kid7mob</t>
+  </si>
+  <si>
+    <t>fu_kid7yob</t>
+  </si>
+  <si>
+    <t>fu_kid7agd</t>
+  </si>
+  <si>
+    <t>fu_kid7neu</t>
+  </si>
+  <si>
+    <t>fu_kid7pdx</t>
+  </si>
+  <si>
+    <t>fu_kid7moe</t>
+  </si>
+  <si>
+    <t>fu_kid7ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_32</t>
+  </si>
+  <si>
+    <t>fu_kid8mob</t>
+  </si>
+  <si>
+    <t>fu_kid8yob</t>
+  </si>
+  <si>
+    <t>fu_kid8agd</t>
+  </si>
+  <si>
+    <t>fu_kid8neu</t>
+  </si>
+  <si>
+    <t>fu_kid8pdx</t>
+  </si>
+  <si>
+    <t>fu_kid8moe</t>
+  </si>
+  <si>
+    <t>fu_kid8ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_33</t>
+  </si>
+  <si>
+    <t>fu_kid9mob</t>
+  </si>
+  <si>
+    <t>fu_kid9yob</t>
+  </si>
+  <si>
+    <t>fukid9agd</t>
+  </si>
+  <si>
+    <t>fu_kid9neu</t>
+  </si>
+  <si>
+    <t>fu_kid9pdx</t>
+  </si>
+  <si>
+    <t>fu_kid9moe</t>
+  </si>
+  <si>
+    <t>fu_kid9ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_34</t>
+  </si>
+  <si>
+    <t>fu_kid10mob</t>
+  </si>
+  <si>
+    <t>fu_kid10yob</t>
+  </si>
+  <si>
+    <t>fu_kid10agd</t>
+  </si>
+  <si>
+    <t>fu_kid10neu</t>
+  </si>
+  <si>
+    <t>fu_kid10pdx</t>
+  </si>
+  <si>
+    <t>fu_kid10moe</t>
+  </si>
+  <si>
+    <t>fu_kid10ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_35</t>
+  </si>
+  <si>
+    <t>fu_kid11mob</t>
+  </si>
+  <si>
+    <t>fu_kid11yob</t>
+  </si>
+  <si>
+    <t>fu_kid11agd</t>
+  </si>
+  <si>
+    <t>fu_kid11neu</t>
+  </si>
+  <si>
+    <t>fu_kid11pdx</t>
+  </si>
+  <si>
+    <t>fu_kid11moe</t>
+  </si>
+  <si>
+    <t>fu_kid11ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_36</t>
+  </si>
+  <si>
+    <t>fu_kid12mob</t>
+  </si>
+  <si>
+    <t>fu_kid12yob</t>
+  </si>
+  <si>
+    <t>fu_kid12agd</t>
+  </si>
+  <si>
+    <t>fu_kid12neu</t>
+  </si>
+  <si>
+    <t>fu_kid12pdx</t>
+  </si>
+  <si>
+    <t>fu_kid12moe</t>
+  </si>
+  <si>
+    <t>fu_kid12ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_37</t>
+  </si>
+  <si>
+    <t>fu_kid13mob</t>
+  </si>
+  <si>
+    <t>fu_kid13yob</t>
+  </si>
+  <si>
+    <t>fu_kid13agd</t>
+  </si>
+  <si>
+    <t>fu_kid13neu</t>
+  </si>
+  <si>
+    <t>fu_kid13pdx</t>
+  </si>
+  <si>
+    <t>fu_kid13moe</t>
+  </si>
+  <si>
+    <t>fu_kid13ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_38</t>
+  </si>
+  <si>
+    <t>fu_kid14mob</t>
+  </si>
+  <si>
+    <t>fu_kid14yob</t>
+  </si>
+  <si>
+    <t>fu_kid14agd</t>
+  </si>
+  <si>
+    <t>fu_kid14neu</t>
+  </si>
+  <si>
+    <t>fu_kid14pdx</t>
+  </si>
+  <si>
+    <t>fu_kid14moe</t>
+  </si>
+  <si>
+    <t>fu_kid14ago</t>
+  </si>
+  <si>
+    <t>fu_note_a3_39</t>
+  </si>
+  <si>
+    <t>fu_kid15mob</t>
+  </si>
+  <si>
+    <t>fu_kid15yob</t>
+  </si>
+  <si>
+    <t>fu_kid15agd</t>
+  </si>
+  <si>
+    <t>fu_kid15neu</t>
+  </si>
+  <si>
+    <t>fu_kid15pdx</t>
+  </si>
+  <si>
+    <t>fu_kid15moe</t>
+  </si>
+  <si>
+    <t>fu_kid15ago</t>
+  </si>
+  <si>
+    <t>fvp_a3_complete</t>
+  </si>
+  <si>
+    <t>tele_nwinfmut</t>
+  </si>
+  <si>
+    <t>tele_fadmut</t>
+  </si>
+  <si>
+    <t>tele_fadmutx</t>
+  </si>
+  <si>
+    <t>tele_fadmuso</t>
+  </si>
+  <si>
+    <t>tele_fadmusox</t>
+  </si>
+  <si>
+    <t>tele_fftdmut</t>
+  </si>
+  <si>
+    <t>tele_fftdmutx</t>
+  </si>
+  <si>
+    <t>tele_fftdmuso</t>
+  </si>
+  <si>
+    <t>tele_fftdmusx</t>
+  </si>
+  <si>
+    <t>tele_fothmut</t>
+  </si>
+  <si>
+    <t>tele_fothmutx</t>
+  </si>
+  <si>
+    <t>tele_fothmuso</t>
+  </si>
+  <si>
+    <t>tele_fothmusx</t>
+  </si>
+  <si>
+    <t>tele_nwinfpar</t>
+  </si>
+  <si>
+    <t>tele_note_a3</t>
+  </si>
+  <si>
+    <t>tele_mommob</t>
+  </si>
+  <si>
+    <t>tele_momyob</t>
+  </si>
+  <si>
+    <t>tele_momdage</t>
+  </si>
+  <si>
+    <t>tele_momneur</t>
+  </si>
+  <si>
+    <t>tele_momprdx</t>
+  </si>
+  <si>
+    <t>tele_mommoe</t>
+  </si>
+  <si>
+    <t>tele_momageo</t>
+  </si>
+  <si>
+    <t>tele_dadmob</t>
+  </si>
+  <si>
+    <t>tele_dadyob</t>
+  </si>
+  <si>
+    <t>tele_daddage</t>
+  </si>
+  <si>
+    <t>tele_dadneur</t>
+  </si>
+  <si>
+    <t>tele_dadprdx</t>
+  </si>
+  <si>
+    <t>tele_dadmoe</t>
+  </si>
+  <si>
+    <t>tele_dadageo</t>
+  </si>
+  <si>
+    <t>tele_note_a3_2</t>
+  </si>
+  <si>
+    <t>tele_sibs</t>
+  </si>
+  <si>
+    <t>tele_nwinfsib</t>
+  </si>
+  <si>
+    <t>tele_note_a3_3</t>
+  </si>
+  <si>
+    <t>tele_note_a3_4</t>
+  </si>
+  <si>
+    <t>tele_sib1mob</t>
+  </si>
+  <si>
+    <t>tele_sib1yob</t>
+  </si>
+  <si>
+    <t>tele_sib1agd</t>
+  </si>
+  <si>
+    <t>tele_sib1neu</t>
+  </si>
+  <si>
+    <t>tele_sib1pdx</t>
+  </si>
+  <si>
+    <t>tele_sib1moe</t>
+  </si>
+  <si>
+    <t>tele_sib1ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_5</t>
+  </si>
+  <si>
+    <t>tele_sib2mob</t>
+  </si>
+  <si>
+    <t>tele_sib2yob</t>
+  </si>
+  <si>
+    <t>tele_sib2agd</t>
+  </si>
+  <si>
+    <t>tele_sib2neu</t>
+  </si>
+  <si>
+    <t>tele_sib2pdx</t>
+  </si>
+  <si>
+    <t>tele_sib2moe</t>
+  </si>
+  <si>
+    <t>tele_sib2ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_6</t>
+  </si>
+  <si>
+    <t>tele_sib3mob</t>
+  </si>
+  <si>
+    <t>tele_sib3yob</t>
+  </si>
+  <si>
+    <t>tele_sib3agd</t>
+  </si>
+  <si>
+    <t>tele_sib3neu</t>
+  </si>
+  <si>
+    <t>tele_sib3pdx</t>
+  </si>
+  <si>
+    <t>tele_sib3moe</t>
+  </si>
+  <si>
+    <t>tele_sib3ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_7</t>
+  </si>
+  <si>
+    <t>tele_sib4mob</t>
+  </si>
+  <si>
+    <t>tele_sib4yob</t>
+  </si>
+  <si>
+    <t>tele_sib4agd</t>
+  </si>
+  <si>
+    <t>tele_sib4neu</t>
+  </si>
+  <si>
+    <t>tele_sib4pdx</t>
+  </si>
+  <si>
+    <t>tele_sib4moe</t>
+  </si>
+  <si>
+    <t>tele_sib4ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_8</t>
+  </si>
+  <si>
+    <t>tele_sib5mob</t>
+  </si>
+  <si>
+    <t>tele_sib5yob</t>
+  </si>
+  <si>
+    <t>tele_sib5agd</t>
+  </si>
+  <si>
+    <t>tele_sib5neu</t>
+  </si>
+  <si>
+    <t>tele_sib5pdx</t>
+  </si>
+  <si>
+    <t>tele_sib5moe</t>
+  </si>
+  <si>
+    <t>tele_sib5ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_9</t>
+  </si>
+  <si>
+    <t>tele_sib6mob</t>
+  </si>
+  <si>
+    <t>tele_sib6yob</t>
+  </si>
+  <si>
+    <t>tele_sib6agd</t>
+  </si>
+  <si>
+    <t>tele_sib6neu</t>
+  </si>
+  <si>
+    <t>tele_sib6pdx</t>
+  </si>
+  <si>
+    <t>tele_sib6moe</t>
+  </si>
+  <si>
+    <t>tele_sib6ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_10</t>
+  </si>
+  <si>
+    <t>tele_sib7mob</t>
+  </si>
+  <si>
+    <t>tele_sib7yob</t>
+  </si>
+  <si>
+    <t>tele_sib7agd</t>
+  </si>
+  <si>
+    <t>tele_sib7neu</t>
+  </si>
+  <si>
+    <t>tele_sib7pdx</t>
+  </si>
+  <si>
+    <t>tele_sib7moe</t>
+  </si>
+  <si>
+    <t>tele_sib7ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_11</t>
+  </si>
+  <si>
+    <t>tele_sib8mob</t>
+  </si>
+  <si>
+    <t>tele_sib8yob</t>
+  </si>
+  <si>
+    <t>tele_sib8agd</t>
+  </si>
+  <si>
+    <t>tele_sib8neu</t>
+  </si>
+  <si>
+    <t>tele_sib8pdx</t>
+  </si>
+  <si>
+    <t>tele_sib8moe</t>
+  </si>
+  <si>
+    <t>tele_sib8ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_12</t>
+  </si>
+  <si>
+    <t>tele_sib9mob</t>
+  </si>
+  <si>
+    <t>tele_sib9yob</t>
+  </si>
+  <si>
+    <t>tele_sib9agd</t>
+  </si>
+  <si>
+    <t>tele_sib9neu</t>
+  </si>
+  <si>
+    <t>tele_sib9pdx</t>
+  </si>
+  <si>
+    <t>tele_sib9moe</t>
+  </si>
+  <si>
+    <t>tele_sib9ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_13</t>
+  </si>
+  <si>
+    <t>tele_sib10mob</t>
+  </si>
+  <si>
+    <t>tele_sib10yob</t>
+  </si>
+  <si>
+    <t>tele_sib10agd</t>
+  </si>
+  <si>
+    <t>tele_sib10neu</t>
+  </si>
+  <si>
+    <t>tele_sib10pdx</t>
+  </si>
+  <si>
+    <t>tele_sib10moe</t>
+  </si>
+  <si>
+    <t>tele_sib10ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_14</t>
+  </si>
+  <si>
+    <t>tele_sib11mob</t>
+  </si>
+  <si>
+    <t>tele_sib11yob</t>
+  </si>
+  <si>
+    <t>tele_sib11agd</t>
+  </si>
+  <si>
+    <t>tele_sib11neu</t>
+  </si>
+  <si>
+    <t>tele_sib11pdx</t>
+  </si>
+  <si>
+    <t>tele_sib11moe</t>
+  </si>
+  <si>
+    <t>tele_sib11ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_15</t>
+  </si>
+  <si>
+    <t>tele_sib12mob</t>
+  </si>
+  <si>
+    <t>tele_sib12yob</t>
+  </si>
+  <si>
+    <t>tele_sib12agd</t>
+  </si>
+  <si>
+    <t>tele_sib12neu</t>
+  </si>
+  <si>
+    <t>tele_sib12pdx</t>
+  </si>
+  <si>
+    <t>tele_sib12moe</t>
+  </si>
+  <si>
+    <t>tele_sib12ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_16</t>
+  </si>
+  <si>
+    <t>tele_sib13mob</t>
+  </si>
+  <si>
+    <t>tele_sib13yob</t>
+  </si>
+  <si>
+    <t>tele_sib13agd</t>
+  </si>
+  <si>
+    <t>tele_sib13neu</t>
+  </si>
+  <si>
+    <t>tele_sib13pdx</t>
+  </si>
+  <si>
+    <t>tele_sib13moe</t>
+  </si>
+  <si>
+    <t>tele_sib13ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_17</t>
+  </si>
+  <si>
+    <t>tele_sib14mob</t>
+  </si>
+  <si>
+    <t>tele_sib14yob</t>
+  </si>
+  <si>
+    <t>tele_sib14agd</t>
+  </si>
+  <si>
+    <t>tele_sib14neu</t>
+  </si>
+  <si>
+    <t>tele_sib14pdx</t>
+  </si>
+  <si>
+    <t>tele_sib14moe</t>
+  </si>
+  <si>
+    <t>tele_sib14ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_18</t>
+  </si>
+  <si>
+    <t>tele_sib15mob</t>
+  </si>
+  <si>
+    <t>tele_sib15yob</t>
+  </si>
+  <si>
+    <t>tele_sib15agd</t>
+  </si>
+  <si>
+    <t>tele_sib15neu</t>
+  </si>
+  <si>
+    <t>tele_sib15pdx</t>
+  </si>
+  <si>
+    <t>tele_sib15moe</t>
+  </si>
+  <si>
+    <t>tele_sib15ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_19</t>
+  </si>
+  <si>
+    <t>tele_sib16mob</t>
+  </si>
+  <si>
+    <t>tele_sib16yob</t>
+  </si>
+  <si>
+    <t>tele_sib16agd</t>
+  </si>
+  <si>
+    <t>tele_sib16neu</t>
+  </si>
+  <si>
+    <t>tele_sib16pdx</t>
+  </si>
+  <si>
+    <t>tele_sib16moe</t>
+  </si>
+  <si>
+    <t>tele_sib16ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_20</t>
+  </si>
+  <si>
+    <t>tele_sib17mob</t>
+  </si>
+  <si>
+    <t>tele_sib17yob</t>
+  </si>
+  <si>
+    <t>tele_sib17agd</t>
+  </si>
+  <si>
+    <t>tele_sib17neu</t>
+  </si>
+  <si>
+    <t>telesib17pdx</t>
+  </si>
+  <si>
+    <t>tele_sib17moe</t>
+  </si>
+  <si>
+    <t>tele_sib17ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_21</t>
+  </si>
+  <si>
+    <t>tele_sib18mob</t>
+  </si>
+  <si>
+    <t>tele_sib18yob</t>
+  </si>
+  <si>
+    <t>tele_sib18agd</t>
+  </si>
+  <si>
+    <t>tele_sib18neu</t>
+  </si>
+  <si>
+    <t>tele_sib18pdx</t>
+  </si>
+  <si>
+    <t>tele_sib18moe</t>
+  </si>
+  <si>
+    <t>tele_sib18ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_22</t>
+  </si>
+  <si>
+    <t>tele_sib19mob</t>
+  </si>
+  <si>
+    <t>tele_sib19yob</t>
+  </si>
+  <si>
+    <t>tele_sib19agd</t>
+  </si>
+  <si>
+    <t>tele_sib19neu</t>
+  </si>
+  <si>
+    <t>tele_sib19pdx</t>
+  </si>
+  <si>
+    <t>tele_sib19moe</t>
+  </si>
+  <si>
+    <t>tele_sib19ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_23</t>
+  </si>
+  <si>
+    <t>tele_sib20mob</t>
+  </si>
+  <si>
+    <t>tele_sib20yob</t>
+  </si>
+  <si>
+    <t>tele_sib20agd</t>
+  </si>
+  <si>
+    <t>tele_sib20neu</t>
+  </si>
+  <si>
+    <t>tele_sib20pdx</t>
+  </si>
+  <si>
+    <t>tele_sib20moe</t>
+  </si>
+  <si>
+    <t>tele_sib20ago</t>
+  </si>
+  <si>
+    <t>tele_kids</t>
+  </si>
+  <si>
+    <t>tele_nwinfkid</t>
+  </si>
+  <si>
+    <t>tele_note_a3_24</t>
+  </si>
+  <si>
+    <t>tele_children1</t>
+  </si>
+  <si>
+    <t>tele_kid1mob</t>
+  </si>
+  <si>
+    <t>tele_kid1yob</t>
+  </si>
+  <si>
+    <t>tele_kid1agd</t>
+  </si>
+  <si>
+    <t>tele_kid1neu</t>
+  </si>
+  <si>
+    <t>tele_kid1pdx</t>
+  </si>
+  <si>
+    <t>tele_kid1moe</t>
+  </si>
+  <si>
+    <t>tele_kid1ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_25</t>
+  </si>
+  <si>
+    <t>tele_kid2mob</t>
+  </si>
+  <si>
+    <t>tele_kid2yob</t>
+  </si>
+  <si>
+    <t>tele_kid2agd</t>
+  </si>
+  <si>
+    <t>tele_kid2neu</t>
+  </si>
+  <si>
+    <t>tele_kid2pdx</t>
+  </si>
+  <si>
+    <t>tele_kid2moe</t>
+  </si>
+  <si>
+    <t>tele_kid2ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_26</t>
+  </si>
+  <si>
+    <t>tele_kid3mob</t>
+  </si>
+  <si>
+    <t>tele_kid3yob</t>
+  </si>
+  <si>
+    <t>tele_kid3agd</t>
+  </si>
+  <si>
+    <t>tele_kid3neu</t>
+  </si>
+  <si>
+    <t>tele_kid3pdx</t>
+  </si>
+  <si>
+    <t>tele_kid3moe</t>
+  </si>
+  <si>
+    <t>tele_kid3ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_27</t>
+  </si>
+  <si>
+    <t>tele_kid4mob</t>
+  </si>
+  <si>
+    <t>tele_kid4yob</t>
+  </si>
+  <si>
+    <t>tele_kid4agd</t>
+  </si>
+  <si>
+    <t>tele_kid4neu</t>
+  </si>
+  <si>
+    <t>tele_kid4pdx</t>
+  </si>
+  <si>
+    <t>tele_kid4moe</t>
+  </si>
+  <si>
+    <t>tele_kid4ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_28</t>
+  </si>
+  <si>
+    <t>tele_kid5mob</t>
+  </si>
+  <si>
+    <t>tele_kid5yob</t>
+  </si>
+  <si>
+    <t>tele_kid5agd</t>
+  </si>
+  <si>
+    <t>tele_kid5neu</t>
+  </si>
+  <si>
+    <t>tele_kid5pdx</t>
+  </si>
+  <si>
+    <t>tele_kid5moe</t>
+  </si>
+  <si>
+    <t>tele_kid5ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_29</t>
+  </si>
+  <si>
+    <t>tele_kid6mob</t>
+  </si>
+  <si>
+    <t>tele_kid6yob</t>
+  </si>
+  <si>
+    <t>tele_kid6agd</t>
+  </si>
+  <si>
+    <t>tele_kid6neu</t>
+  </si>
+  <si>
+    <t>tele_kid6pdx</t>
+  </si>
+  <si>
+    <t>tele_kid6moe</t>
+  </si>
+  <si>
+    <t>tele_kid6ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_30</t>
+  </si>
+  <si>
+    <t>tele_kid7mob</t>
+  </si>
+  <si>
+    <t>tele_kid7yob</t>
+  </si>
+  <si>
+    <t>tele_kid7agd</t>
+  </si>
+  <si>
+    <t>tele_kid7neu</t>
+  </si>
+  <si>
+    <t>tele_kid7pdx</t>
+  </si>
+  <si>
+    <t>tele_kid7moe</t>
+  </si>
+  <si>
+    <t>tele_kid7ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_31</t>
+  </si>
+  <si>
+    <t>tele_kid8mob</t>
+  </si>
+  <si>
+    <t>tele_kid8yob</t>
+  </si>
+  <si>
+    <t>tele_kid8agd</t>
+  </si>
+  <si>
+    <t>tele_kid8neu</t>
+  </si>
+  <si>
+    <t>tele_kid8pdx</t>
+  </si>
+  <si>
+    <t>tele_kid8moe</t>
+  </si>
+  <si>
+    <t>tele_kid8ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_32</t>
+  </si>
+  <si>
+    <t>tele_kid9mob</t>
+  </si>
+  <si>
+    <t>tele_kid9yob</t>
+  </si>
+  <si>
+    <t>telekid9agd</t>
+  </si>
+  <si>
+    <t>tele_kid9neu</t>
+  </si>
+  <si>
+    <t>tele_kid9pdx</t>
+  </si>
+  <si>
+    <t>tele_kid9moe</t>
+  </si>
+  <si>
+    <t>tele_kid9ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_33</t>
+  </si>
+  <si>
+    <t>tele_kid10mob</t>
+  </si>
+  <si>
+    <t>tele_kid10yob</t>
+  </si>
+  <si>
+    <t>tele_kid10agd</t>
+  </si>
+  <si>
+    <t>tele_kid10neu</t>
+  </si>
+  <si>
+    <t>tele_kid10pdx</t>
+  </si>
+  <si>
+    <t>tele_kid10moe</t>
+  </si>
+  <si>
+    <t>tele_kid10ago</t>
+  </si>
+  <si>
+    <t>tele_note_a3_34</t>
+  </si>
+  <si>
+    <t>tele_kid11mob</t>
+  </si>
+  <si>
+    <t>tele_kid11yob</t>
+  </si>
+  <si>
+    <t>tele_kid11agd</t>
+  </si>
+  <si>
+    <t>tele_kid11neu</t>
+  </si>
+  <si>
+    <t>tele_kid11pdx</t>
+  </si>
+  <si>
+    <t>tele_kid11moe</t>
+  </si>
+  <si>
+    <t>tele_kid11ago</t>
+  </si>
+  <si>
+    <t>tele_children12</t>
+  </si>
+  <si>
+    <t>tele_kid12mob</t>
+  </si>
+  <si>
+    <t>tele_kid12yob</t>
+  </si>
+  <si>
+    <t>tele_kid12agd</t>
+  </si>
+  <si>
+    <t>tele_kid12neu</t>
+  </si>
+  <si>
+    <t>tele_kid12pdx</t>
+  </si>
+  <si>
+    <t>tele_kid12moe</t>
+  </si>
+  <si>
+    <t>tele_kid12ago</t>
+  </si>
+  <si>
+    <t>tele_children13</t>
+  </si>
+  <si>
+    <t>tele_kid13mob</t>
+  </si>
+  <si>
+    <t>tele_kid13yob</t>
+  </si>
+  <si>
+    <t>tele_kid13agd</t>
+  </si>
+  <si>
+    <t>tele_kid13neu</t>
+  </si>
+  <si>
+    <t>tele_kid13pdx</t>
+  </si>
+  <si>
+    <t>tele_kid13moe</t>
+  </si>
+  <si>
+    <t>tele_kid13ago</t>
+  </si>
+  <si>
+    <t>tele_children14_</t>
+  </si>
+  <si>
+    <t>tele_kid14mob</t>
+  </si>
+  <si>
+    <t>tele_kid14yob</t>
+  </si>
+  <si>
+    <t>tele_kid14agd</t>
+  </si>
+  <si>
+    <t>tele_kid14neu</t>
+  </si>
+  <si>
+    <t>tele_kid14pdx</t>
+  </si>
+  <si>
+    <t>tele_kid14moe</t>
+  </si>
+  <si>
+    <t>tele_kid14ago</t>
+  </si>
+  <si>
+    <t>tele_children15_</t>
+  </si>
+  <si>
+    <t>tele_kid15mob</t>
+  </si>
+  <si>
+    <t>tele_kid15yob</t>
+  </si>
+  <si>
+    <t>tele_kid15agd</t>
+  </si>
+  <si>
+    <t>tele_kid15neu</t>
+  </si>
+  <si>
+    <t>tele_kid15pdx</t>
+  </si>
+  <si>
+    <t>tele_kid15moe</t>
+  </si>
+  <si>
+    <t>tele_kid15ago</t>
+  </si>
+  <si>
+    <t>tvp_a3_complete</t>
   </si>
 </sst>
 </file>
@@ -472,7 +3319,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -782,10 +3640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCC9BF6-0E02-034A-99C2-203518C15656}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G372"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E248" sqref="E248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1518,7 +4376,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -1538,7 +4396,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -1558,7 +4416,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -1578,7 +4436,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -1598,7 +4456,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -1618,7 +4476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -1633,6 +4491,5692 @@
       </c>
       <c r="F54" s="1" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
+        <v>445</v>
+      </c>
+      <c r="C56" t="s">
+        <v>447</v>
+      </c>
+      <c r="E56" t="s">
+        <v>764</v>
+      </c>
+      <c r="F56" t="b">
+        <f>REPLACE(E56,1,5,"")=A56</f>
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s">
+        <v>445</v>
+      </c>
+      <c r="C57" t="s">
+        <v>448</v>
+      </c>
+      <c r="E57" t="s">
+        <v>765</v>
+      </c>
+      <c r="F57" t="b">
+        <f t="shared" ref="F57:F120" si="0">REPLACE(E57,1,5,"")=A57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>445</v>
+      </c>
+      <c r="C58" t="s">
+        <v>449</v>
+      </c>
+      <c r="E58" t="s">
+        <v>766</v>
+      </c>
+      <c r="F58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>445</v>
+      </c>
+      <c r="C59" t="s">
+        <v>450</v>
+      </c>
+      <c r="E59" t="s">
+        <v>767</v>
+      </c>
+      <c r="F59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>445</v>
+      </c>
+      <c r="C60" t="s">
+        <v>451</v>
+      </c>
+      <c r="E60" t="s">
+        <v>768</v>
+      </c>
+      <c r="F60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" t="s">
+        <v>445</v>
+      </c>
+      <c r="C61" t="s">
+        <v>452</v>
+      </c>
+      <c r="E61" t="s">
+        <v>769</v>
+      </c>
+      <c r="F61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>445</v>
+      </c>
+      <c r="C62" t="s">
+        <v>453</v>
+      </c>
+      <c r="E62" t="s">
+        <v>770</v>
+      </c>
+      <c r="F62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" t="s">
+        <v>445</v>
+      </c>
+      <c r="C63" t="s">
+        <v>454</v>
+      </c>
+      <c r="E63" t="s">
+        <v>771</v>
+      </c>
+      <c r="F63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>445</v>
+      </c>
+      <c r="C64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E64" t="s">
+        <v>772</v>
+      </c>
+      <c r="F64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
+        <v>445</v>
+      </c>
+      <c r="C65" t="s">
+        <v>456</v>
+      </c>
+      <c r="E65" t="s">
+        <v>773</v>
+      </c>
+      <c r="F65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" t="s">
+        <v>445</v>
+      </c>
+      <c r="C66" t="s">
+        <v>457</v>
+      </c>
+      <c r="E66" t="s">
+        <v>774</v>
+      </c>
+      <c r="F66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>445</v>
+      </c>
+      <c r="C67" t="s">
+        <v>458</v>
+      </c>
+      <c r="E67" t="s">
+        <v>775</v>
+      </c>
+      <c r="F67" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s">
+        <v>445</v>
+      </c>
+      <c r="C68" t="s">
+        <v>460</v>
+      </c>
+      <c r="E68" t="s">
+        <v>777</v>
+      </c>
+      <c r="F68" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>445</v>
+      </c>
+      <c r="C69" t="s">
+        <v>461</v>
+      </c>
+      <c r="E69" t="s">
+        <v>778</v>
+      </c>
+      <c r="F69" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>445</v>
+      </c>
+      <c r="C70" t="s">
+        <v>462</v>
+      </c>
+      <c r="E70" t="s">
+        <v>779</v>
+      </c>
+      <c r="F70" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>445</v>
+      </c>
+      <c r="C71" t="s">
+        <v>463</v>
+      </c>
+      <c r="E71" t="s">
+        <v>780</v>
+      </c>
+      <c r="F71" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" t="s">
+        <v>445</v>
+      </c>
+      <c r="C72" t="s">
+        <v>464</v>
+      </c>
+      <c r="E72" t="s">
+        <v>781</v>
+      </c>
+      <c r="F72" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>445</v>
+      </c>
+      <c r="C73" t="s">
+        <v>465</v>
+      </c>
+      <c r="E73" t="s">
+        <v>782</v>
+      </c>
+      <c r="F73" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C74" t="s">
+        <v>466</v>
+      </c>
+      <c r="E74" t="s">
+        <v>783</v>
+      </c>
+      <c r="F74" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>445</v>
+      </c>
+      <c r="C75" t="s">
+        <v>467</v>
+      </c>
+      <c r="E75" t="s">
+        <v>784</v>
+      </c>
+      <c r="F75" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>445</v>
+      </c>
+      <c r="C76" t="s">
+        <v>468</v>
+      </c>
+      <c r="E76" t="s">
+        <v>785</v>
+      </c>
+      <c r="F76" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>445</v>
+      </c>
+      <c r="C77" t="s">
+        <v>469</v>
+      </c>
+      <c r="E77" t="s">
+        <v>786</v>
+      </c>
+      <c r="F77" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>445</v>
+      </c>
+      <c r="C78" t="s">
+        <v>470</v>
+      </c>
+      <c r="E78" t="s">
+        <v>787</v>
+      </c>
+      <c r="F78" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>445</v>
+      </c>
+      <c r="C79" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" t="s">
+        <v>788</v>
+      </c>
+      <c r="F79" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>445</v>
+      </c>
+      <c r="C80" t="s">
+        <v>472</v>
+      </c>
+      <c r="E80" t="s">
+        <v>789</v>
+      </c>
+      <c r="F80" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
+        <v>445</v>
+      </c>
+      <c r="C81" t="s">
+        <v>473</v>
+      </c>
+      <c r="E81" t="s">
+        <v>790</v>
+      </c>
+      <c r="F81" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>445</v>
+      </c>
+      <c r="C82" t="s">
+        <v>474</v>
+      </c>
+      <c r="E82" t="s">
+        <v>791</v>
+      </c>
+      <c r="F82" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>445</v>
+      </c>
+      <c r="C83" t="s">
+        <v>475</v>
+      </c>
+      <c r="E83" t="s">
+        <v>792</v>
+      </c>
+      <c r="F83" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>445</v>
+      </c>
+      <c r="C84" t="s">
+        <v>476</v>
+      </c>
+      <c r="E84" t="s">
+        <v>793</v>
+      </c>
+      <c r="F84" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" t="s">
+        <v>445</v>
+      </c>
+      <c r="C85" t="s">
+        <v>478</v>
+      </c>
+      <c r="E85" t="s">
+        <v>795</v>
+      </c>
+      <c r="F85" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" t="s">
+        <v>445</v>
+      </c>
+      <c r="C86" t="s">
+        <v>479</v>
+      </c>
+      <c r="E86" t="s">
+        <v>796</v>
+      </c>
+      <c r="F86" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
+        <v>445</v>
+      </c>
+      <c r="C87" t="s">
+        <v>480</v>
+      </c>
+      <c r="E87" t="s">
+        <v>797</v>
+      </c>
+      <c r="F87" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" t="s">
+        <v>445</v>
+      </c>
+      <c r="C88" t="s">
+        <v>481</v>
+      </c>
+      <c r="E88" t="s">
+        <v>798</v>
+      </c>
+      <c r="F88" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" t="s">
+        <v>445</v>
+      </c>
+      <c r="C89" t="s">
+        <v>482</v>
+      </c>
+      <c r="E89" t="s">
+        <v>799</v>
+      </c>
+      <c r="F89" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" t="s">
+        <v>445</v>
+      </c>
+      <c r="C90" t="s">
+        <v>483</v>
+      </c>
+      <c r="E90" t="s">
+        <v>800</v>
+      </c>
+      <c r="F90" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" t="s">
+        <v>445</v>
+      </c>
+      <c r="C91" t="s">
+        <v>484</v>
+      </c>
+      <c r="E91" t="s">
+        <v>801</v>
+      </c>
+      <c r="F91" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" t="s">
+        <v>445</v>
+      </c>
+      <c r="C92" t="s">
+        <v>485</v>
+      </c>
+      <c r="E92" t="s">
+        <v>802</v>
+      </c>
+      <c r="F92" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" t="s">
+        <v>445</v>
+      </c>
+      <c r="C93" t="s">
+        <v>486</v>
+      </c>
+      <c r="E93" t="s">
+        <v>803</v>
+      </c>
+      <c r="F93" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
+        <v>445</v>
+      </c>
+      <c r="C94" t="s">
+        <v>487</v>
+      </c>
+      <c r="E94" t="s">
+        <v>804</v>
+      </c>
+      <c r="F94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" t="s">
+        <v>445</v>
+      </c>
+      <c r="C95" t="s">
+        <v>488</v>
+      </c>
+      <c r="E95" t="s">
+        <v>805</v>
+      </c>
+      <c r="F95" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" t="s">
+        <v>445</v>
+      </c>
+      <c r="C96" t="s">
+        <v>489</v>
+      </c>
+      <c r="E96" t="s">
+        <v>806</v>
+      </c>
+      <c r="F96" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" t="s">
+        <v>445</v>
+      </c>
+      <c r="C97" t="s">
+        <v>490</v>
+      </c>
+      <c r="E97" t="s">
+        <v>807</v>
+      </c>
+      <c r="F97" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" t="s">
+        <v>445</v>
+      </c>
+      <c r="C98" t="s">
+        <v>491</v>
+      </c>
+      <c r="E98" t="s">
+        <v>808</v>
+      </c>
+      <c r="F98" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" t="s">
+        <v>445</v>
+      </c>
+      <c r="C99" t="s">
+        <v>492</v>
+      </c>
+      <c r="E99" t="s">
+        <v>809</v>
+      </c>
+      <c r="F99" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>445</v>
+      </c>
+      <c r="C100" t="s">
+        <v>493</v>
+      </c>
+      <c r="E100" t="s">
+        <v>810</v>
+      </c>
+      <c r="F100" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" t="s">
+        <v>445</v>
+      </c>
+      <c r="C101" t="s">
+        <v>494</v>
+      </c>
+      <c r="E101" t="s">
+        <v>811</v>
+      </c>
+      <c r="F101" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" t="s">
+        <v>445</v>
+      </c>
+      <c r="C102" t="s">
+        <v>495</v>
+      </c>
+      <c r="E102" t="s">
+        <v>812</v>
+      </c>
+      <c r="F102" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" t="s">
+        <v>445</v>
+      </c>
+      <c r="C103" t="s">
+        <v>496</v>
+      </c>
+      <c r="E103" t="s">
+        <v>813</v>
+      </c>
+      <c r="F103" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" t="s">
+        <v>445</v>
+      </c>
+      <c r="C104" t="s">
+        <v>497</v>
+      </c>
+      <c r="E104" t="s">
+        <v>814</v>
+      </c>
+      <c r="F104" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" t="s">
+        <v>445</v>
+      </c>
+      <c r="C105" t="s">
+        <v>498</v>
+      </c>
+      <c r="E105" t="s">
+        <v>815</v>
+      </c>
+      <c r="F105" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" t="s">
+        <v>445</v>
+      </c>
+      <c r="C106" t="s">
+        <v>499</v>
+      </c>
+      <c r="E106" t="s">
+        <v>816</v>
+      </c>
+      <c r="F106" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" t="s">
+        <v>445</v>
+      </c>
+      <c r="C107" t="s">
+        <v>500</v>
+      </c>
+      <c r="E107" t="s">
+        <v>817</v>
+      </c>
+      <c r="F107" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" t="s">
+        <v>445</v>
+      </c>
+      <c r="C108" t="s">
+        <v>501</v>
+      </c>
+      <c r="E108" t="s">
+        <v>818</v>
+      </c>
+      <c r="F108" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" t="s">
+        <v>445</v>
+      </c>
+      <c r="C109" t="s">
+        <v>502</v>
+      </c>
+      <c r="E109" t="s">
+        <v>819</v>
+      </c>
+      <c r="F109" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" t="s">
+        <v>445</v>
+      </c>
+      <c r="C110" t="s">
+        <v>503</v>
+      </c>
+      <c r="E110" t="s">
+        <v>820</v>
+      </c>
+      <c r="F110" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>187</v>
+      </c>
+      <c r="B111" t="s">
+        <v>445</v>
+      </c>
+      <c r="C111" t="s">
+        <v>504</v>
+      </c>
+      <c r="E111" t="s">
+        <v>821</v>
+      </c>
+      <c r="F111" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>188</v>
+      </c>
+      <c r="B112" t="s">
+        <v>445</v>
+      </c>
+      <c r="C112" t="s">
+        <v>505</v>
+      </c>
+      <c r="E112" t="s">
+        <v>822</v>
+      </c>
+      <c r="F112" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" t="s">
+        <v>445</v>
+      </c>
+      <c r="C113" t="s">
+        <v>506</v>
+      </c>
+      <c r="E113" t="s">
+        <v>823</v>
+      </c>
+      <c r="F113" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" t="s">
+        <v>445</v>
+      </c>
+      <c r="C114" t="s">
+        <v>507</v>
+      </c>
+      <c r="E114" t="s">
+        <v>824</v>
+      </c>
+      <c r="F114" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>191</v>
+      </c>
+      <c r="B115" t="s">
+        <v>445</v>
+      </c>
+      <c r="C115" t="s">
+        <v>508</v>
+      </c>
+      <c r="E115" t="s">
+        <v>825</v>
+      </c>
+      <c r="F115" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" t="s">
+        <v>445</v>
+      </c>
+      <c r="C116" t="s">
+        <v>509</v>
+      </c>
+      <c r="E116" t="s">
+        <v>826</v>
+      </c>
+      <c r="F116" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>193</v>
+      </c>
+      <c r="B117" t="s">
+        <v>445</v>
+      </c>
+      <c r="C117" t="s">
+        <v>510</v>
+      </c>
+      <c r="E117" t="s">
+        <v>827</v>
+      </c>
+      <c r="F117" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" t="s">
+        <v>445</v>
+      </c>
+      <c r="C118" t="s">
+        <v>511</v>
+      </c>
+      <c r="E118" t="s">
+        <v>828</v>
+      </c>
+      <c r="F118" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>195</v>
+      </c>
+      <c r="B119" t="s">
+        <v>445</v>
+      </c>
+      <c r="C119" t="s">
+        <v>512</v>
+      </c>
+      <c r="E119" t="s">
+        <v>829</v>
+      </c>
+      <c r="F119" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>196</v>
+      </c>
+      <c r="B120" t="s">
+        <v>445</v>
+      </c>
+      <c r="C120" t="s">
+        <v>513</v>
+      </c>
+      <c r="E120" t="s">
+        <v>830</v>
+      </c>
+      <c r="F120" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" t="s">
+        <v>445</v>
+      </c>
+      <c r="C121" t="s">
+        <v>514</v>
+      </c>
+      <c r="E121" t="s">
+        <v>831</v>
+      </c>
+      <c r="F121" t="b">
+        <f t="shared" ref="F121:F184" si="1">REPLACE(E121,1,5,"")=A121</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>198</v>
+      </c>
+      <c r="B122" t="s">
+        <v>445</v>
+      </c>
+      <c r="C122" t="s">
+        <v>515</v>
+      </c>
+      <c r="E122" t="s">
+        <v>832</v>
+      </c>
+      <c r="F122" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" t="s">
+        <v>445</v>
+      </c>
+      <c r="C123" t="s">
+        <v>516</v>
+      </c>
+      <c r="E123" t="s">
+        <v>833</v>
+      </c>
+      <c r="F123" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" t="s">
+        <v>445</v>
+      </c>
+      <c r="C124" t="s">
+        <v>517</v>
+      </c>
+      <c r="E124" t="s">
+        <v>834</v>
+      </c>
+      <c r="F124" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" t="s">
+        <v>445</v>
+      </c>
+      <c r="C125" t="s">
+        <v>518</v>
+      </c>
+      <c r="E125" t="s">
+        <v>835</v>
+      </c>
+      <c r="F125" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" t="s">
+        <v>445</v>
+      </c>
+      <c r="C126" t="s">
+        <v>519</v>
+      </c>
+      <c r="E126" t="s">
+        <v>836</v>
+      </c>
+      <c r="F126" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>203</v>
+      </c>
+      <c r="B127" t="s">
+        <v>445</v>
+      </c>
+      <c r="C127" t="s">
+        <v>520</v>
+      </c>
+      <c r="E127" t="s">
+        <v>837</v>
+      </c>
+      <c r="F127" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>204</v>
+      </c>
+      <c r="B128" t="s">
+        <v>445</v>
+      </c>
+      <c r="C128" t="s">
+        <v>521</v>
+      </c>
+      <c r="E128" t="s">
+        <v>838</v>
+      </c>
+      <c r="F128" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" t="s">
+        <v>445</v>
+      </c>
+      <c r="C129" t="s">
+        <v>522</v>
+      </c>
+      <c r="E129" t="s">
+        <v>839</v>
+      </c>
+      <c r="F129" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>206</v>
+      </c>
+      <c r="B130" t="s">
+        <v>445</v>
+      </c>
+      <c r="C130" t="s">
+        <v>523</v>
+      </c>
+      <c r="E130" t="s">
+        <v>840</v>
+      </c>
+      <c r="F130" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>207</v>
+      </c>
+      <c r="B131" t="s">
+        <v>445</v>
+      </c>
+      <c r="C131" t="s">
+        <v>524</v>
+      </c>
+      <c r="E131" t="s">
+        <v>841</v>
+      </c>
+      <c r="F131" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>208</v>
+      </c>
+      <c r="B132" t="s">
+        <v>445</v>
+      </c>
+      <c r="C132" t="s">
+        <v>525</v>
+      </c>
+      <c r="E132" t="s">
+        <v>842</v>
+      </c>
+      <c r="F132" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" t="s">
+        <v>445</v>
+      </c>
+      <c r="C133" t="s">
+        <v>526</v>
+      </c>
+      <c r="E133" t="s">
+        <v>843</v>
+      </c>
+      <c r="F133" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>210</v>
+      </c>
+      <c r="B134" t="s">
+        <v>445</v>
+      </c>
+      <c r="C134" t="s">
+        <v>527</v>
+      </c>
+      <c r="E134" t="s">
+        <v>844</v>
+      </c>
+      <c r="F134" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>211</v>
+      </c>
+      <c r="B135" t="s">
+        <v>445</v>
+      </c>
+      <c r="C135" t="s">
+        <v>528</v>
+      </c>
+      <c r="E135" t="s">
+        <v>845</v>
+      </c>
+      <c r="F135" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>212</v>
+      </c>
+      <c r="B136" t="s">
+        <v>445</v>
+      </c>
+      <c r="C136" t="s">
+        <v>529</v>
+      </c>
+      <c r="E136" t="s">
+        <v>846</v>
+      </c>
+      <c r="F136" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>213</v>
+      </c>
+      <c r="B137" t="s">
+        <v>445</v>
+      </c>
+      <c r="C137" t="s">
+        <v>530</v>
+      </c>
+      <c r="E137" t="s">
+        <v>847</v>
+      </c>
+      <c r="F137" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>214</v>
+      </c>
+      <c r="B138" t="s">
+        <v>445</v>
+      </c>
+      <c r="C138" t="s">
+        <v>531</v>
+      </c>
+      <c r="E138" t="s">
+        <v>848</v>
+      </c>
+      <c r="F138" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" t="s">
+        <v>445</v>
+      </c>
+      <c r="C139" t="s">
+        <v>532</v>
+      </c>
+      <c r="E139" t="s">
+        <v>849</v>
+      </c>
+      <c r="F139" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>216</v>
+      </c>
+      <c r="B140" t="s">
+        <v>445</v>
+      </c>
+      <c r="C140" t="s">
+        <v>533</v>
+      </c>
+      <c r="E140" t="s">
+        <v>850</v>
+      </c>
+      <c r="F140" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>217</v>
+      </c>
+      <c r="B141" t="s">
+        <v>445</v>
+      </c>
+      <c r="C141" t="s">
+        <v>534</v>
+      </c>
+      <c r="E141" t="s">
+        <v>851</v>
+      </c>
+      <c r="F141" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>218</v>
+      </c>
+      <c r="B142" t="s">
+        <v>445</v>
+      </c>
+      <c r="C142" t="s">
+        <v>535</v>
+      </c>
+      <c r="E142" t="s">
+        <v>852</v>
+      </c>
+      <c r="F142" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>219</v>
+      </c>
+      <c r="B143" t="s">
+        <v>445</v>
+      </c>
+      <c r="C143" t="s">
+        <v>536</v>
+      </c>
+      <c r="E143" t="s">
+        <v>853</v>
+      </c>
+      <c r="F143" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>220</v>
+      </c>
+      <c r="B144" t="s">
+        <v>445</v>
+      </c>
+      <c r="C144" t="s">
+        <v>537</v>
+      </c>
+      <c r="E144" t="s">
+        <v>854</v>
+      </c>
+      <c r="F144" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>221</v>
+      </c>
+      <c r="B145" t="s">
+        <v>445</v>
+      </c>
+      <c r="C145" t="s">
+        <v>538</v>
+      </c>
+      <c r="E145" t="s">
+        <v>855</v>
+      </c>
+      <c r="F145" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>222</v>
+      </c>
+      <c r="B146" t="s">
+        <v>445</v>
+      </c>
+      <c r="C146" t="s">
+        <v>539</v>
+      </c>
+      <c r="E146" t="s">
+        <v>856</v>
+      </c>
+      <c r="F146" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>223</v>
+      </c>
+      <c r="B147" t="s">
+        <v>445</v>
+      </c>
+      <c r="C147" t="s">
+        <v>540</v>
+      </c>
+      <c r="E147" t="s">
+        <v>857</v>
+      </c>
+      <c r="F147" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>224</v>
+      </c>
+      <c r="B148" t="s">
+        <v>445</v>
+      </c>
+      <c r="C148" t="s">
+        <v>541</v>
+      </c>
+      <c r="E148" t="s">
+        <v>858</v>
+      </c>
+      <c r="F148" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>225</v>
+      </c>
+      <c r="B149" t="s">
+        <v>445</v>
+      </c>
+      <c r="C149" t="s">
+        <v>542</v>
+      </c>
+      <c r="E149" t="s">
+        <v>859</v>
+      </c>
+      <c r="F149" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>226</v>
+      </c>
+      <c r="B150" t="s">
+        <v>445</v>
+      </c>
+      <c r="C150" t="s">
+        <v>543</v>
+      </c>
+      <c r="E150" t="s">
+        <v>860</v>
+      </c>
+      <c r="F150" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>227</v>
+      </c>
+      <c r="B151" t="s">
+        <v>445</v>
+      </c>
+      <c r="C151" t="s">
+        <v>544</v>
+      </c>
+      <c r="E151" t="s">
+        <v>861</v>
+      </c>
+      <c r="F151" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>228</v>
+      </c>
+      <c r="B152" t="s">
+        <v>445</v>
+      </c>
+      <c r="C152" t="s">
+        <v>545</v>
+      </c>
+      <c r="E152" t="s">
+        <v>862</v>
+      </c>
+      <c r="F152" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>229</v>
+      </c>
+      <c r="B153" t="s">
+        <v>445</v>
+      </c>
+      <c r="C153" t="s">
+        <v>546</v>
+      </c>
+      <c r="E153" t="s">
+        <v>863</v>
+      </c>
+      <c r="F153" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>230</v>
+      </c>
+      <c r="B154" t="s">
+        <v>445</v>
+      </c>
+      <c r="C154" t="s">
+        <v>547</v>
+      </c>
+      <c r="E154" t="s">
+        <v>864</v>
+      </c>
+      <c r="F154" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>231</v>
+      </c>
+      <c r="B155" t="s">
+        <v>445</v>
+      </c>
+      <c r="C155" t="s">
+        <v>548</v>
+      </c>
+      <c r="E155" t="s">
+        <v>865</v>
+      </c>
+      <c r="F155" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>232</v>
+      </c>
+      <c r="B156" t="s">
+        <v>445</v>
+      </c>
+      <c r="C156" t="s">
+        <v>549</v>
+      </c>
+      <c r="E156" t="s">
+        <v>866</v>
+      </c>
+      <c r="F156" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>233</v>
+      </c>
+      <c r="B157" t="s">
+        <v>445</v>
+      </c>
+      <c r="C157" t="s">
+        <v>550</v>
+      </c>
+      <c r="E157" t="s">
+        <v>867</v>
+      </c>
+      <c r="F157" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>234</v>
+      </c>
+      <c r="B158" t="s">
+        <v>445</v>
+      </c>
+      <c r="C158" t="s">
+        <v>551</v>
+      </c>
+      <c r="E158" t="s">
+        <v>868</v>
+      </c>
+      <c r="F158" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>235</v>
+      </c>
+      <c r="B159" t="s">
+        <v>445</v>
+      </c>
+      <c r="C159" t="s">
+        <v>552</v>
+      </c>
+      <c r="E159" t="s">
+        <v>869</v>
+      </c>
+      <c r="F159" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>236</v>
+      </c>
+      <c r="B160" t="s">
+        <v>445</v>
+      </c>
+      <c r="C160" t="s">
+        <v>553</v>
+      </c>
+      <c r="E160" t="s">
+        <v>870</v>
+      </c>
+      <c r="F160" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>237</v>
+      </c>
+      <c r="B161" t="s">
+        <v>445</v>
+      </c>
+      <c r="C161" t="s">
+        <v>554</v>
+      </c>
+      <c r="E161" t="s">
+        <v>871</v>
+      </c>
+      <c r="F161" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>238</v>
+      </c>
+      <c r="B162" t="s">
+        <v>445</v>
+      </c>
+      <c r="C162" t="s">
+        <v>555</v>
+      </c>
+      <c r="E162" t="s">
+        <v>872</v>
+      </c>
+      <c r="F162" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>239</v>
+      </c>
+      <c r="B163" t="s">
+        <v>445</v>
+      </c>
+      <c r="C163" t="s">
+        <v>556</v>
+      </c>
+      <c r="E163" t="s">
+        <v>873</v>
+      </c>
+      <c r="F163" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>240</v>
+      </c>
+      <c r="B164" t="s">
+        <v>445</v>
+      </c>
+      <c r="C164" t="s">
+        <v>557</v>
+      </c>
+      <c r="E164" t="s">
+        <v>874</v>
+      </c>
+      <c r="F164" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>241</v>
+      </c>
+      <c r="B165" t="s">
+        <v>445</v>
+      </c>
+      <c r="C165" t="s">
+        <v>558</v>
+      </c>
+      <c r="E165" t="s">
+        <v>875</v>
+      </c>
+      <c r="F165" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>242</v>
+      </c>
+      <c r="B166" t="s">
+        <v>445</v>
+      </c>
+      <c r="C166" t="s">
+        <v>559</v>
+      </c>
+      <c r="E166" t="s">
+        <v>876</v>
+      </c>
+      <c r="F166" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>243</v>
+      </c>
+      <c r="B167" t="s">
+        <v>445</v>
+      </c>
+      <c r="C167" t="s">
+        <v>560</v>
+      </c>
+      <c r="E167" t="s">
+        <v>877</v>
+      </c>
+      <c r="F167" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>244</v>
+      </c>
+      <c r="B168" t="s">
+        <v>445</v>
+      </c>
+      <c r="C168" t="s">
+        <v>561</v>
+      </c>
+      <c r="E168" t="s">
+        <v>878</v>
+      </c>
+      <c r="F168" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>245</v>
+      </c>
+      <c r="B169" t="s">
+        <v>445</v>
+      </c>
+      <c r="C169" t="s">
+        <v>562</v>
+      </c>
+      <c r="E169" t="s">
+        <v>879</v>
+      </c>
+      <c r="F169" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>246</v>
+      </c>
+      <c r="B170" t="s">
+        <v>445</v>
+      </c>
+      <c r="C170" t="s">
+        <v>563</v>
+      </c>
+      <c r="E170" t="s">
+        <v>880</v>
+      </c>
+      <c r="F170" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>247</v>
+      </c>
+      <c r="B171" t="s">
+        <v>445</v>
+      </c>
+      <c r="C171" t="s">
+        <v>564</v>
+      </c>
+      <c r="E171" t="s">
+        <v>881</v>
+      </c>
+      <c r="F171" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>248</v>
+      </c>
+      <c r="B172" t="s">
+        <v>445</v>
+      </c>
+      <c r="C172" t="s">
+        <v>565</v>
+      </c>
+      <c r="E172" t="s">
+        <v>882</v>
+      </c>
+      <c r="F172" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>249</v>
+      </c>
+      <c r="B173" t="s">
+        <v>445</v>
+      </c>
+      <c r="C173" t="s">
+        <v>566</v>
+      </c>
+      <c r="E173" t="s">
+        <v>883</v>
+      </c>
+      <c r="F173" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>250</v>
+      </c>
+      <c r="B174" t="s">
+        <v>445</v>
+      </c>
+      <c r="C174" t="s">
+        <v>567</v>
+      </c>
+      <c r="E174" t="s">
+        <v>884</v>
+      </c>
+      <c r="F174" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>251</v>
+      </c>
+      <c r="B175" t="s">
+        <v>445</v>
+      </c>
+      <c r="C175" t="s">
+        <v>568</v>
+      </c>
+      <c r="E175" t="s">
+        <v>885</v>
+      </c>
+      <c r="F175" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>252</v>
+      </c>
+      <c r="B176" t="s">
+        <v>445</v>
+      </c>
+      <c r="C176" t="s">
+        <v>569</v>
+      </c>
+      <c r="E176" t="s">
+        <v>886</v>
+      </c>
+      <c r="F176" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>253</v>
+      </c>
+      <c r="B177" t="s">
+        <v>445</v>
+      </c>
+      <c r="C177" t="s">
+        <v>570</v>
+      </c>
+      <c r="E177" t="s">
+        <v>887</v>
+      </c>
+      <c r="F177" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>254</v>
+      </c>
+      <c r="B178" t="s">
+        <v>445</v>
+      </c>
+      <c r="C178" t="s">
+        <v>571</v>
+      </c>
+      <c r="E178" t="s">
+        <v>888</v>
+      </c>
+      <c r="F178" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>255</v>
+      </c>
+      <c r="B179" t="s">
+        <v>445</v>
+      </c>
+      <c r="C179" t="s">
+        <v>572</v>
+      </c>
+      <c r="E179" t="s">
+        <v>889</v>
+      </c>
+      <c r="F179" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>256</v>
+      </c>
+      <c r="B180" t="s">
+        <v>445</v>
+      </c>
+      <c r="C180" t="s">
+        <v>573</v>
+      </c>
+      <c r="E180" t="s">
+        <v>890</v>
+      </c>
+      <c r="F180" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>257</v>
+      </c>
+      <c r="B181" t="s">
+        <v>445</v>
+      </c>
+      <c r="C181" t="s">
+        <v>574</v>
+      </c>
+      <c r="E181" t="s">
+        <v>891</v>
+      </c>
+      <c r="F181" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>258</v>
+      </c>
+      <c r="B182" t="s">
+        <v>445</v>
+      </c>
+      <c r="C182" t="s">
+        <v>575</v>
+      </c>
+      <c r="E182" t="s">
+        <v>892</v>
+      </c>
+      <c r="F182" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>259</v>
+      </c>
+      <c r="B183" t="s">
+        <v>445</v>
+      </c>
+      <c r="C183" t="s">
+        <v>576</v>
+      </c>
+      <c r="E183" t="s">
+        <v>893</v>
+      </c>
+      <c r="F183" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>260</v>
+      </c>
+      <c r="B184" t="s">
+        <v>445</v>
+      </c>
+      <c r="C184" t="s">
+        <v>577</v>
+      </c>
+      <c r="E184" t="s">
+        <v>894</v>
+      </c>
+      <c r="F184" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>261</v>
+      </c>
+      <c r="B185" t="s">
+        <v>445</v>
+      </c>
+      <c r="C185" t="s">
+        <v>578</v>
+      </c>
+      <c r="E185" t="s">
+        <v>895</v>
+      </c>
+      <c r="F185" t="b">
+        <f t="shared" ref="F185:F248" si="2">REPLACE(E185,1,5,"")=A185</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>262</v>
+      </c>
+      <c r="B186" t="s">
+        <v>445</v>
+      </c>
+      <c r="C186" t="s">
+        <v>579</v>
+      </c>
+      <c r="E186" t="s">
+        <v>896</v>
+      </c>
+      <c r="F186" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>263</v>
+      </c>
+      <c r="B187" t="s">
+        <v>445</v>
+      </c>
+      <c r="C187" t="s">
+        <v>580</v>
+      </c>
+      <c r="E187" t="s">
+        <v>897</v>
+      </c>
+      <c r="F187" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>264</v>
+      </c>
+      <c r="B188" t="s">
+        <v>445</v>
+      </c>
+      <c r="C188" t="s">
+        <v>581</v>
+      </c>
+      <c r="E188" t="s">
+        <v>898</v>
+      </c>
+      <c r="F188" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>265</v>
+      </c>
+      <c r="B189" t="s">
+        <v>445</v>
+      </c>
+      <c r="C189" t="s">
+        <v>582</v>
+      </c>
+      <c r="E189" t="s">
+        <v>899</v>
+      </c>
+      <c r="F189" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>266</v>
+      </c>
+      <c r="B190" t="s">
+        <v>445</v>
+      </c>
+      <c r="C190" t="s">
+        <v>583</v>
+      </c>
+      <c r="E190" t="s">
+        <v>900</v>
+      </c>
+      <c r="F190" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>267</v>
+      </c>
+      <c r="B191" t="s">
+        <v>445</v>
+      </c>
+      <c r="C191" t="s">
+        <v>584</v>
+      </c>
+      <c r="E191" t="s">
+        <v>901</v>
+      </c>
+      <c r="F191" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>268</v>
+      </c>
+      <c r="B192" t="s">
+        <v>445</v>
+      </c>
+      <c r="C192" t="s">
+        <v>585</v>
+      </c>
+      <c r="E192" t="s">
+        <v>902</v>
+      </c>
+      <c r="F192" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>269</v>
+      </c>
+      <c r="B193" t="s">
+        <v>445</v>
+      </c>
+      <c r="C193" t="s">
+        <v>586</v>
+      </c>
+      <c r="E193" t="s">
+        <v>903</v>
+      </c>
+      <c r="F193" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>270</v>
+      </c>
+      <c r="B194" t="s">
+        <v>445</v>
+      </c>
+      <c r="C194" t="s">
+        <v>587</v>
+      </c>
+      <c r="E194" t="s">
+        <v>904</v>
+      </c>
+      <c r="F194" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>271</v>
+      </c>
+      <c r="B195" t="s">
+        <v>445</v>
+      </c>
+      <c r="C195" t="s">
+        <v>588</v>
+      </c>
+      <c r="E195" t="s">
+        <v>905</v>
+      </c>
+      <c r="F195" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>272</v>
+      </c>
+      <c r="B196" t="s">
+        <v>445</v>
+      </c>
+      <c r="C196" t="s">
+        <v>589</v>
+      </c>
+      <c r="E196" t="s">
+        <v>906</v>
+      </c>
+      <c r="F196" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>273</v>
+      </c>
+      <c r="B197" t="s">
+        <v>445</v>
+      </c>
+      <c r="C197" t="s">
+        <v>590</v>
+      </c>
+      <c r="E197" t="s">
+        <v>907</v>
+      </c>
+      <c r="F197" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>274</v>
+      </c>
+      <c r="B198" t="s">
+        <v>445</v>
+      </c>
+      <c r="C198" t="s">
+        <v>591</v>
+      </c>
+      <c r="E198" t="s">
+        <v>908</v>
+      </c>
+      <c r="F198" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>275</v>
+      </c>
+      <c r="B199" t="s">
+        <v>445</v>
+      </c>
+      <c r="C199" t="s">
+        <v>592</v>
+      </c>
+      <c r="E199" t="s">
+        <v>909</v>
+      </c>
+      <c r="F199" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>276</v>
+      </c>
+      <c r="B200" t="s">
+        <v>445</v>
+      </c>
+      <c r="C200" t="s">
+        <v>593</v>
+      </c>
+      <c r="E200" t="s">
+        <v>910</v>
+      </c>
+      <c r="F200" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>277</v>
+      </c>
+      <c r="B201" t="s">
+        <v>445</v>
+      </c>
+      <c r="C201" t="s">
+        <v>594</v>
+      </c>
+      <c r="E201" t="s">
+        <v>911</v>
+      </c>
+      <c r="F201" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>278</v>
+      </c>
+      <c r="B202" t="s">
+        <v>445</v>
+      </c>
+      <c r="C202" t="s">
+        <v>595</v>
+      </c>
+      <c r="E202" t="s">
+        <v>912</v>
+      </c>
+      <c r="F202" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>279</v>
+      </c>
+      <c r="B203" t="s">
+        <v>445</v>
+      </c>
+      <c r="C203" t="s">
+        <v>596</v>
+      </c>
+      <c r="E203" t="s">
+        <v>913</v>
+      </c>
+      <c r="F203" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>280</v>
+      </c>
+      <c r="B204" t="s">
+        <v>445</v>
+      </c>
+      <c r="C204" t="s">
+        <v>597</v>
+      </c>
+      <c r="E204" t="s">
+        <v>914</v>
+      </c>
+      <c r="F204" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>281</v>
+      </c>
+      <c r="B205" t="s">
+        <v>445</v>
+      </c>
+      <c r="C205" t="s">
+        <v>598</v>
+      </c>
+      <c r="E205" t="s">
+        <v>915</v>
+      </c>
+      <c r="F205" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>282</v>
+      </c>
+      <c r="B206" t="s">
+        <v>445</v>
+      </c>
+      <c r="C206" t="s">
+        <v>599</v>
+      </c>
+      <c r="E206" t="s">
+        <v>916</v>
+      </c>
+      <c r="F206" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>283</v>
+      </c>
+      <c r="B207" t="s">
+        <v>445</v>
+      </c>
+      <c r="C207" t="s">
+        <v>600</v>
+      </c>
+      <c r="E207" t="s">
+        <v>917</v>
+      </c>
+      <c r="F207" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>284</v>
+      </c>
+      <c r="B208" t="s">
+        <v>445</v>
+      </c>
+      <c r="C208" t="s">
+        <v>601</v>
+      </c>
+      <c r="E208" t="s">
+        <v>918</v>
+      </c>
+      <c r="F208" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>285</v>
+      </c>
+      <c r="B209" t="s">
+        <v>445</v>
+      </c>
+      <c r="C209" t="s">
+        <v>602</v>
+      </c>
+      <c r="E209" t="s">
+        <v>919</v>
+      </c>
+      <c r="F209" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>286</v>
+      </c>
+      <c r="B210" t="s">
+        <v>445</v>
+      </c>
+      <c r="C210" t="s">
+        <v>603</v>
+      </c>
+      <c r="E210" t="s">
+        <v>920</v>
+      </c>
+      <c r="F210" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>287</v>
+      </c>
+      <c r="B211" t="s">
+        <v>445</v>
+      </c>
+      <c r="C211" t="s">
+        <v>604</v>
+      </c>
+      <c r="E211" t="s">
+        <v>921</v>
+      </c>
+      <c r="F211" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>288</v>
+      </c>
+      <c r="B212" t="s">
+        <v>445</v>
+      </c>
+      <c r="C212" t="s">
+        <v>605</v>
+      </c>
+      <c r="E212" t="s">
+        <v>922</v>
+      </c>
+      <c r="F212" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>289</v>
+      </c>
+      <c r="B213" t="s">
+        <v>445</v>
+      </c>
+      <c r="C213" t="s">
+        <v>606</v>
+      </c>
+      <c r="E213" t="s">
+        <v>923</v>
+      </c>
+      <c r="F213" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>290</v>
+      </c>
+      <c r="B214" t="s">
+        <v>445</v>
+      </c>
+      <c r="C214" t="s">
+        <v>607</v>
+      </c>
+      <c r="E214" t="s">
+        <v>924</v>
+      </c>
+      <c r="F214" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>291</v>
+      </c>
+      <c r="B215" t="s">
+        <v>445</v>
+      </c>
+      <c r="C215" t="s">
+        <v>608</v>
+      </c>
+      <c r="E215" t="s">
+        <v>925</v>
+      </c>
+      <c r="F215" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>292</v>
+      </c>
+      <c r="B216" t="s">
+        <v>445</v>
+      </c>
+      <c r="C216" t="s">
+        <v>609</v>
+      </c>
+      <c r="E216" t="s">
+        <v>926</v>
+      </c>
+      <c r="F216" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>293</v>
+      </c>
+      <c r="B217" t="s">
+        <v>445</v>
+      </c>
+      <c r="C217" t="s">
+        <v>610</v>
+      </c>
+      <c r="E217" t="s">
+        <v>927</v>
+      </c>
+      <c r="F217" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>294</v>
+      </c>
+      <c r="B218" t="s">
+        <v>445</v>
+      </c>
+      <c r="C218" t="s">
+        <v>611</v>
+      </c>
+      <c r="E218" t="s">
+        <v>928</v>
+      </c>
+      <c r="F218" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>295</v>
+      </c>
+      <c r="B219" t="s">
+        <v>445</v>
+      </c>
+      <c r="C219" t="s">
+        <v>612</v>
+      </c>
+      <c r="E219" t="s">
+        <v>929</v>
+      </c>
+      <c r="F219" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>296</v>
+      </c>
+      <c r="B220" t="s">
+        <v>445</v>
+      </c>
+      <c r="C220" t="s">
+        <v>613</v>
+      </c>
+      <c r="E220" t="s">
+        <v>930</v>
+      </c>
+      <c r="F220" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>297</v>
+      </c>
+      <c r="B221" t="s">
+        <v>445</v>
+      </c>
+      <c r="C221" t="s">
+        <v>614</v>
+      </c>
+      <c r="E221" t="s">
+        <v>931</v>
+      </c>
+      <c r="F221" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>298</v>
+      </c>
+      <c r="B222" t="s">
+        <v>445</v>
+      </c>
+      <c r="C222" t="s">
+        <v>615</v>
+      </c>
+      <c r="E222" t="s">
+        <v>932</v>
+      </c>
+      <c r="F222" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>299</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+      <c r="C223" t="s">
+        <v>616</v>
+      </c>
+      <c r="E223" t="s">
+        <v>933</v>
+      </c>
+      <c r="F223" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>300</v>
+      </c>
+      <c r="B224" t="s">
+        <v>445</v>
+      </c>
+      <c r="C224" t="s">
+        <v>617</v>
+      </c>
+      <c r="E224" t="s">
+        <v>934</v>
+      </c>
+      <c r="F224" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>301</v>
+      </c>
+      <c r="B225" t="s">
+        <v>445</v>
+      </c>
+      <c r="C225" t="s">
+        <v>618</v>
+      </c>
+      <c r="E225" t="s">
+        <v>935</v>
+      </c>
+      <c r="F225" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>302</v>
+      </c>
+      <c r="B226" t="s">
+        <v>445</v>
+      </c>
+      <c r="C226" t="s">
+        <v>619</v>
+      </c>
+      <c r="E226" t="s">
+        <v>936</v>
+      </c>
+      <c r="F226" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>303</v>
+      </c>
+      <c r="B227" t="s">
+        <v>445</v>
+      </c>
+      <c r="C227" t="s">
+        <v>620</v>
+      </c>
+      <c r="E227" t="s">
+        <v>937</v>
+      </c>
+      <c r="F227" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>304</v>
+      </c>
+      <c r="B228" t="s">
+        <v>445</v>
+      </c>
+      <c r="C228" t="s">
+        <v>621</v>
+      </c>
+      <c r="E228" t="s">
+        <v>938</v>
+      </c>
+      <c r="F228" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>305</v>
+      </c>
+      <c r="B229" t="s">
+        <v>445</v>
+      </c>
+      <c r="C229" t="s">
+        <v>622</v>
+      </c>
+      <c r="E229" t="s">
+        <v>939</v>
+      </c>
+      <c r="F229" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>306</v>
+      </c>
+      <c r="B230" t="s">
+        <v>445</v>
+      </c>
+      <c r="C230" t="s">
+        <v>623</v>
+      </c>
+      <c r="E230" t="s">
+        <v>940</v>
+      </c>
+      <c r="F230" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>307</v>
+      </c>
+      <c r="B231" t="s">
+        <v>445</v>
+      </c>
+      <c r="C231" t="s">
+        <v>624</v>
+      </c>
+      <c r="E231" t="s">
+        <v>941</v>
+      </c>
+      <c r="F231" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>308</v>
+      </c>
+      <c r="B232" t="s">
+        <v>445</v>
+      </c>
+      <c r="C232" t="s">
+        <v>625</v>
+      </c>
+      <c r="E232" t="s">
+        <v>942</v>
+      </c>
+      <c r="F232" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>309</v>
+      </c>
+      <c r="B233" t="s">
+        <v>445</v>
+      </c>
+      <c r="C233" t="s">
+        <v>626</v>
+      </c>
+      <c r="E233" t="s">
+        <v>943</v>
+      </c>
+      <c r="F233" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>310</v>
+      </c>
+      <c r="B234" t="s">
+        <v>445</v>
+      </c>
+      <c r="C234" t="s">
+        <v>627</v>
+      </c>
+      <c r="E234" t="s">
+        <v>944</v>
+      </c>
+      <c r="F234" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>311</v>
+      </c>
+      <c r="B235" t="s">
+        <v>445</v>
+      </c>
+      <c r="C235" t="s">
+        <v>628</v>
+      </c>
+      <c r="E235" t="s">
+        <v>945</v>
+      </c>
+      <c r="F235" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>312</v>
+      </c>
+      <c r="B236" t="s">
+        <v>445</v>
+      </c>
+      <c r="C236" t="s">
+        <v>629</v>
+      </c>
+      <c r="E236" t="s">
+        <v>946</v>
+      </c>
+      <c r="F236" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>313</v>
+      </c>
+      <c r="B237" t="s">
+        <v>445</v>
+      </c>
+      <c r="C237" t="s">
+        <v>630</v>
+      </c>
+      <c r="E237" t="s">
+        <v>947</v>
+      </c>
+      <c r="F237" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>314</v>
+      </c>
+      <c r="B238" t="s">
+        <v>445</v>
+      </c>
+      <c r="C238" t="s">
+        <v>631</v>
+      </c>
+      <c r="E238" t="s">
+        <v>948</v>
+      </c>
+      <c r="F238" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>315</v>
+      </c>
+      <c r="B239" t="s">
+        <v>445</v>
+      </c>
+      <c r="C239" t="s">
+        <v>632</v>
+      </c>
+      <c r="E239" t="s">
+        <v>949</v>
+      </c>
+      <c r="F239" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>316</v>
+      </c>
+      <c r="B240" t="s">
+        <v>445</v>
+      </c>
+      <c r="C240" t="s">
+        <v>633</v>
+      </c>
+      <c r="E240" t="s">
+        <v>950</v>
+      </c>
+      <c r="F240" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>317</v>
+      </c>
+      <c r="B241" t="s">
+        <v>445</v>
+      </c>
+      <c r="C241" t="s">
+        <v>634</v>
+      </c>
+      <c r="E241" t="s">
+        <v>951</v>
+      </c>
+      <c r="F241" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>318</v>
+      </c>
+      <c r="B242" t="s">
+        <v>445</v>
+      </c>
+      <c r="C242" t="s">
+        <v>635</v>
+      </c>
+      <c r="E242" t="s">
+        <v>952</v>
+      </c>
+      <c r="F242" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>319</v>
+      </c>
+      <c r="B243" t="s">
+        <v>445</v>
+      </c>
+      <c r="C243" t="s">
+        <v>636</v>
+      </c>
+      <c r="E243" t="s">
+        <v>953</v>
+      </c>
+      <c r="F243" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>320</v>
+      </c>
+      <c r="B244" t="s">
+        <v>445</v>
+      </c>
+      <c r="C244" t="s">
+        <v>637</v>
+      </c>
+      <c r="E244" t="s">
+        <v>954</v>
+      </c>
+      <c r="F244" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>321</v>
+      </c>
+      <c r="B245" t="s">
+        <v>445</v>
+      </c>
+      <c r="C245" t="s">
+        <v>638</v>
+      </c>
+      <c r="E245" t="s">
+        <v>955</v>
+      </c>
+      <c r="F245" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>322</v>
+      </c>
+      <c r="B246" t="s">
+        <v>445</v>
+      </c>
+      <c r="C246" t="s">
+        <v>639</v>
+      </c>
+      <c r="E246" t="s">
+        <v>956</v>
+      </c>
+      <c r="F246" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>323</v>
+      </c>
+      <c r="B247" t="s">
+        <v>445</v>
+      </c>
+      <c r="C247" t="s">
+        <v>641</v>
+      </c>
+      <c r="E247" t="s">
+        <v>958</v>
+      </c>
+      <c r="F247" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G247" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>324</v>
+      </c>
+      <c r="B248" t="s">
+        <v>445</v>
+      </c>
+      <c r="C248" t="s">
+        <v>642</v>
+      </c>
+      <c r="E248" t="s">
+        <v>959</v>
+      </c>
+      <c r="F248" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>325</v>
+      </c>
+      <c r="B249" t="s">
+        <v>445</v>
+      </c>
+      <c r="C249" t="s">
+        <v>643</v>
+      </c>
+      <c r="E249" t="s">
+        <v>960</v>
+      </c>
+      <c r="F249" t="b">
+        <f t="shared" ref="F249:F312" si="3">REPLACE(E249,1,5,"")=A249</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>326</v>
+      </c>
+      <c r="B250" t="s">
+        <v>445</v>
+      </c>
+      <c r="C250" t="s">
+        <v>644</v>
+      </c>
+      <c r="E250" t="s">
+        <v>961</v>
+      </c>
+      <c r="F250" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>327</v>
+      </c>
+      <c r="B251" t="s">
+        <v>445</v>
+      </c>
+      <c r="C251" t="s">
+        <v>645</v>
+      </c>
+      <c r="E251" t="s">
+        <v>962</v>
+      </c>
+      <c r="F251" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>328</v>
+      </c>
+      <c r="B252" t="s">
+        <v>445</v>
+      </c>
+      <c r="C252" t="s">
+        <v>646</v>
+      </c>
+      <c r="E252" t="s">
+        <v>963</v>
+      </c>
+      <c r="F252" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>329</v>
+      </c>
+      <c r="B253" t="s">
+        <v>445</v>
+      </c>
+      <c r="C253" t="s">
+        <v>647</v>
+      </c>
+      <c r="E253" t="s">
+        <v>964</v>
+      </c>
+      <c r="F253" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>330</v>
+      </c>
+      <c r="B254" t="s">
+        <v>445</v>
+      </c>
+      <c r="C254" t="s">
+        <v>648</v>
+      </c>
+      <c r="E254" t="s">
+        <v>965</v>
+      </c>
+      <c r="F254" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>331</v>
+      </c>
+      <c r="B255" t="s">
+        <v>445</v>
+      </c>
+      <c r="C255" t="s">
+        <v>649</v>
+      </c>
+      <c r="E255" t="s">
+        <v>966</v>
+      </c>
+      <c r="F255" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>332</v>
+      </c>
+      <c r="B256" t="s">
+        <v>445</v>
+      </c>
+      <c r="C256" t="s">
+        <v>650</v>
+      </c>
+      <c r="E256" t="s">
+        <v>967</v>
+      </c>
+      <c r="F256" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>333</v>
+      </c>
+      <c r="B257" t="s">
+        <v>445</v>
+      </c>
+      <c r="C257" t="s">
+        <v>651</v>
+      </c>
+      <c r="E257" t="s">
+        <v>968</v>
+      </c>
+      <c r="F257" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>334</v>
+      </c>
+      <c r="B258" t="s">
+        <v>445</v>
+      </c>
+      <c r="C258" t="s">
+        <v>652</v>
+      </c>
+      <c r="E258" t="s">
+        <v>969</v>
+      </c>
+      <c r="F258" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>335</v>
+      </c>
+      <c r="B259" t="s">
+        <v>445</v>
+      </c>
+      <c r="C259" t="s">
+        <v>653</v>
+      </c>
+      <c r="E259" t="s">
+        <v>970</v>
+      </c>
+      <c r="F259" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>336</v>
+      </c>
+      <c r="B260" t="s">
+        <v>445</v>
+      </c>
+      <c r="C260" t="s">
+        <v>654</v>
+      </c>
+      <c r="E260" t="s">
+        <v>971</v>
+      </c>
+      <c r="F260" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>337</v>
+      </c>
+      <c r="B261" t="s">
+        <v>445</v>
+      </c>
+      <c r="C261" t="s">
+        <v>655</v>
+      </c>
+      <c r="E261" t="s">
+        <v>972</v>
+      </c>
+      <c r="F261" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>338</v>
+      </c>
+      <c r="B262" t="s">
+        <v>445</v>
+      </c>
+      <c r="C262" t="s">
+        <v>656</v>
+      </c>
+      <c r="E262" t="s">
+        <v>973</v>
+      </c>
+      <c r="F262" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>339</v>
+      </c>
+      <c r="B263" t="s">
+        <v>445</v>
+      </c>
+      <c r="C263" t="s">
+        <v>657</v>
+      </c>
+      <c r="E263" t="s">
+        <v>974</v>
+      </c>
+      <c r="F263" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>340</v>
+      </c>
+      <c r="B264" t="s">
+        <v>445</v>
+      </c>
+      <c r="C264" t="s">
+        <v>658</v>
+      </c>
+      <c r="E264" t="s">
+        <v>975</v>
+      </c>
+      <c r="F264" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>341</v>
+      </c>
+      <c r="B265" t="s">
+        <v>445</v>
+      </c>
+      <c r="C265" t="s">
+        <v>659</v>
+      </c>
+      <c r="E265" t="s">
+        <v>976</v>
+      </c>
+      <c r="F265" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>342</v>
+      </c>
+      <c r="B266" t="s">
+        <v>445</v>
+      </c>
+      <c r="C266" t="s">
+        <v>660</v>
+      </c>
+      <c r="E266" t="s">
+        <v>977</v>
+      </c>
+      <c r="F266" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>343</v>
+      </c>
+      <c r="B267" t="s">
+        <v>445</v>
+      </c>
+      <c r="C267" t="s">
+        <v>661</v>
+      </c>
+      <c r="E267" t="s">
+        <v>978</v>
+      </c>
+      <c r="F267" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>344</v>
+      </c>
+      <c r="B268" t="s">
+        <v>445</v>
+      </c>
+      <c r="C268" t="s">
+        <v>662</v>
+      </c>
+      <c r="E268" t="s">
+        <v>979</v>
+      </c>
+      <c r="F268" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>345</v>
+      </c>
+      <c r="B269" t="s">
+        <v>445</v>
+      </c>
+      <c r="C269" t="s">
+        <v>663</v>
+      </c>
+      <c r="E269" t="s">
+        <v>980</v>
+      </c>
+      <c r="F269" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>346</v>
+      </c>
+      <c r="B270" t="s">
+        <v>445</v>
+      </c>
+      <c r="C270" t="s">
+        <v>664</v>
+      </c>
+      <c r="E270" t="s">
+        <v>981</v>
+      </c>
+      <c r="F270" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>347</v>
+      </c>
+      <c r="B271" t="s">
+        <v>445</v>
+      </c>
+      <c r="C271" t="s">
+        <v>665</v>
+      </c>
+      <c r="E271" t="s">
+        <v>982</v>
+      </c>
+      <c r="F271" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>348</v>
+      </c>
+      <c r="B272" t="s">
+        <v>445</v>
+      </c>
+      <c r="C272" t="s">
+        <v>666</v>
+      </c>
+      <c r="E272" t="s">
+        <v>983</v>
+      </c>
+      <c r="F272" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>349</v>
+      </c>
+      <c r="B273" t="s">
+        <v>445</v>
+      </c>
+      <c r="C273" t="s">
+        <v>667</v>
+      </c>
+      <c r="E273" t="s">
+        <v>984</v>
+      </c>
+      <c r="F273" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>350</v>
+      </c>
+      <c r="B274" t="s">
+        <v>445</v>
+      </c>
+      <c r="C274" t="s">
+        <v>668</v>
+      </c>
+      <c r="E274" t="s">
+        <v>985</v>
+      </c>
+      <c r="F274" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>351</v>
+      </c>
+      <c r="B275" t="s">
+        <v>445</v>
+      </c>
+      <c r="C275" t="s">
+        <v>669</v>
+      </c>
+      <c r="E275" t="s">
+        <v>986</v>
+      </c>
+      <c r="F275" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>352</v>
+      </c>
+      <c r="B276" t="s">
+        <v>445</v>
+      </c>
+      <c r="C276" t="s">
+        <v>670</v>
+      </c>
+      <c r="E276" t="s">
+        <v>987</v>
+      </c>
+      <c r="F276" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>353</v>
+      </c>
+      <c r="B277" t="s">
+        <v>445</v>
+      </c>
+      <c r="C277" t="s">
+        <v>671</v>
+      </c>
+      <c r="E277" t="s">
+        <v>988</v>
+      </c>
+      <c r="F277" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>354</v>
+      </c>
+      <c r="B278" t="s">
+        <v>445</v>
+      </c>
+      <c r="C278" t="s">
+        <v>672</v>
+      </c>
+      <c r="E278" t="s">
+        <v>989</v>
+      </c>
+      <c r="F278" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>355</v>
+      </c>
+      <c r="B279" t="s">
+        <v>445</v>
+      </c>
+      <c r="C279" t="s">
+        <v>673</v>
+      </c>
+      <c r="E279" t="s">
+        <v>990</v>
+      </c>
+      <c r="F279" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>356</v>
+      </c>
+      <c r="B280" t="s">
+        <v>445</v>
+      </c>
+      <c r="C280" t="s">
+        <v>674</v>
+      </c>
+      <c r="E280" t="s">
+        <v>991</v>
+      </c>
+      <c r="F280" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>357</v>
+      </c>
+      <c r="B281" t="s">
+        <v>445</v>
+      </c>
+      <c r="C281" t="s">
+        <v>675</v>
+      </c>
+      <c r="E281" t="s">
+        <v>992</v>
+      </c>
+      <c r="F281" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>358</v>
+      </c>
+      <c r="B282" t="s">
+        <v>445</v>
+      </c>
+      <c r="C282" t="s">
+        <v>676</v>
+      </c>
+      <c r="E282" t="s">
+        <v>993</v>
+      </c>
+      <c r="F282" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>359</v>
+      </c>
+      <c r="B283" t="s">
+        <v>445</v>
+      </c>
+      <c r="C283" t="s">
+        <v>677</v>
+      </c>
+      <c r="E283" t="s">
+        <v>994</v>
+      </c>
+      <c r="F283" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>360</v>
+      </c>
+      <c r="B284" t="s">
+        <v>445</v>
+      </c>
+      <c r="C284" t="s">
+        <v>678</v>
+      </c>
+      <c r="E284" t="s">
+        <v>995</v>
+      </c>
+      <c r="F284" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>361</v>
+      </c>
+      <c r="B285" t="s">
+        <v>445</v>
+      </c>
+      <c r="C285" t="s">
+        <v>679</v>
+      </c>
+      <c r="E285" t="s">
+        <v>996</v>
+      </c>
+      <c r="F285" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>362</v>
+      </c>
+      <c r="B286" t="s">
+        <v>445</v>
+      </c>
+      <c r="C286" t="s">
+        <v>680</v>
+      </c>
+      <c r="E286" t="s">
+        <v>997</v>
+      </c>
+      <c r="F286" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>363</v>
+      </c>
+      <c r="B287" t="s">
+        <v>445</v>
+      </c>
+      <c r="C287" t="s">
+        <v>681</v>
+      </c>
+      <c r="E287" t="s">
+        <v>998</v>
+      </c>
+      <c r="F287" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>364</v>
+      </c>
+      <c r="B288" t="s">
+        <v>445</v>
+      </c>
+      <c r="C288" t="s">
+        <v>682</v>
+      </c>
+      <c r="E288" t="s">
+        <v>999</v>
+      </c>
+      <c r="F288" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>365</v>
+      </c>
+      <c r="B289" t="s">
+        <v>445</v>
+      </c>
+      <c r="C289" t="s">
+        <v>683</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F289" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>366</v>
+      </c>
+      <c r="B290" t="s">
+        <v>445</v>
+      </c>
+      <c r="C290" t="s">
+        <v>684</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F290" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>367</v>
+      </c>
+      <c r="B291" t="s">
+        <v>445</v>
+      </c>
+      <c r="C291" t="s">
+        <v>685</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F291" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>368</v>
+      </c>
+      <c r="B292" t="s">
+        <v>445</v>
+      </c>
+      <c r="C292" t="s">
+        <v>686</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F292" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>369</v>
+      </c>
+      <c r="B293" t="s">
+        <v>445</v>
+      </c>
+      <c r="C293" t="s">
+        <v>687</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F293" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>370</v>
+      </c>
+      <c r="B294" t="s">
+        <v>445</v>
+      </c>
+      <c r="C294" t="s">
+        <v>688</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F294" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>371</v>
+      </c>
+      <c r="B295" t="s">
+        <v>445</v>
+      </c>
+      <c r="C295" t="s">
+        <v>689</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F295" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>372</v>
+      </c>
+      <c r="B296" t="s">
+        <v>445</v>
+      </c>
+      <c r="C296" t="s">
+        <v>690</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F296" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>373</v>
+      </c>
+      <c r="B297" t="s">
+        <v>445</v>
+      </c>
+      <c r="C297" t="s">
+        <v>691</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F297" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>374</v>
+      </c>
+      <c r="B298" t="s">
+        <v>445</v>
+      </c>
+      <c r="C298" t="s">
+        <v>692</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F298" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>375</v>
+      </c>
+      <c r="B299" t="s">
+        <v>445</v>
+      </c>
+      <c r="C299" t="s">
+        <v>693</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F299" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>376</v>
+      </c>
+      <c r="B300" t="s">
+        <v>445</v>
+      </c>
+      <c r="C300" t="s">
+        <v>694</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F300" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>377</v>
+      </c>
+      <c r="B301" t="s">
+        <v>445</v>
+      </c>
+      <c r="C301" t="s">
+        <v>695</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F301" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>378</v>
+      </c>
+      <c r="B302" t="s">
+        <v>445</v>
+      </c>
+      <c r="C302" t="s">
+        <v>696</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F302" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>379</v>
+      </c>
+      <c r="B303" t="s">
+        <v>445</v>
+      </c>
+      <c r="C303" t="s">
+        <v>697</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F303" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>380</v>
+      </c>
+      <c r="B304" t="s">
+        <v>445</v>
+      </c>
+      <c r="C304" t="s">
+        <v>698</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F304" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>381</v>
+      </c>
+      <c r="B305" t="s">
+        <v>445</v>
+      </c>
+      <c r="C305" t="s">
+        <v>699</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F305" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>382</v>
+      </c>
+      <c r="B306" t="s">
+        <v>445</v>
+      </c>
+      <c r="C306" t="s">
+        <v>700</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F306" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>383</v>
+      </c>
+      <c r="B307" t="s">
+        <v>445</v>
+      </c>
+      <c r="C307" t="s">
+        <v>701</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F307" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>384</v>
+      </c>
+      <c r="B308" t="s">
+        <v>445</v>
+      </c>
+      <c r="C308" t="s">
+        <v>702</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F308" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>385</v>
+      </c>
+      <c r="B309" t="s">
+        <v>445</v>
+      </c>
+      <c r="C309" t="s">
+        <v>703</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F309" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>386</v>
+      </c>
+      <c r="B310" t="s">
+        <v>445</v>
+      </c>
+      <c r="C310" t="s">
+        <v>704</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F310" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>387</v>
+      </c>
+      <c r="B311" t="s">
+        <v>445</v>
+      </c>
+      <c r="C311" t="s">
+        <v>705</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F311" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>388</v>
+      </c>
+      <c r="B312" t="s">
+        <v>445</v>
+      </c>
+      <c r="C312" t="s">
+        <v>706</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F312" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>389</v>
+      </c>
+      <c r="B313" t="s">
+        <v>445</v>
+      </c>
+      <c r="C313" t="s">
+        <v>707</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F313" t="b">
+        <f t="shared" ref="F313:F371" si="4">REPLACE(E313,1,5,"")=A313</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>390</v>
+      </c>
+      <c r="B314" t="s">
+        <v>445</v>
+      </c>
+      <c r="C314" t="s">
+        <v>708</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F314" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>391</v>
+      </c>
+      <c r="B315" t="s">
+        <v>445</v>
+      </c>
+      <c r="C315" t="s">
+        <v>709</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F315" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>392</v>
+      </c>
+      <c r="B316" t="s">
+        <v>445</v>
+      </c>
+      <c r="C316" t="s">
+        <v>710</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F316" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>393</v>
+      </c>
+      <c r="B317" t="s">
+        <v>445</v>
+      </c>
+      <c r="C317" t="s">
+        <v>711</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F317" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>394</v>
+      </c>
+      <c r="B318" t="s">
+        <v>445</v>
+      </c>
+      <c r="C318" t="s">
+        <v>712</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F318" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>395</v>
+      </c>
+      <c r="B319" t="s">
+        <v>445</v>
+      </c>
+      <c r="C319" t="s">
+        <v>713</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F319" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>396</v>
+      </c>
+      <c r="B320" t="s">
+        <v>445</v>
+      </c>
+      <c r="C320" t="s">
+        <v>714</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F320" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>397</v>
+      </c>
+      <c r="B321" t="s">
+        <v>445</v>
+      </c>
+      <c r="C321" t="s">
+        <v>715</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F321" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>398</v>
+      </c>
+      <c r="B322" t="s">
+        <v>445</v>
+      </c>
+      <c r="C322" t="s">
+        <v>716</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F322" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>399</v>
+      </c>
+      <c r="B323" t="s">
+        <v>445</v>
+      </c>
+      <c r="C323" t="s">
+        <v>717</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F323" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>400</v>
+      </c>
+      <c r="B324" t="s">
+        <v>445</v>
+      </c>
+      <c r="C324" t="s">
+        <v>718</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F324" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>401</v>
+      </c>
+      <c r="B325" t="s">
+        <v>445</v>
+      </c>
+      <c r="C325" t="s">
+        <v>719</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F325" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>402</v>
+      </c>
+      <c r="B326" t="s">
+        <v>445</v>
+      </c>
+      <c r="C326" t="s">
+        <v>720</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F326" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>403</v>
+      </c>
+      <c r="B327" t="s">
+        <v>445</v>
+      </c>
+      <c r="C327" t="s">
+        <v>721</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F327" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>404</v>
+      </c>
+      <c r="B328" t="s">
+        <v>445</v>
+      </c>
+      <c r="C328" t="s">
+        <v>722</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F328" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>405</v>
+      </c>
+      <c r="B329" t="s">
+        <v>445</v>
+      </c>
+      <c r="C329" t="s">
+        <v>723</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F329" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>406</v>
+      </c>
+      <c r="B330" t="s">
+        <v>445</v>
+      </c>
+      <c r="C330" t="s">
+        <v>724</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F330" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>407</v>
+      </c>
+      <c r="B331" t="s">
+        <v>445</v>
+      </c>
+      <c r="C331" t="s">
+        <v>725</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F331" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>408</v>
+      </c>
+      <c r="B332" t="s">
+        <v>445</v>
+      </c>
+      <c r="C332" t="s">
+        <v>726</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F332" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>409</v>
+      </c>
+      <c r="B333" t="s">
+        <v>445</v>
+      </c>
+      <c r="C333" t="s">
+        <v>727</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F333" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>410</v>
+      </c>
+      <c r="B334" t="s">
+        <v>445</v>
+      </c>
+      <c r="C334" t="s">
+        <v>728</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F334" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>411</v>
+      </c>
+      <c r="B335" t="s">
+        <v>445</v>
+      </c>
+      <c r="C335" t="s">
+        <v>729</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F335" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>412</v>
+      </c>
+      <c r="B336" t="s">
+        <v>445</v>
+      </c>
+      <c r="C336" t="s">
+        <v>730</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F336" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>413</v>
+      </c>
+      <c r="B337" t="s">
+        <v>445</v>
+      </c>
+      <c r="C337" t="s">
+        <v>731</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F337" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>414</v>
+      </c>
+      <c r="B338" t="s">
+        <v>445</v>
+      </c>
+      <c r="C338" t="s">
+        <v>732</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F338" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>415</v>
+      </c>
+      <c r="B339" t="s">
+        <v>445</v>
+      </c>
+      <c r="C339" t="s">
+        <v>733</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F339" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>416</v>
+      </c>
+      <c r="B340" t="s">
+        <v>445</v>
+      </c>
+      <c r="C340" t="s">
+        <v>734</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F340" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>417</v>
+      </c>
+      <c r="B341" t="s">
+        <v>445</v>
+      </c>
+      <c r="C341" t="s">
+        <v>735</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F341" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>418</v>
+      </c>
+      <c r="B342" t="s">
+        <v>445</v>
+      </c>
+      <c r="C342" t="s">
+        <v>736</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F342" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>419</v>
+      </c>
+      <c r="B343" t="s">
+        <v>445</v>
+      </c>
+      <c r="C343" t="s">
+        <v>737</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F343" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>420</v>
+      </c>
+      <c r="B344" t="s">
+        <v>445</v>
+      </c>
+      <c r="C344" t="s">
+        <v>738</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F344" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>421</v>
+      </c>
+      <c r="B345" t="s">
+        <v>445</v>
+      </c>
+      <c r="C345" t="s">
+        <v>739</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F345" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>422</v>
+      </c>
+      <c r="B346" t="s">
+        <v>445</v>
+      </c>
+      <c r="C346" t="s">
+        <v>740</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F346" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>423</v>
+      </c>
+      <c r="B347" t="s">
+        <v>445</v>
+      </c>
+      <c r="C347" t="s">
+        <v>741</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F347" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>424</v>
+      </c>
+      <c r="B348" t="s">
+        <v>445</v>
+      </c>
+      <c r="C348" t="s">
+        <v>742</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F348" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>425</v>
+      </c>
+      <c r="B349" t="s">
+        <v>445</v>
+      </c>
+      <c r="C349" t="s">
+        <v>743</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F349" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>426</v>
+      </c>
+      <c r="B350" t="s">
+        <v>445</v>
+      </c>
+      <c r="C350" t="s">
+        <v>744</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F350" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>427</v>
+      </c>
+      <c r="B351" t="s">
+        <v>445</v>
+      </c>
+      <c r="C351" t="s">
+        <v>745</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F351" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>428</v>
+      </c>
+      <c r="B352" t="s">
+        <v>445</v>
+      </c>
+      <c r="C352" t="s">
+        <v>746</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F352" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>429</v>
+      </c>
+      <c r="B353" t="s">
+        <v>445</v>
+      </c>
+      <c r="C353" t="s">
+        <v>747</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F353" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>430</v>
+      </c>
+      <c r="B354" t="s">
+        <v>445</v>
+      </c>
+      <c r="C354" t="s">
+        <v>748</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F354" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>431</v>
+      </c>
+      <c r="B355" t="s">
+        <v>445</v>
+      </c>
+      <c r="C355" t="s">
+        <v>749</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F355" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>432</v>
+      </c>
+      <c r="B356" t="s">
+        <v>445</v>
+      </c>
+      <c r="C356" t="s">
+        <v>750</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F356" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>433</v>
+      </c>
+      <c r="B357" t="s">
+        <v>445</v>
+      </c>
+      <c r="C357" t="s">
+        <v>751</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F357" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>434</v>
+      </c>
+      <c r="B358" t="s">
+        <v>445</v>
+      </c>
+      <c r="C358" t="s">
+        <v>752</v>
+      </c>
+      <c r="E358" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F358" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>435</v>
+      </c>
+      <c r="B359" t="s">
+        <v>445</v>
+      </c>
+      <c r="C359" t="s">
+        <v>753</v>
+      </c>
+      <c r="E359" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F359" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>436</v>
+      </c>
+      <c r="B360" t="s">
+        <v>445</v>
+      </c>
+      <c r="C360" t="s">
+        <v>754</v>
+      </c>
+      <c r="E360" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F360" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>437</v>
+      </c>
+      <c r="B361" t="s">
+        <v>445</v>
+      </c>
+      <c r="C361" t="s">
+        <v>755</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F361" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>438</v>
+      </c>
+      <c r="B362" t="s">
+        <v>445</v>
+      </c>
+      <c r="C362" t="s">
+        <v>756</v>
+      </c>
+      <c r="E362" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F362" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>439</v>
+      </c>
+      <c r="B363" t="s">
+        <v>445</v>
+      </c>
+      <c r="C363" t="s">
+        <v>757</v>
+      </c>
+      <c r="E363" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F363" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>440</v>
+      </c>
+      <c r="B364" t="s">
+        <v>445</v>
+      </c>
+      <c r="C364" t="s">
+        <v>758</v>
+      </c>
+      <c r="E364" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F364" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>441</v>
+      </c>
+      <c r="B365" t="s">
+        <v>445</v>
+      </c>
+      <c r="C365" t="s">
+        <v>759</v>
+      </c>
+      <c r="E365" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F365" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>442</v>
+      </c>
+      <c r="B366" t="s">
+        <v>445</v>
+      </c>
+      <c r="C366" t="s">
+        <v>760</v>
+      </c>
+      <c r="E366" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F366" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>443</v>
+      </c>
+      <c r="B367" t="s">
+        <v>445</v>
+      </c>
+      <c r="C367" t="s">
+        <v>761</v>
+      </c>
+      <c r="E367" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F367" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>444</v>
+      </c>
+      <c r="B368" t="s">
+        <v>445</v>
+      </c>
+      <c r="C368" t="s">
+        <v>762</v>
+      </c>
+      <c r="E368" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F368" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C369" t="s">
+        <v>459</v>
+      </c>
+      <c r="F369" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C370" t="s">
+        <v>446</v>
+      </c>
+      <c r="F370" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C371" t="s">
+        <v>477</v>
+      </c>
+      <c r="F371" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C372" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/WIP__uds3_ift_matches.xlsx
+++ b/WIP__uds3_ift_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296BAF3-0D75-6049-9E52-C715FBAF31AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A695D10F-F4A3-A540-853D-088FE3D553A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19180" yWindow="460" windowWidth="19200" windowHeight="23540" xr2:uid="{076664BD-647D-FA4F-B94B-D41FA05C105D}"/>
   </bookViews>

--- a/WIP__uds3_ift_matches.xlsx
+++ b/WIP__uds3_ift_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A695D10F-F4A3-A540-853D-088FE3D553A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DABCDDC-77DF-5841-9F41-BA2D3C4968E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19180" yWindow="460" windowWidth="19200" windowHeight="23540" xr2:uid="{076664BD-647D-FA4F-B94B-D41FA05C105D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1243">
   <si>
     <t>ivp_a1</t>
   </si>
@@ -3282,6 +3282,483 @@
   </si>
   <si>
     <t>ivp_tvp_match</t>
+  </si>
+  <si>
+    <t>anymeds</t>
+  </si>
+  <si>
+    <t>drugid_1</t>
+  </si>
+  <si>
+    <t>drugid_2</t>
+  </si>
+  <si>
+    <t>drugid_3</t>
+  </si>
+  <si>
+    <t>drugid_4</t>
+  </si>
+  <si>
+    <t>drugid_5</t>
+  </si>
+  <si>
+    <t>drugid_6</t>
+  </si>
+  <si>
+    <t>drugid_7</t>
+  </si>
+  <si>
+    <t>drugid_8</t>
+  </si>
+  <si>
+    <t>drugid_9</t>
+  </si>
+  <si>
+    <t>drugid_10</t>
+  </si>
+  <si>
+    <t>drugid_11</t>
+  </si>
+  <si>
+    <t>drugid_12</t>
+  </si>
+  <si>
+    <t>drugid_13</t>
+  </si>
+  <si>
+    <t>drugid_14</t>
+  </si>
+  <si>
+    <t>drugid_15</t>
+  </si>
+  <si>
+    <t>drugid_16</t>
+  </si>
+  <si>
+    <t>drugid_17</t>
+  </si>
+  <si>
+    <t>drugid_18</t>
+  </si>
+  <si>
+    <t>drugid_19</t>
+  </si>
+  <si>
+    <t>drugid_20</t>
+  </si>
+  <si>
+    <t>drugid_21</t>
+  </si>
+  <si>
+    <t>drugid_22</t>
+  </si>
+  <si>
+    <t>drugid_23</t>
+  </si>
+  <si>
+    <t>drugid_24</t>
+  </si>
+  <si>
+    <t>drugid_25</t>
+  </si>
+  <si>
+    <t>drugid_26</t>
+  </si>
+  <si>
+    <t>drugid_27</t>
+  </si>
+  <si>
+    <t>drugid_28</t>
+  </si>
+  <si>
+    <t>drugid_29</t>
+  </si>
+  <si>
+    <t>drugid_30</t>
+  </si>
+  <si>
+    <t>drugid_31</t>
+  </si>
+  <si>
+    <t>drugid_32</t>
+  </si>
+  <si>
+    <t>drugid_33</t>
+  </si>
+  <si>
+    <t>drugid_34</t>
+  </si>
+  <si>
+    <t>drugid_35</t>
+  </si>
+  <si>
+    <t>drugid_36</t>
+  </si>
+  <si>
+    <t>drugid_37</t>
+  </si>
+  <si>
+    <t>drugid_38</t>
+  </si>
+  <si>
+    <t>drugid_39</t>
+  </si>
+  <si>
+    <t>drugid_40</t>
+  </si>
+  <si>
+    <t>drugid_41</t>
+  </si>
+  <si>
+    <t>drugid_42</t>
+  </si>
+  <si>
+    <t>drugid_43</t>
+  </si>
+  <si>
+    <t>drugid_44</t>
+  </si>
+  <si>
+    <t>drugid_45</t>
+  </si>
+  <si>
+    <t>drugid_46</t>
+  </si>
+  <si>
+    <t>drugid_47</t>
+  </si>
+  <si>
+    <t>drugid_48</t>
+  </si>
+  <si>
+    <t>drugid_49</t>
+  </si>
+  <si>
+    <t>drugid_50</t>
+  </si>
+  <si>
+    <t>ivp_a4_complete</t>
+  </si>
+  <si>
+    <t>ivp_a4</t>
+  </si>
+  <si>
+    <t>fu_anymeds</t>
+  </si>
+  <si>
+    <t>fu_drugid_1</t>
+  </si>
+  <si>
+    <t>fu_drugid_2</t>
+  </si>
+  <si>
+    <t>fu_drugid_3</t>
+  </si>
+  <si>
+    <t>fu_drugid_4</t>
+  </si>
+  <si>
+    <t>fu_drugid_5</t>
+  </si>
+  <si>
+    <t>fu_drugid_6</t>
+  </si>
+  <si>
+    <t>fu_drugid_7</t>
+  </si>
+  <si>
+    <t>fu_drugid_8</t>
+  </si>
+  <si>
+    <t>fu_drugid_9</t>
+  </si>
+  <si>
+    <t>fu_drugid_10</t>
+  </si>
+  <si>
+    <t>fu_drugid_11</t>
+  </si>
+  <si>
+    <t>fu_drugid_12</t>
+  </si>
+  <si>
+    <t>fu_drugid_13</t>
+  </si>
+  <si>
+    <t>fu_drugid_14</t>
+  </si>
+  <si>
+    <t>fu_drugid_15</t>
+  </si>
+  <si>
+    <t>fu_drugid_16</t>
+  </si>
+  <si>
+    <t>fu_drugid_17</t>
+  </si>
+  <si>
+    <t>fu_drugid_18</t>
+  </si>
+  <si>
+    <t>fu_drugid_19</t>
+  </si>
+  <si>
+    <t>fu_drugid_20</t>
+  </si>
+  <si>
+    <t>fu_drugid_21</t>
+  </si>
+  <si>
+    <t>fu_drugid_22</t>
+  </si>
+  <si>
+    <t>fu_drugid_23</t>
+  </si>
+  <si>
+    <t>fu_drugid_24</t>
+  </si>
+  <si>
+    <t>fu_drugid_25</t>
+  </si>
+  <si>
+    <t>fu_drugid_26</t>
+  </si>
+  <si>
+    <t>fu_drugid_27</t>
+  </si>
+  <si>
+    <t>fu_drugid_28</t>
+  </si>
+  <si>
+    <t>fu_drugid_29</t>
+  </si>
+  <si>
+    <t>fu_drugid_30</t>
+  </si>
+  <si>
+    <t>fu_drugid_31</t>
+  </si>
+  <si>
+    <t>fu_drugid_32</t>
+  </si>
+  <si>
+    <t>fu_drugid_33</t>
+  </si>
+  <si>
+    <t>fu_drugid_34</t>
+  </si>
+  <si>
+    <t>fu_drugid_35</t>
+  </si>
+  <si>
+    <t>fu_drugid_36</t>
+  </si>
+  <si>
+    <t>fu_drugid_37</t>
+  </si>
+  <si>
+    <t>fu_drugid_38</t>
+  </si>
+  <si>
+    <t>fu_drugid_39</t>
+  </si>
+  <si>
+    <t>fu_drugid_40</t>
+  </si>
+  <si>
+    <t>fu_drugid_41</t>
+  </si>
+  <si>
+    <t>fu_drugid_42</t>
+  </si>
+  <si>
+    <t>fu_drugid_43</t>
+  </si>
+  <si>
+    <t>fu_drugid_44</t>
+  </si>
+  <si>
+    <t>fu_drugid_45</t>
+  </si>
+  <si>
+    <t>fu_drugid_46</t>
+  </si>
+  <si>
+    <t>fu_drugid_47</t>
+  </si>
+  <si>
+    <t>fu_drugid_48</t>
+  </si>
+  <si>
+    <t>fu_drugid_49</t>
+  </si>
+  <si>
+    <t>fu_drugid_50</t>
+  </si>
+  <si>
+    <t>fvp_a4_complete</t>
+  </si>
+  <si>
+    <t>fvp_a4</t>
+  </si>
+  <si>
+    <t>tvp_anymeds</t>
+  </si>
+  <si>
+    <t>tele_drugid_1</t>
+  </si>
+  <si>
+    <t>tele_drugid_2</t>
+  </si>
+  <si>
+    <t>tele_drugid_3</t>
+  </si>
+  <si>
+    <t>tele_drugid_4</t>
+  </si>
+  <si>
+    <t>tele_drugid_5</t>
+  </si>
+  <si>
+    <t>tele_drugid_6</t>
+  </si>
+  <si>
+    <t>tele_drugid_7</t>
+  </si>
+  <si>
+    <t>tele_drugid_8</t>
+  </si>
+  <si>
+    <t>tele_drugid_9</t>
+  </si>
+  <si>
+    <t>tele_drugid_10</t>
+  </si>
+  <si>
+    <t>tele_drugid_11</t>
+  </si>
+  <si>
+    <t>tele_drugid_12</t>
+  </si>
+  <si>
+    <t>tele_drugid_13</t>
+  </si>
+  <si>
+    <t>tele_drugid_14</t>
+  </si>
+  <si>
+    <t>tele_drugid_15</t>
+  </si>
+  <si>
+    <t>tele_drugid_16</t>
+  </si>
+  <si>
+    <t>tele_drugid_17</t>
+  </si>
+  <si>
+    <t>tele_drugid_18</t>
+  </si>
+  <si>
+    <t>tele_drugid_19</t>
+  </si>
+  <si>
+    <t>tele_drugid_20</t>
+  </si>
+  <si>
+    <t>tele_drugid_21</t>
+  </si>
+  <si>
+    <t>tele_drugid_22</t>
+  </si>
+  <si>
+    <t>tele_drugid_23</t>
+  </si>
+  <si>
+    <t>tele_drugid_24</t>
+  </si>
+  <si>
+    <t>tele_drugid_25</t>
+  </si>
+  <si>
+    <t>tele_drugid_26</t>
+  </si>
+  <si>
+    <t>tele_drugid_27</t>
+  </si>
+  <si>
+    <t>tele_drugid_28</t>
+  </si>
+  <si>
+    <t>tele_drugid_29</t>
+  </si>
+  <si>
+    <t>tele_drugid_30</t>
+  </si>
+  <si>
+    <t>tele_drugid_31</t>
+  </si>
+  <si>
+    <t>tele_drugid_32</t>
+  </si>
+  <si>
+    <t>tele_drugid_33</t>
+  </si>
+  <si>
+    <t>tele_drugid_34</t>
+  </si>
+  <si>
+    <t>tele_drugid_35</t>
+  </si>
+  <si>
+    <t>tele_drugid_36</t>
+  </si>
+  <si>
+    <t>tele_drugid_37</t>
+  </si>
+  <si>
+    <t>tele_drugid_38</t>
+  </si>
+  <si>
+    <t>tele_drugid_39</t>
+  </si>
+  <si>
+    <t>tele_drugid_40</t>
+  </si>
+  <si>
+    <t>tele_drugid_41</t>
+  </si>
+  <si>
+    <t>tele_drugid_42</t>
+  </si>
+  <si>
+    <t>tele_drugid_43</t>
+  </si>
+  <si>
+    <t>tele_drugid_44</t>
+  </si>
+  <si>
+    <t>tele_drugid_45</t>
+  </si>
+  <si>
+    <t>tele_drugid_46</t>
+  </si>
+  <si>
+    <t>tele_drugid_47</t>
+  </si>
+  <si>
+    <t>tele_drugid_48</t>
+  </si>
+  <si>
+    <t>tele_drugid_49</t>
+  </si>
+  <si>
+    <t>tele_drugid_50</t>
+  </si>
+  <si>
+    <t>tvp_a4_complete</t>
+  </si>
+  <si>
+    <t>tvp_a4</t>
   </si>
 </sst>
 </file>
@@ -3332,7 +3809,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3673,11 +4160,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCC9BF6-0E02-034A-99C2-203518C15656}">
-  <dimension ref="A1:H372"/>
+  <dimension ref="A1:H424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H373" sqref="H373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12461,7 +12948,7 @@
         <v>717</v>
       </c>
       <c r="D323" t="b">
-        <f t="shared" ref="D323:D372" si="10">IF(NOT(ISBLANK(C323)),A323=REPLACE(C323,1,3,""),"")</f>
+        <f t="shared" ref="D323:D386" si="10">IF(NOT(ISBLANK(C323)),A323=REPLACE(C323,1,3,""),"")</f>
         <v>1</v>
       </c>
       <c r="E323" t="s">
@@ -12474,7 +12961,7 @@
         <v>1080</v>
       </c>
       <c r="H323" t="b">
-        <f t="shared" ref="H323:H372" si="11">IF(NOT(ISBLANK(F323)),A323=REPLACE(F323,1,5,""),"")</f>
+        <f t="shared" ref="H323:H386" si="11">IF(NOT(ISBLANK(F323)),A323=REPLACE(F323,1,5,""),"")</f>
         <v>1</v>
       </c>
     </row>
@@ -13738,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C369" t="s">
         <v>446</v>
       </c>
@@ -13760,7 +14247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C370" t="s">
         <v>459</v>
       </c>
@@ -13782,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C371" t="s">
         <v>477</v>
       </c>
@@ -13804,7 +14291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C372" t="s">
         <v>640</v>
       </c>
@@ -13826,13 +14313,1479 @@
         <v>0</v>
       </c>
     </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D373" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H373" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D374" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H374" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D375" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F375" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H375" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D376" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H376" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D377" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H377" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D378" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F378" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H378" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D379" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H379" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D380" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F380" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H380" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D381" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H381" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D382" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H382" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D383" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F383" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G383" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H383" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D384" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F384" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G384" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H384" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D385" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G385" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H385" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D386" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F386" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G386" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H386" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D387" t="b">
+        <f t="shared" ref="D387:D424" si="12">IF(NOT(ISBLANK(C387)),A387=REPLACE(C387,1,3,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H387" t="b">
+        <f t="shared" ref="H387:H424" si="13">IF(NOT(ISBLANK(F387)),A387=REPLACE(F387,1,5,""),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D388" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H388" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D389" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F389" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H389" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D390" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G390" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H390" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D391" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F391" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G391" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H391" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D392" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F392" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H392" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D393" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H393" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D394" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F394" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H394" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D395" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H395" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D396" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F396" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G396" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H396" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D397" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F397" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H397" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D398" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F398" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G398" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H398" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D399" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G399" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H399" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D400" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G400" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H400" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D401" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F401" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G401" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H401" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D402" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G402" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H402" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D403" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F403" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G403" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H403" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D404" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G404" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H404" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D405" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H405" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D406" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H406" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D407" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H407" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D408" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F408" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G408" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H408" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D409" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H409" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D410" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F410" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H410" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D411" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F411" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H411" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D412" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F412" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H412" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D413" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F413" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H413" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D414" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F414" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H414" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D415" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F415" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H415" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D416" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G416" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H416" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D417" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G417" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H417" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D418" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H418" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D419" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F419" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G419" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H419" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D420" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G420" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H420" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D421" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G421" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H421" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D422" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F422" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G422" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H422" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D423" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G423" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H423" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D424" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G424" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H424" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D1048576 E373 E376 E379 E382 E385 E388 E391 E394 E397 E400 E403 E406 E409 E412 E415 E418 E421 E424">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E374 E377 E380 E383 E386 E389 E392 E395 E398 E401 E404 E407 E410 E413 E416 E419 E422">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="E375 E378 E381 E384 E387 E390 E393 E396 E399 E402 E405 E408 E411 E414 E417 E420 E423">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>

--- a/WIP__uds3_ift_matches.xlsx
+++ b/WIP__uds3_ift_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DABCDDC-77DF-5841-9F41-BA2D3C4968E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C821789E-2B23-D944-A902-237CFA80B4D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19180" yWindow="460" windowWidth="19200" windowHeight="23540" xr2:uid="{076664BD-647D-FA4F-B94B-D41FA05C105D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="1383">
   <si>
     <t>ivp_a1</t>
   </si>
@@ -3759,6 +3759,426 @@
   </si>
   <si>
     <t>tvp_a4</t>
+  </si>
+  <si>
+    <t>tobac30</t>
+  </si>
+  <si>
+    <t>tobac100</t>
+  </si>
+  <si>
+    <t>smokyrs</t>
+  </si>
+  <si>
+    <t>packsper</t>
+  </si>
+  <si>
+    <t>quitsmok</t>
+  </si>
+  <si>
+    <t>alcoccas</t>
+  </si>
+  <si>
+    <t>alcfreq</t>
+  </si>
+  <si>
+    <t>cvhatt</t>
+  </si>
+  <si>
+    <t>hattmult</t>
+  </si>
+  <si>
+    <t>hattyear</t>
+  </si>
+  <si>
+    <t>cvafib</t>
+  </si>
+  <si>
+    <t>cvangio</t>
+  </si>
+  <si>
+    <t>cvbypass</t>
+  </si>
+  <si>
+    <t>cvpacdef</t>
+  </si>
+  <si>
+    <t>cvchf</t>
+  </si>
+  <si>
+    <t>cvangina</t>
+  </si>
+  <si>
+    <t>cvhvalve</t>
+  </si>
+  <si>
+    <t>cvothr</t>
+  </si>
+  <si>
+    <t>cvothrx</t>
+  </si>
+  <si>
+    <t>cbstroke</t>
+  </si>
+  <si>
+    <t>strokmul</t>
+  </si>
+  <si>
+    <t>strokyr</t>
+  </si>
+  <si>
+    <t>cbtia</t>
+  </si>
+  <si>
+    <t>tiamult</t>
+  </si>
+  <si>
+    <t>tiayear</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>pdyr</t>
+  </si>
+  <si>
+    <t>pdothr</t>
+  </si>
+  <si>
+    <t>pdothryr</t>
+  </si>
+  <si>
+    <t>seizures</t>
+  </si>
+  <si>
+    <t>tbi</t>
+  </si>
+  <si>
+    <t>tbibrief</t>
+  </si>
+  <si>
+    <t>tbiexten</t>
+  </si>
+  <si>
+    <t>tbiwolos</t>
+  </si>
+  <si>
+    <t>tbiyear</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>diabtype</t>
+  </si>
+  <si>
+    <t>hyperten</t>
+  </si>
+  <si>
+    <t>hypercho</t>
+  </si>
+  <si>
+    <t>b12def</t>
+  </si>
+  <si>
+    <t>thyroid</t>
+  </si>
+  <si>
+    <t>arthrit</t>
+  </si>
+  <si>
+    <t>arthtype</t>
+  </si>
+  <si>
+    <t>arthtypx</t>
+  </si>
+  <si>
+    <t>arthupex</t>
+  </si>
+  <si>
+    <t>arthloex</t>
+  </si>
+  <si>
+    <t>arthspin</t>
+  </si>
+  <si>
+    <t>arthunk</t>
+  </si>
+  <si>
+    <t>incontu</t>
+  </si>
+  <si>
+    <t>incontf</t>
+  </si>
+  <si>
+    <t>apnea</t>
+  </si>
+  <si>
+    <t>rbd</t>
+  </si>
+  <si>
+    <t>insomn</t>
+  </si>
+  <si>
+    <t>othsleep</t>
+  </si>
+  <si>
+    <t>othsleex</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>abusothr</t>
+  </si>
+  <si>
+    <t>abusx</t>
+  </si>
+  <si>
+    <t>ptsd</t>
+  </si>
+  <si>
+    <t>bipolar</t>
+  </si>
+  <si>
+    <t>schiz</t>
+  </si>
+  <si>
+    <t>dep2yrs</t>
+  </si>
+  <si>
+    <t>depothr</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>ocd</t>
+  </si>
+  <si>
+    <t>npsydev</t>
+  </si>
+  <si>
+    <t>psycdis</t>
+  </si>
+  <si>
+    <t>psycdisx</t>
+  </si>
+  <si>
+    <t>ivp_a5_complete</t>
+  </si>
+  <si>
+    <t>ivp_a5</t>
+  </si>
+  <si>
+    <t>fu_tobac30</t>
+  </si>
+  <si>
+    <t>fu_tobac100</t>
+  </si>
+  <si>
+    <t>fu_smokyrs</t>
+  </si>
+  <si>
+    <t>fu_packsper</t>
+  </si>
+  <si>
+    <t>fu_quitsmok</t>
+  </si>
+  <si>
+    <t>fu_alcoccas</t>
+  </si>
+  <si>
+    <t>fu_alcfreq</t>
+  </si>
+  <si>
+    <t>fu_cvhatt</t>
+  </si>
+  <si>
+    <t>fu_hattmult</t>
+  </si>
+  <si>
+    <t>fu_hattyear</t>
+  </si>
+  <si>
+    <t>fu_cvafib</t>
+  </si>
+  <si>
+    <t>fu_cvangio</t>
+  </si>
+  <si>
+    <t>fu_cvbypass</t>
+  </si>
+  <si>
+    <t>fu_cvpacdef</t>
+  </si>
+  <si>
+    <t>fu_cvchf</t>
+  </si>
+  <si>
+    <t>fu_cvangina</t>
+  </si>
+  <si>
+    <t>fu_cvhvalve</t>
+  </si>
+  <si>
+    <t>fu_cvothr</t>
+  </si>
+  <si>
+    <t>fu_cvothrx</t>
+  </si>
+  <si>
+    <t>fu_cbstroke</t>
+  </si>
+  <si>
+    <t>fu_strokmul</t>
+  </si>
+  <si>
+    <t>fu_strokyr</t>
+  </si>
+  <si>
+    <t>fu_cbtia</t>
+  </si>
+  <si>
+    <t>fu_tiamult</t>
+  </si>
+  <si>
+    <t>fu_tiayear</t>
+  </si>
+  <si>
+    <t>fu_pd</t>
+  </si>
+  <si>
+    <t>fu_pdyr</t>
+  </si>
+  <si>
+    <t>fu_pdothr</t>
+  </si>
+  <si>
+    <t>fu_pdothryr</t>
+  </si>
+  <si>
+    <t>fu_seizures</t>
+  </si>
+  <si>
+    <t>fu_tbi</t>
+  </si>
+  <si>
+    <t>fu_tbibrief</t>
+  </si>
+  <si>
+    <t>fu_tbiexten</t>
+  </si>
+  <si>
+    <t>fu_tbiwolos</t>
+  </si>
+  <si>
+    <t>fu_tbiyear</t>
+  </si>
+  <si>
+    <t>fu_diabetes</t>
+  </si>
+  <si>
+    <t>fu_diabtype</t>
+  </si>
+  <si>
+    <t>fu_hyperten</t>
+  </si>
+  <si>
+    <t>fu_hypercho</t>
+  </si>
+  <si>
+    <t>fu_b12def</t>
+  </si>
+  <si>
+    <t>fu_thyroid</t>
+  </si>
+  <si>
+    <t>fu_arthrit</t>
+  </si>
+  <si>
+    <t>fu_arthtype</t>
+  </si>
+  <si>
+    <t>fu_arthtypx</t>
+  </si>
+  <si>
+    <t>fu_arthupex</t>
+  </si>
+  <si>
+    <t>fu_arthloex</t>
+  </si>
+  <si>
+    <t>fu_arthspin</t>
+  </si>
+  <si>
+    <t>fu_arthunk</t>
+  </si>
+  <si>
+    <t>fu_incontu</t>
+  </si>
+  <si>
+    <t>fu_incontf</t>
+  </si>
+  <si>
+    <t>fu_apnea</t>
+  </si>
+  <si>
+    <t>fu_rbd</t>
+  </si>
+  <si>
+    <t>fu_insomn</t>
+  </si>
+  <si>
+    <t>fu_othsleep</t>
+  </si>
+  <si>
+    <t>fu_othsleex</t>
+  </si>
+  <si>
+    <t>fu_alcohol</t>
+  </si>
+  <si>
+    <t>fu_abusothr</t>
+  </si>
+  <si>
+    <t>fu_abusx</t>
+  </si>
+  <si>
+    <t>fu_ptsd</t>
+  </si>
+  <si>
+    <t>fu_bipolar</t>
+  </si>
+  <si>
+    <t>fu_schiz</t>
+  </si>
+  <si>
+    <t>fu_dep2yrs</t>
+  </si>
+  <si>
+    <t>fu_depothr</t>
+  </si>
+  <si>
+    <t>fu_anxiety</t>
+  </si>
+  <si>
+    <t>fu_ocd</t>
+  </si>
+  <si>
+    <t>fu_npsydev</t>
+  </si>
+  <si>
+    <t>fu_psycdis</t>
+  </si>
+  <si>
+    <t>fu_psycdisx</t>
+  </si>
+  <si>
+    <t>fvp_a5_complete</t>
+  </si>
+  <si>
+    <t>fvp_a5</t>
   </si>
 </sst>
 </file>
@@ -3809,7 +4229,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4160,11 +4600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCC9BF6-0E02-034A-99C2-203518C15656}">
-  <dimension ref="A1:H424"/>
+  <dimension ref="A1:H493"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H373" sqref="H373"/>
+      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F432" sqref="F432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14716,7 +15156,7 @@
         <v>1151</v>
       </c>
       <c r="D387" t="b">
-        <f t="shared" ref="D387:D424" si="12">IF(NOT(ISBLANK(C387)),A387=REPLACE(C387,1,3,""),"")</f>
+        <f t="shared" ref="D387:D450" si="12">IF(NOT(ISBLANK(C387)),A387=REPLACE(C387,1,3,""),"")</f>
         <v>1</v>
       </c>
       <c r="E387" t="s">
@@ -15769,23 +16209,1275 @@
         <v>0</v>
       </c>
     </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D425" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D426" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D427" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D428" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D429" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D430" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D431" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D432" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D433" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D434" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D435" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D436" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D437" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D438" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D439" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D440" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D441" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D442" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D443" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D444" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D445" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D446" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D447" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D448" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D449" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D450" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D451" t="b">
+        <f t="shared" ref="D451:D493" si="14">IF(NOT(ISBLANK(C451)),A451=REPLACE(C451,1,3,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D452" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D453" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D454" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D455" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D456" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D457" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D458" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D459" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D460" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D461" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D462" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E462" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D463" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D464" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E464" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D465" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D466" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E466" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D467" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D468" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D469" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E469" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D470" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E470" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D471" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E471" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D472" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E472" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D473" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E473" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D474" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D475" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D476" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D477" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D478" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D479" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D480" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D481" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D482" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D483" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D484" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D485" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D486" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D487" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D488" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D489" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D490" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D491" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D492" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D493" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1382</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576 E373 E376 E379 E382 E385 E388 E391 E394 E397 E400 E403 E406 E409 E412 E415 E418 E421 E424">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="E373 E376 E379 E382 E385 E388 E391 E394 E397 E400 E403 E406 E409 E412 E415 E418 E421 D1:D1048576 E424:E425 E428 E431 E434 E437 E440 E443 E446 E449 E452 E455 E458 E461 E464 E467 E470 E473 E476 E479 E482 E485 E488 E491">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E374 E377 E380 E383 E386 E389 E392 E395 E398 E401 E404 E407 E410 E413 E416 E419 E422">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E375 E378 E381 E384 E387 E390 E393 E396 E399 E402 E405 E408 E411 E414 E417 E420 E423">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E426 E429 E432 E435 E438 E441 E444 E447 E450 E453 E456 E459 E462 E465 E468 E471 E474 E477 E480 E483 E486 E489 E492">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E375 E378 E381 E384 E387 E390 E393 E396 E399 E402 E405 E408 E411 E414 E417 E420 E423">
+  <conditionalFormatting sqref="E427 E430 E433 E436 E439 E442 E445 E448 E451 E454 E457 E460 E463 E466 E469 E472 E475 E478 E481 E484 E487 E490 E493">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>

--- a/WIP__uds3_ift_matches.xlsx
+++ b/WIP__uds3_ift_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C821789E-2B23-D944-A902-237CFA80B4D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CF58A2-B072-964A-B047-163C2F52C74E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19180" yWindow="460" windowWidth="19200" windowHeight="23540" xr2:uid="{076664BD-647D-FA4F-B94B-D41FA05C105D}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="12800" windowHeight="24000" xr2:uid="{076664BD-647D-FA4F-B94B-D41FA05C105D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="1445">
   <si>
     <t>ivp_a1</t>
   </si>
@@ -4179,6 +4179,192 @@
   </si>
   <si>
     <t>fvp_a5</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>ivp_b1</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>bpsys</t>
+  </si>
+  <si>
+    <t>bpdias</t>
+  </si>
+  <si>
+    <t>hrate</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>viscorr</t>
+  </si>
+  <si>
+    <t>viswcorr</t>
+  </si>
+  <si>
+    <t>hearing</t>
+  </si>
+  <si>
+    <t>hearaid</t>
+  </si>
+  <si>
+    <t>hearwaid</t>
+  </si>
+  <si>
+    <t>ivp_b1_complete</t>
+  </si>
+  <si>
+    <t>fu_height</t>
+  </si>
+  <si>
+    <t>fu_weight</t>
+  </si>
+  <si>
+    <t>fu_bpsys</t>
+  </si>
+  <si>
+    <t>fu_bpdias</t>
+  </si>
+  <si>
+    <t>fu_hrate</t>
+  </si>
+  <si>
+    <t>fu_vision</t>
+  </si>
+  <si>
+    <t>fu_viscorr</t>
+  </si>
+  <si>
+    <t>fu_viswcorr</t>
+  </si>
+  <si>
+    <t>fu_hearing</t>
+  </si>
+  <si>
+    <t>fu_hearaid</t>
+  </si>
+  <si>
+    <t>fu_hearwaid</t>
+  </si>
+  <si>
+    <t>fvp_b1_complete</t>
+  </si>
+  <si>
+    <t>fvp_b1</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>ivp_b4</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>judgment</t>
+  </si>
+  <si>
+    <t>commun</t>
+  </si>
+  <si>
+    <t>homehobb</t>
+  </si>
+  <si>
+    <t>perscare</t>
+  </si>
+  <si>
+    <t>cdrsum</t>
+  </si>
+  <si>
+    <t>cdrglob</t>
+  </si>
+  <si>
+    <t>comport</t>
+  </si>
+  <si>
+    <t>cdrlang</t>
+  </si>
+  <si>
+    <t>ivp_b4_complete</t>
+  </si>
+  <si>
+    <t>fu_memory</t>
+  </si>
+  <si>
+    <t>fu_orient</t>
+  </si>
+  <si>
+    <t>fu_judgment</t>
+  </si>
+  <si>
+    <t>fu_commun</t>
+  </si>
+  <si>
+    <t>fu_homehobb</t>
+  </si>
+  <si>
+    <t>fu_perscare</t>
+  </si>
+  <si>
+    <t>fu_cdrsum</t>
+  </si>
+  <si>
+    <t>fu_cdrglob</t>
+  </si>
+  <si>
+    <t>fu_comport</t>
+  </si>
+  <si>
+    <t>fu_cdrlang</t>
+  </si>
+  <si>
+    <t>fvp_b4_complete</t>
+  </si>
+  <si>
+    <t>fvp_b4</t>
+  </si>
+  <si>
+    <t>tele_memory</t>
+  </si>
+  <si>
+    <t>tele_orient</t>
+  </si>
+  <si>
+    <t>tele_judgment</t>
+  </si>
+  <si>
+    <t>tele_commun</t>
+  </si>
+  <si>
+    <t>tele_homehobb</t>
+  </si>
+  <si>
+    <t>tele_perscare</t>
+  </si>
+  <si>
+    <t>tele_cdrsum</t>
+  </si>
+  <si>
+    <t>tele_cdrglob</t>
+  </si>
+  <si>
+    <t>tele_comport</t>
+  </si>
+  <si>
+    <t>tele_cdrlang</t>
+  </si>
+  <si>
+    <t>tvp_b4_complete</t>
+  </si>
+  <si>
+    <t>tvp_b4</t>
   </si>
 </sst>
 </file>
@@ -4229,7 +4415,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4600,11 +4826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCC9BF6-0E02-034A-99C2-203518C15656}">
-  <dimension ref="A1:H493"/>
+  <dimension ref="A1:H516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F432" sqref="F432"/>
+      <pane ySplit="1" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A516" sqref="A516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15169,7 +15395,7 @@
         <v>1242</v>
       </c>
       <c r="H387" t="b">
-        <f t="shared" ref="H387:H424" si="13">IF(NOT(ISBLANK(F387)),A387=REPLACE(F387,1,5,""),"")</f>
+        <f t="shared" ref="H387:H450" si="13">IF(NOT(ISBLANK(F387)),A387=REPLACE(F387,1,5,""),"")</f>
         <v>1</v>
       </c>
     </row>
@@ -16226,6 +16452,10 @@
       <c r="E425" t="s">
         <v>1382</v>
       </c>
+      <c r="H425" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
@@ -16244,6 +16474,10 @@
       <c r="E426" t="s">
         <v>1382</v>
       </c>
+      <c r="H426" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
@@ -16262,6 +16496,10 @@
       <c r="E427" t="s">
         <v>1382</v>
       </c>
+      <c r="H427" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
@@ -16280,6 +16518,10 @@
       <c r="E428" t="s">
         <v>1382</v>
       </c>
+      <c r="H428" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
@@ -16298,6 +16540,10 @@
       <c r="E429" t="s">
         <v>1382</v>
       </c>
+      <c r="H429" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
@@ -16316,6 +16562,10 @@
       <c r="E430" t="s">
         <v>1382</v>
       </c>
+      <c r="H430" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
@@ -16334,6 +16584,10 @@
       <c r="E431" t="s">
         <v>1382</v>
       </c>
+      <c r="H431" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
@@ -16352,8 +16606,12 @@
       <c r="E432" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H432" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1251</v>
       </c>
@@ -16370,8 +16628,12 @@
       <c r="E433" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H433" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1252</v>
       </c>
@@ -16388,8 +16650,12 @@
       <c r="E434" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H434" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1253</v>
       </c>
@@ -16406,8 +16672,12 @@
       <c r="E435" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H435" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1254</v>
       </c>
@@ -16424,8 +16694,12 @@
       <c r="E436" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H436" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1255</v>
       </c>
@@ -16442,8 +16716,12 @@
       <c r="E437" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H437" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1256</v>
       </c>
@@ -16460,8 +16738,12 @@
       <c r="E438" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H438" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1257</v>
       </c>
@@ -16478,8 +16760,12 @@
       <c r="E439" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H439" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1258</v>
       </c>
@@ -16496,8 +16782,12 @@
       <c r="E440" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H440" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1259</v>
       </c>
@@ -16514,8 +16804,12 @@
       <c r="E441" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H441" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1260</v>
       </c>
@@ -16532,8 +16826,12 @@
       <c r="E442" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H442" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1261</v>
       </c>
@@ -16550,8 +16848,12 @@
       <c r="E443" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H443" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1262</v>
       </c>
@@ -16568,8 +16870,12 @@
       <c r="E444" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H444" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1263</v>
       </c>
@@ -16586,8 +16892,12 @@
       <c r="E445" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H445" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1264</v>
       </c>
@@ -16604,8 +16914,12 @@
       <c r="E446" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H446" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1265</v>
       </c>
@@ -16622,8 +16936,12 @@
       <c r="E447" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H447" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1266</v>
       </c>
@@ -16640,8 +16958,12 @@
       <c r="E448" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H448" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1267</v>
       </c>
@@ -16658,8 +16980,12 @@
       <c r="E449" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H449" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1268</v>
       </c>
@@ -16676,8 +17002,12 @@
       <c r="E450" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H450" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1269</v>
       </c>
@@ -16688,14 +17018,18 @@
         <v>1339</v>
       </c>
       <c r="D451" t="b">
-        <f t="shared" ref="D451:D493" si="14">IF(NOT(ISBLANK(C451)),A451=REPLACE(C451,1,3,""),"")</f>
+        <f t="shared" ref="D451:D514" si="14">IF(NOT(ISBLANK(C451)),A451=REPLACE(C451,1,3,""),"")</f>
         <v>1</v>
       </c>
       <c r="E451" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H451" t="str">
+        <f t="shared" ref="H451:H514" si="15">IF(NOT(ISBLANK(F451)),A451=REPLACE(F451,1,5,""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1270</v>
       </c>
@@ -16712,8 +17046,12 @@
       <c r="E452" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H452" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1271</v>
       </c>
@@ -16730,8 +17068,12 @@
       <c r="E453" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H453" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1272</v>
       </c>
@@ -16748,8 +17090,12 @@
       <c r="E454" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H454" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1273</v>
       </c>
@@ -16766,8 +17112,12 @@
       <c r="E455" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H455" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1274</v>
       </c>
@@ -16784,8 +17134,12 @@
       <c r="E456" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H456" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1275</v>
       </c>
@@ -16802,8 +17156,12 @@
       <c r="E457" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H457" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1276</v>
       </c>
@@ -16820,8 +17178,12 @@
       <c r="E458" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H458" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1277</v>
       </c>
@@ -16838,8 +17200,12 @@
       <c r="E459" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H459" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1278</v>
       </c>
@@ -16856,8 +17222,12 @@
       <c r="E460" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H460" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1279</v>
       </c>
@@ -16874,8 +17244,12 @@
       <c r="E461" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H461" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1280</v>
       </c>
@@ -16892,8 +17266,12 @@
       <c r="E462" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H462" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1281</v>
       </c>
@@ -16910,8 +17288,12 @@
       <c r="E463" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H463" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1282</v>
       </c>
@@ -16928,8 +17310,12 @@
       <c r="E464" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H464" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1283</v>
       </c>
@@ -16946,8 +17332,12 @@
       <c r="E465" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H465" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1284</v>
       </c>
@@ -16964,8 +17354,12 @@
       <c r="E466" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H466" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1285</v>
       </c>
@@ -16982,8 +17376,12 @@
       <c r="E467" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H467" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1286</v>
       </c>
@@ -17000,8 +17398,12 @@
       <c r="E468" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H468" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1287</v>
       </c>
@@ -17018,8 +17420,12 @@
       <c r="E469" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H469" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1288</v>
       </c>
@@ -17036,8 +17442,12 @@
       <c r="E470" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H470" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1289</v>
       </c>
@@ -17054,8 +17464,12 @@
       <c r="E471" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H471" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1290</v>
       </c>
@@ -17072,8 +17486,12 @@
       <c r="E472" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H472" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>1291</v>
       </c>
@@ -17090,8 +17508,12 @@
       <c r="E473" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H473" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>1292</v>
       </c>
@@ -17108,8 +17530,12 @@
       <c r="E474" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H474" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>1293</v>
       </c>
@@ -17126,8 +17552,12 @@
       <c r="E475" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H475" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1294</v>
       </c>
@@ -17144,8 +17574,12 @@
       <c r="E476" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H476" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>1295</v>
       </c>
@@ -17162,8 +17596,12 @@
       <c r="E477" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H477" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>1296</v>
       </c>
@@ -17180,8 +17618,12 @@
       <c r="E478" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H478" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>1297</v>
       </c>
@@ -17198,8 +17640,12 @@
       <c r="E479" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H479" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>1298</v>
       </c>
@@ -17216,8 +17662,12 @@
       <c r="E480" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H480" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>1299</v>
       </c>
@@ -17234,8 +17684,12 @@
       <c r="E481" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H481" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1300</v>
       </c>
@@ -17252,8 +17706,12 @@
       <c r="E482" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H482" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1301</v>
       </c>
@@ -17270,8 +17728,12 @@
       <c r="E483" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H483" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>1302</v>
       </c>
@@ -17288,8 +17750,12 @@
       <c r="E484" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H484" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>1303</v>
       </c>
@@ -17306,8 +17772,12 @@
       <c r="E485" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H485" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1304</v>
       </c>
@@ -17324,8 +17794,12 @@
       <c r="E486" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H486" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1305</v>
       </c>
@@ -17342,8 +17816,12 @@
       <c r="E487" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H487" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>1306</v>
       </c>
@@ -17360,8 +17838,12 @@
       <c r="E488" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H488" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>1307</v>
       </c>
@@ -17378,8 +17860,12 @@
       <c r="E489" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H489" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1308</v>
       </c>
@@ -17396,8 +17882,12 @@
       <c r="E490" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H490" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>1309</v>
       </c>
@@ -17414,8 +17904,12 @@
       <c r="E491" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H491" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>1310</v>
       </c>
@@ -17432,8 +17926,12 @@
       <c r="E492" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H492" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>1311</v>
       </c>
@@ -17450,34 +17948,630 @@
       <c r="E493" t="s">
         <v>1382</v>
       </c>
+      <c r="H493" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D494" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H494" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D495" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H495" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D496" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H496" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D497" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H497" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D498" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H498" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D499" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H499" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D500" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H500" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D501" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H501" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D502" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H502" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D503" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H503" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D504" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H504" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D505" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H505" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D506" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F506" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G506" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H506" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D507" t="b">
+        <f>IF(NOT(ISBLANK(C507)),A507=REPLACE(C507,1,3,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F507" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G507" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H507" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D508" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G508" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H508" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D509" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G509" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H509" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D510" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G510" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H510" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D511" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G511" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H511" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D512" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G512" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H512" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D513" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F513" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G513" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H513" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D514" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G514" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H514" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D515" t="b">
+        <f t="shared" ref="D515:D516" si="16">IF(NOT(ISBLANK(C515)),A515=REPLACE(C515,1,3,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F515" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G515" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H515" t="b">
+        <f t="shared" ref="H515:H516" si="17">IF(NOT(ISBLANK(F515)),A515=REPLACE(F515,1,5,""),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D516" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G516" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H516" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E373 E376 E379 E382 E385 E388 E391 E394 E397 E400 E403 E406 E409 E412 E415 E418 E421 D1:D1048576 E424:E425 E428 E431 E434 E437 E440 E443 E446 E449 E452 E455 E458 E461 E464 E467 E470 E473 E476 E479 E482 E485 E488 E491">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+  <conditionalFormatting sqref="E373 E376 E379 E382 E385 E388 E391 E394 E397 E400 E403 E406 E409 E412 E415 E418 E421 E424:E425 E428 E431 E434 E437 E440 E443 E446 E449 E452 E455 E458 E461 E464 E467 E470 E473 E476 E479 E482 E485 E488 E491 E494 E497 E500 E503 D1:D1048576 E506 E510 E514 H1:H1048576">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="E374 E377 E380 E383 E386 E389 E392 E395 E398 E401 E404 E407 E410 E413 E416 E419 E422">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E375 E378 E381 E384 E387 E390 E393 E396 E399 E402 E405 E408 E411 E414 E417 E420 E423">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E426 E429 E432 E435 E438 E441 E444 E447 E450 E453 E456 E459 E462 E465 E468 E471 E474 E477 E480 E483 E486 E489 E492">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E427 E430 E433 E436 E439 E442 E445 E448 E451 E454 E457 E460 E463 E466 E469 E472 E475 E478 E481 E484 E487 E490 E493">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E495 E498 E501 E504">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E374 E377 E380 E383 E386 E389 E392 E395 E398 E401 E404 E407 E410 E413 E416 E419 E422">
+  <conditionalFormatting sqref="E496 E499 E502 E505">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E375 E378 E381 E384 E387 E390 E393 E396 E399 E402 E405 E408 E411 E414 E417 E420 E423">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="E507 E511 E515">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E426 E429 E432 E435 E438 E441 E444 E447 E450 E453 E456 E459 E462 E465 E468 E471 E474 E477 E480 E483 E486 E489 E492">
+  <conditionalFormatting sqref="E508 E512 E516">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E427 E430 E433 E436 E439 E442 E445 E448 E451 E454 E457 E460 E463 E466 E469 E472 E475 E478 E481 E484 E487 E490 E493">
+  <conditionalFormatting sqref="E509 E513">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>

--- a/WIP__uds3_ift_matches.xlsx
+++ b/WIP__uds3_ift_matches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CF58A2-B072-964A-B047-163C2F52C74E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7BCBD-F3B8-BE4A-A34B-8264426EA158}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="12800" windowHeight="24000" xr2:uid="{076664BD-647D-FA4F-B94B-D41FA05C105D}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="25600" windowHeight="24000" xr2:uid="{076664BD-647D-FA4F-B94B-D41FA05C105D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="1569">
   <si>
     <t>ivp_a1</t>
   </si>
@@ -4365,6 +4365,378 @@
   </si>
   <si>
     <t>tvp_b4</t>
+  </si>
+  <si>
+    <t>npiqinf</t>
+  </si>
+  <si>
+    <t>ivp_b5</t>
+  </si>
+  <si>
+    <t>npiqinfx</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>delsev</t>
+  </si>
+  <si>
+    <t>hall</t>
+  </si>
+  <si>
+    <t>hallsev</t>
+  </si>
+  <si>
+    <t>agit</t>
+  </si>
+  <si>
+    <t>agitsev</t>
+  </si>
+  <si>
+    <t>depd</t>
+  </si>
+  <si>
+    <t>depdsev</t>
+  </si>
+  <si>
+    <t>anx</t>
+  </si>
+  <si>
+    <t>anxsev</t>
+  </si>
+  <si>
+    <t>elat</t>
+  </si>
+  <si>
+    <t>elatsev</t>
+  </si>
+  <si>
+    <t>apa</t>
+  </si>
+  <si>
+    <t>apasev</t>
+  </si>
+  <si>
+    <t>disn</t>
+  </si>
+  <si>
+    <t>disnsev</t>
+  </si>
+  <si>
+    <t>irr</t>
+  </si>
+  <si>
+    <t>irrsev</t>
+  </si>
+  <si>
+    <t>mot</t>
+  </si>
+  <si>
+    <t>motsev</t>
+  </si>
+  <si>
+    <t>nite</t>
+  </si>
+  <si>
+    <t>nitesev</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>appsev</t>
+  </si>
+  <si>
+    <t>ivp_b5_complete</t>
+  </si>
+  <si>
+    <t>npiq_score</t>
+  </si>
+  <si>
+    <t>ivp_b6</t>
+  </si>
+  <si>
+    <t>fu_npiqinf</t>
+  </si>
+  <si>
+    <t>fu_npiqinfx</t>
+  </si>
+  <si>
+    <t>fu_del</t>
+  </si>
+  <si>
+    <t>fu_delsev</t>
+  </si>
+  <si>
+    <t>fu_hall</t>
+  </si>
+  <si>
+    <t>fu_hallsev</t>
+  </si>
+  <si>
+    <t>fu_agit</t>
+  </si>
+  <si>
+    <t>fu_agitsev</t>
+  </si>
+  <si>
+    <t>fu_depd</t>
+  </si>
+  <si>
+    <t>fu_depdsev</t>
+  </si>
+  <si>
+    <t>fu_anx</t>
+  </si>
+  <si>
+    <t>fu_anxsev</t>
+  </si>
+  <si>
+    <t>fu_elat</t>
+  </si>
+  <si>
+    <t>fu_elatsev</t>
+  </si>
+  <si>
+    <t>fu_apa</t>
+  </si>
+  <si>
+    <t>fu_apasev</t>
+  </si>
+  <si>
+    <t>fu_disn</t>
+  </si>
+  <si>
+    <t>fu_disnsev</t>
+  </si>
+  <si>
+    <t>fu_irr</t>
+  </si>
+  <si>
+    <t>fu_irrsev</t>
+  </si>
+  <si>
+    <t>fu_mot</t>
+  </si>
+  <si>
+    <t>fu_motsev</t>
+  </si>
+  <si>
+    <t>fu_nite</t>
+  </si>
+  <si>
+    <t>fu_nitesev</t>
+  </si>
+  <si>
+    <t>fu_app</t>
+  </si>
+  <si>
+    <t>fu_appsev</t>
+  </si>
+  <si>
+    <t>fu_npiq_score</t>
+  </si>
+  <si>
+    <t>fvp_b5_complete</t>
+  </si>
+  <si>
+    <t>fvp_b5</t>
+  </si>
+  <si>
+    <t>tele_npiqinfx</t>
+  </si>
+  <si>
+    <t>tele_del</t>
+  </si>
+  <si>
+    <t>tele_delsev</t>
+  </si>
+  <si>
+    <t>tele_hall</t>
+  </si>
+  <si>
+    <t>tele_hallsev</t>
+  </si>
+  <si>
+    <t>tele_agit</t>
+  </si>
+  <si>
+    <t>tele_agitsev</t>
+  </si>
+  <si>
+    <t>tele_depd</t>
+  </si>
+  <si>
+    <t>tele_depdsev</t>
+  </si>
+  <si>
+    <t>tele_anx</t>
+  </si>
+  <si>
+    <t>tele_anxsev</t>
+  </si>
+  <si>
+    <t>tele_elat</t>
+  </si>
+  <si>
+    <t>tele_elatsev</t>
+  </si>
+  <si>
+    <t>tele_apa</t>
+  </si>
+  <si>
+    <t>tele_apasev</t>
+  </si>
+  <si>
+    <t>tele_disn</t>
+  </si>
+  <si>
+    <t>tele_disnsev</t>
+  </si>
+  <si>
+    <t>tele_irr</t>
+  </si>
+  <si>
+    <t>tele_irrsev</t>
+  </si>
+  <si>
+    <t>tele_mot</t>
+  </si>
+  <si>
+    <t>tele_motsev</t>
+  </si>
+  <si>
+    <t>tele_nite</t>
+  </si>
+  <si>
+    <t>tele_nitesev</t>
+  </si>
+  <si>
+    <t>tele_app</t>
+  </si>
+  <si>
+    <t>tele_appsev</t>
+  </si>
+  <si>
+    <t>tvp_b5_complete</t>
+  </si>
+  <si>
+    <t>tele_npiqinf</t>
+  </si>
+  <si>
+    <t>tvp_b5</t>
+  </si>
+  <si>
+    <t>nogds</t>
+  </si>
+  <si>
+    <t>satis</t>
+  </si>
+  <si>
+    <t>dropact</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>bored</t>
+  </si>
+  <si>
+    <t>spirits</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>helpless</t>
+  </si>
+  <si>
+    <t>stayhome</t>
+  </si>
+  <si>
+    <t>memprob</t>
+  </si>
+  <si>
+    <t>wondrful</t>
+  </si>
+  <si>
+    <t>wrthless</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hopeless</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gds</t>
+  </si>
+  <si>
+    <t>ivp_b6_complete</t>
+  </si>
+  <si>
+    <t>fu_nogds</t>
+  </si>
+  <si>
+    <t>fu_satis</t>
+  </si>
+  <si>
+    <t>fu_dropact</t>
+  </si>
+  <si>
+    <t>fu_empty</t>
+  </si>
+  <si>
+    <t>fu_bored</t>
+  </si>
+  <si>
+    <t>fu_spirits</t>
+  </si>
+  <si>
+    <t>fu_afraid</t>
+  </si>
+  <si>
+    <t>fu_happy</t>
+  </si>
+  <si>
+    <t>fu_helpless</t>
+  </si>
+  <si>
+    <t>fu_stayhome</t>
+  </si>
+  <si>
+    <t>fu_memprob</t>
+  </si>
+  <si>
+    <t>fu_wondrful</t>
+  </si>
+  <si>
+    <t>fu_wrthless</t>
+  </si>
+  <si>
+    <t>fu_energy</t>
+  </si>
+  <si>
+    <t>fu_hopeless</t>
+  </si>
+  <si>
+    <t>fu_better</t>
+  </si>
+  <si>
+    <t>fu_gds</t>
+  </si>
+  <si>
+    <t>fvp_b6_complete</t>
+  </si>
+  <si>
+    <t>fvp_b6</t>
   </si>
 </sst>
 </file>
@@ -4415,7 +4787,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4826,11 +5218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCC9BF6-0E02-034A-99C2-203518C15656}">
-  <dimension ref="A1:H516"/>
+  <dimension ref="A1:H562"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A516" sqref="A516"/>
+      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F558" sqref="F558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18480,7 +18872,7 @@
         <v>1430</v>
       </c>
       <c r="D515" t="b">
-        <f t="shared" ref="D515:D516" si="16">IF(NOT(ISBLANK(C515)),A515=REPLACE(C515,1,3,""),"")</f>
+        <f t="shared" ref="D515:D562" si="16">IF(NOT(ISBLANK(C515)),A515=REPLACE(C515,1,3,""),"")</f>
         <v>1</v>
       </c>
       <c r="E515" t="s">
@@ -18493,7 +18885,7 @@
         <v>1444</v>
       </c>
       <c r="H515" t="b">
-        <f t="shared" ref="H515:H516" si="17">IF(NOT(ISBLANK(F515)),A515=REPLACE(F515,1,5,""),"")</f>
+        <f t="shared" ref="H515:H562" si="17">IF(NOT(ISBLANK(F515)),A515=REPLACE(F515,1,5,""),"")</f>
         <v>1</v>
       </c>
     </row>
@@ -18525,53 +18917,1240 @@
         <v>0</v>
       </c>
     </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D517" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G517" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H517" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D518" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H518" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D519" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G519" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H519" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D520" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G520" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H520" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D521" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E521" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F521" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G521" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H521" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D522" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G522" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H522" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D523" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E523" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G523" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H523" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D524" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G524" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H524" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D525" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G525" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H525" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D526" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E526" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G526" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H526" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D527" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G527" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H527" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D528" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G528" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H528" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D529" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G529" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H529" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D530" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G530" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H530" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D531" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G531" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H531" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D532" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G532" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H532" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D533" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G533" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H533" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D534" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G534" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H534" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D535" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G535" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H535" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D536" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G536" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H536" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D537" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H537" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D538" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G538" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H538" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D539" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G539" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H539" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D540" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F540" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G540" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H540" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D541" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E541" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F541" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G541" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H541" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D542" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E542" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F542" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G542" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H542" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D543" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G543" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H543" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D544" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G544" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H544" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D545" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H545" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D546" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H546" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D547" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H547" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D548" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H548" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D549" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H549" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D550" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H550" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D551" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H551" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D552" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H552" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D553" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H553" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D554" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H554" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D555" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E555" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H555" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D556" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E556" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H556" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D557" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H557" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D558" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E558" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H558" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D559" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E559" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H559" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D560" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E560" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H560" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D561" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E561" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H561" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D562" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E562" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H562" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E373 E376 E379 E382 E385 E388 E391 E394 E397 E400 E403 E406 E409 E412 E415 E418 E421 E424:E425 E428 E431 E434 E437 E440 E443 E446 E449 E452 E455 E458 E461 E464 E467 E470 E473 E476 E479 E482 E485 E488 E491 E494 E497 E500 E503 D1:D1048576 E506 E510 E514 H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+  <conditionalFormatting sqref="E373 E376 E379 E382 E385 E388 E391 E394 E397 E400 E403 E406 E409 E412 E415 E418 E421 E424:E425 E428 E431 E434 E437 E440 E443 E446 E449 E452 E455 E458 E461 E464 E467 E470 E473 E476 E479 E482 E485 E488 E491 E494 E497 E500 E503 E506 E510 E514 E517 E520 E523 E526 E529 E532 E535 E538 E541 E544 D1:D1048576 H1:H1048576">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E374 E377 E380 E383 E386 E389 E392 E395 E398 E401 E404 E407 E410 E413 E416 E419 E422">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E375 E378 E381 E384 E387 E390 E393 E396 E399 E402 E405 E408 E411 E414 E417 E420 E423">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E426 E429 E432 E435 E438 E441 E444 E447 E450 E453 E456 E459 E462 E465 E468 E471 E474 E477 E480 E483 E486 E489 E492">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E427 E430 E433 E436 E439 E442 E445 E448 E451 E454 E457 E460 E463 E466 E469 E472 E475 E478 E481 E484 E487 E490 E493">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E495 E498 E501 E504">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E496 E499 E502 E505">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E507 E511 E515">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E508 E512 E516">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E509 E513">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E508 E512 E516">
+  <conditionalFormatting sqref="E518 E521 E524 E527 E530 E533 E536 E539 E542">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E509 E513">
+  <conditionalFormatting sqref="E519 E522 E525 E528 E531 E534 E537 E540 E543">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>

--- a/WIP__uds3_ift_matches.xlsx
+++ b/WIP__uds3_ift_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7BCBD-F3B8-BE4A-A34B-8264426EA158}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC7F76F-B263-BC4F-9677-58B8D62A0645}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="0" windowWidth="25600" windowHeight="24000" xr2:uid="{076664BD-647D-FA4F-B94B-D41FA05C105D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="1697">
   <si>
     <t>ivp_a1</t>
   </si>
@@ -4737,6 +4737,390 @@
   </si>
   <si>
     <t>fvp_b6</t>
+  </si>
+  <si>
+    <t>bills</t>
+  </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>stove</t>
+  </si>
+  <si>
+    <t>mealprep</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>payattn</t>
+  </si>
+  <si>
+    <t>remdates</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>fas_score</t>
+  </si>
+  <si>
+    <t>ivp_b7_complete</t>
+  </si>
+  <si>
+    <t>ivp_b7</t>
+  </si>
+  <si>
+    <t>fu_bills</t>
+  </si>
+  <si>
+    <t>fu_taxes</t>
+  </si>
+  <si>
+    <t>fu_shopping</t>
+  </si>
+  <si>
+    <t>fu_games</t>
+  </si>
+  <si>
+    <t>fu_stove</t>
+  </si>
+  <si>
+    <t>fu_mealprep</t>
+  </si>
+  <si>
+    <t>fu_events</t>
+  </si>
+  <si>
+    <t>fu_payattn</t>
+  </si>
+  <si>
+    <t>fu_remdates</t>
+  </si>
+  <si>
+    <t>fu_travel</t>
+  </si>
+  <si>
+    <t>fu_fas_score</t>
+  </si>
+  <si>
+    <t>fvp_b7_complete</t>
+  </si>
+  <si>
+    <t>fvp_b7</t>
+  </si>
+  <si>
+    <t>tele_bills</t>
+  </si>
+  <si>
+    <t>tele_taxes</t>
+  </si>
+  <si>
+    <t>tele_shopping</t>
+  </si>
+  <si>
+    <t>tele_games</t>
+  </si>
+  <si>
+    <t>tele_stove</t>
+  </si>
+  <si>
+    <t>tele_mealprep</t>
+  </si>
+  <si>
+    <t>tele_events</t>
+  </si>
+  <si>
+    <t>tele_payattn</t>
+  </si>
+  <si>
+    <t>tele_remdates</t>
+  </si>
+  <si>
+    <t>tele_travel</t>
+  </si>
+  <si>
+    <t>tvp_b7_complete</t>
+  </si>
+  <si>
+    <t>tvp_b7</t>
+  </si>
+  <si>
+    <t>normexam</t>
+  </si>
+  <si>
+    <t>parksign</t>
+  </si>
+  <si>
+    <t>resttrl</t>
+  </si>
+  <si>
+    <t>slowingl</t>
+  </si>
+  <si>
+    <t>rigidl</t>
+  </si>
+  <si>
+    <t>resttrr</t>
+  </si>
+  <si>
+    <t>slowingr</t>
+  </si>
+  <si>
+    <t>rigidr</t>
+  </si>
+  <si>
+    <t>brady</t>
+  </si>
+  <si>
+    <t>parkgait</t>
+  </si>
+  <si>
+    <t>postinst</t>
+  </si>
+  <si>
+    <t>cvdsigns</t>
+  </si>
+  <si>
+    <t>cortdef</t>
+  </si>
+  <si>
+    <t>sivdfind</t>
+  </si>
+  <si>
+    <t>cvdmotl</t>
+  </si>
+  <si>
+    <t>cortvisl</t>
+  </si>
+  <si>
+    <t>somatl</t>
+  </si>
+  <si>
+    <t>cvdmotr</t>
+  </si>
+  <si>
+    <t>cortvisr</t>
+  </si>
+  <si>
+    <t>somatr</t>
+  </si>
+  <si>
+    <t>postcort</t>
+  </si>
+  <si>
+    <t>pspcbs</t>
+  </si>
+  <si>
+    <t>eyepsp</t>
+  </si>
+  <si>
+    <t>dyspsp</t>
+  </si>
+  <si>
+    <t>axialpsp</t>
+  </si>
+  <si>
+    <t>gaitpsp</t>
+  </si>
+  <si>
+    <t>apraxsp</t>
+  </si>
+  <si>
+    <t>apraxl</t>
+  </si>
+  <si>
+    <t>cortsenl</t>
+  </si>
+  <si>
+    <t>ataxl</t>
+  </si>
+  <si>
+    <t>alienlml</t>
+  </si>
+  <si>
+    <t>dystonl</t>
+  </si>
+  <si>
+    <t>myocllt</t>
+  </si>
+  <si>
+    <t>apraxr</t>
+  </si>
+  <si>
+    <t>cortsenr</t>
+  </si>
+  <si>
+    <t>ataxr</t>
+  </si>
+  <si>
+    <t>alienlmr</t>
+  </si>
+  <si>
+    <t>dystonr</t>
+  </si>
+  <si>
+    <t>myoclrt</t>
+  </si>
+  <si>
+    <t>alsfind</t>
+  </si>
+  <si>
+    <t>gaitnph</t>
+  </si>
+  <si>
+    <t>othneur</t>
+  </si>
+  <si>
+    <t>othneurx</t>
+  </si>
+  <si>
+    <t>ivp_b8_complete</t>
+  </si>
+  <si>
+    <t>ivp_b8</t>
+  </si>
+  <si>
+    <t>fu_normexam</t>
+  </si>
+  <si>
+    <t>fu_parksign</t>
+  </si>
+  <si>
+    <t>fu_resttrl</t>
+  </si>
+  <si>
+    <t>fu_slowingl</t>
+  </si>
+  <si>
+    <t>fu_rigidl</t>
+  </si>
+  <si>
+    <t>fu_resttrr</t>
+  </si>
+  <si>
+    <t>fu_slowingr</t>
+  </si>
+  <si>
+    <t>fu_rigidr</t>
+  </si>
+  <si>
+    <t>fu_brady</t>
+  </si>
+  <si>
+    <t>fu_parkgait</t>
+  </si>
+  <si>
+    <t>fu_postinst</t>
+  </si>
+  <si>
+    <t>fu_cvdsigns</t>
+  </si>
+  <si>
+    <t>fu_cortdef</t>
+  </si>
+  <si>
+    <t>fu_sivdfind</t>
+  </si>
+  <si>
+    <t>fu_cvdmotl</t>
+  </si>
+  <si>
+    <t>fu_cortvisl</t>
+  </si>
+  <si>
+    <t>fu_somatl</t>
+  </si>
+  <si>
+    <t>fu_cvdmotr</t>
+  </si>
+  <si>
+    <t>fu_cortvisr</t>
+  </si>
+  <si>
+    <t>fu_somatr</t>
+  </si>
+  <si>
+    <t>fu_postcort</t>
+  </si>
+  <si>
+    <t>fu_pspcbs</t>
+  </si>
+  <si>
+    <t>fu_eyepsp</t>
+  </si>
+  <si>
+    <t>fu_dyspsp</t>
+  </si>
+  <si>
+    <t>fu_axialpsp</t>
+  </si>
+  <si>
+    <t>fu_gaitpsp</t>
+  </si>
+  <si>
+    <t>fu_apraxsp</t>
+  </si>
+  <si>
+    <t>fu_apraxl</t>
+  </si>
+  <si>
+    <t>fu_cortsenl</t>
+  </si>
+  <si>
+    <t>fu_ataxl</t>
+  </si>
+  <si>
+    <t>fu_alienlml</t>
+  </si>
+  <si>
+    <t>fu_dystonl</t>
+  </si>
+  <si>
+    <t>fu_myocllt</t>
+  </si>
+  <si>
+    <t>fu_apraxr</t>
+  </si>
+  <si>
+    <t>fu_cortsenr</t>
+  </si>
+  <si>
+    <t>fu_ataxr</t>
+  </si>
+  <si>
+    <t>fu_alienlmr</t>
+  </si>
+  <si>
+    <t>fu_dystonr</t>
+  </si>
+  <si>
+    <t>fu_myoclrt</t>
+  </si>
+  <si>
+    <t>fu_alsfind</t>
+  </si>
+  <si>
+    <t>fu_gaitnph</t>
+  </si>
+  <si>
+    <t>fu_othneur</t>
+  </si>
+  <si>
+    <t>fu_othneurx</t>
+  </si>
+  <si>
+    <t>fvp_b8_complete</t>
+  </si>
+  <si>
+    <t>fvp_b8</t>
   </si>
 </sst>
 </file>
@@ -4787,7 +5171,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5218,11 +5652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCC9BF6-0E02-034A-99C2-203518C15656}">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H618"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F558" sqref="F558"/>
+      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A619" sqref="A619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18872,7 +19306,7 @@
         <v>1430</v>
       </c>
       <c r="D515" t="b">
-        <f t="shared" ref="D515:D562" si="16">IF(NOT(ISBLANK(C515)),A515=REPLACE(C515,1,3,""),"")</f>
+        <f t="shared" ref="D515:D578" si="16">IF(NOT(ISBLANK(C515)),A515=REPLACE(C515,1,3,""),"")</f>
         <v>1</v>
       </c>
       <c r="E515" t="s">
@@ -18885,7 +19319,7 @@
         <v>1444</v>
       </c>
       <c r="H515" t="b">
-        <f t="shared" ref="H515:H562" si="17">IF(NOT(ISBLANK(F515)),A515=REPLACE(F515,1,5,""),"")</f>
+        <f t="shared" ref="H515:H578" si="17">IF(NOT(ISBLANK(F515)),A515=REPLACE(F515,1,5,""),"")</f>
         <v>1</v>
       </c>
     </row>
@@ -20094,63 +20528,1389 @@
         <v/>
       </c>
     </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D563" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E563" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G563" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H563" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D564" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E564" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F564" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G564" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H564" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D565" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E565" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F565" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G565" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H565" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D566" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E566" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G566" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H566" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D567" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E567" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G567" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H567" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D568" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F568" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G568" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H568" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D569" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E569" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F569" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G569" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H569" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D570" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E570" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F570" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G570" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H570" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D571" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E571" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G571" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H571" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D572" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G572" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H572" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D573" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G573" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H573" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D574" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G574" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H574" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D575" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H575" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D576" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H576" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D577" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H577" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D578" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E578" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H578" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D579" t="b">
+        <f t="shared" ref="D579:D618" si="18">IF(NOT(ISBLANK(C579)),A579=REPLACE(C579,1,3,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H579" t="str">
+        <f t="shared" ref="H579:H618" si="19">IF(NOT(ISBLANK(F579)),A579=REPLACE(F579,1,5,""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D580" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H580" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D581" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H581" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D582" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H582" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D583" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E583" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H583" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D584" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H584" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D585" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E585" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H585" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D586" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H586" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D587" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H587" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D588" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E588" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H588" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D589" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H589" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D590" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H590" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D591" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H591" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D592" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H592" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D593" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H593" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D594" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E594" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H594" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D595" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E595" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H595" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D596" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E596" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H596" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D597" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E597" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H597" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D598" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E598" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H598" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D599" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E599" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H599" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D600" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E600" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H600" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D601" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E601" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H601" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D602" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E602" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H602" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D603" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E603" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H603" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D604" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E604" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H604" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D605" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E605" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H605" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D606" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E606" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H606" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D607" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E607" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H607" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D608" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H608" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D609" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E609" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H609" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D610" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H610" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D611" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H611" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D612" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H612" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D613" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H613" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D614" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E614" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H614" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D615" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E615" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H615" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D616" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E616" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H616" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D617" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E617" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H617" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D618" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E618" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H618" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E373 E376 E379 E382 E385 E388 E391 E394 E397 E400 E403 E406 E409 E412 E415 E418 E421 E424:E425 E428 E431 E434 E437 E440 E443 E446 E449 E452 E455 E458 E461 E464 E467 E470 E473 E476 E479 E482 E485 E488 E491 E494 E497 E500 E503 E506 E510 E514 E517 E520 E523 E526 E529 E532 E535 E538 E541 E544 D1:D1048576 H1:H1048576">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="E373 E376 E379 E382 E385 E388 E391 E394 E397 E400 E403 E406 E409 E412 E415 E418 E421 E424:E425 E428 E431 E434 E437 E440 E443 E446 E449 E452 E455 E458 E461 E464 E467 E470 E473 E476 E479 E482 E485 E488 E491 E494 E497 E500 E503 E506 E510 E514 E517 E520 E523 E526 E529 E532 E535 E538 E541 E544 E563 E566 E569 E572 D1:D1048576 H1:H1048576">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E374 E377 E380 E383 E386 E389 E392 E395 E398 E401 E404 E407 E410 E413 E416 E419 E422">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E375 E378 E381 E384 E387 E390 E393 E396 E399 E402 E405 E408 E411 E414 E417 E420 E423">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E426 E429 E432 E435 E438 E441 E444 E447 E450 E453 E456 E459 E462 E465 E468 E471 E474 E477 E480 E483 E486 E489 E492">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E427 E430 E433 E436 E439 E442 E445 E448 E451 E454 E457 E460 E463 E466 E469 E472 E475 E478 E481 E484 E487 E490 E493">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E495 E498 E501 E504">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E496 E499 E502 E505">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E375 E378 E381 E384 E387 E390 E393 E396 E399 E402 E405 E408 E411 E414 E417 E420 E423">
+  <conditionalFormatting sqref="E507 E511 E515">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E426 E429 E432 E435 E438 E441 E444 E447 E450 E453 E456 E459 E462 E465 E468 E471 E474 E477 E480 E483 E486 E489 E492">
+  <conditionalFormatting sqref="E508 E512 E516">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E427 E430 E433 E436 E439 E442 E445 E448 E451 E454 E457 E460 E463 E466 E469 E472 E475 E478 E481 E484 E487 E490 E493">
+  <conditionalFormatting sqref="E509 E513">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E495 E498 E501 E504">
+  <conditionalFormatting sqref="E518 E521 E524 E527 E530 E533 E536 E539 E542">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E496 E499 E502 E505">
+  <conditionalFormatting sqref="E519 E522 E525 E528 E531 E534 E537 E540 E543">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E507 E511 E515">
+  <conditionalFormatting sqref="E564 E567 E570 E573">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E508 E512 E516">
+  <conditionalFormatting sqref="E565 E568 E571 E574:E575 E579 E583 E587 E591 E595 E599 E603 E607 E611 E615">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E509 E513">
+  <conditionalFormatting sqref="E576 E580 E584 E588 E592 E596 E600 E604 E608 E612 E616">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E518 E521 E524 E527 E530 E533 E536 E539 E542">
+  <conditionalFormatting sqref="E577 E581 E585 E589 E593 E597 E601 E605 E609 E613 E617">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E519 E522 E525 E528 E531 E534 E537 E540 E543">
+  <conditionalFormatting sqref="E578 E582 E586 E590 E594 E598 E602 E606 E610 E614 E618">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
